--- a/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
@@ -4,56 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="2.制冷循环水（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_zhileng_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>6-7#  焦炉制冷循环水操作记录</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                   年        月         日   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                               SGSSG-BSMCSA35-G008-001A      </t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -63,6 +34,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SGSSG-BSMCSA35-G008-001A </t>
   </si>
   <si>
     <t>项目      时间</t>
@@ -638,13 +612,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +656,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -740,8 +721,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,43 +773,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,16 +789,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,22 +843,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -860,35 +850,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -926,13 +895,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,163 +1063,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,6 +1583,78 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,48 +1676,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1685,46 +1684,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1733,140 +1702,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1905,15 +1874,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1925,77 +1897,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2004,55 +1982,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2060,13 +2038,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
@@ -2329,6 +2307,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2589,8 +2580,8 @@
   <sheetPr/>
   <dimension ref="A1:AR36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2654,4766 +2645,4772 @@
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="36" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
     </row>
     <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="1:44">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="48" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="56" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AD3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="58" t="s">
+      <c r="AE3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="68"/>
+      <c r="AF3" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="71"/>
     </row>
     <row r="4" customFormat="1" ht="29.1" customHeight="1" spans="1:44">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="J4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="M4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41" t="s">
+      <c r="N4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="O4" s="43"/>
+      <c r="P4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="41" t="s">
+      <c r="Q4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="S4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="50" t="s">
+      <c r="T4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="V4" s="43"/>
+      <c r="W4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="X4" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA4" s="22" t="s">
+      <c r="Y4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="59" t="s">
+      <c r="AA4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="61" t="s">
+      <c r="AB4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="61" t="s">
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="61" t="s">
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="68"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="71"/>
     </row>
     <row r="5" customFormat="1" ht="29.1" customHeight="1" spans="1:44">
-      <c r="A5" s="14"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="43" t="s">
+      <c r="E5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="54" t="s">
+      <c r="O5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="63" t="s">
+      <c r="V5" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="63" t="s">
+      <c r="W5" s="44"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="63" t="s">
+      <c r="AG5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ5" s="63" t="s">
+      <c r="AH5" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="63" t="s">
+      <c r="AJ5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM5" s="63" t="s">
+      <c r="AK5" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AN5" s="63" t="s">
+      <c r="AM5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AO5" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP5" s="63" t="s">
+      <c r="AN5" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AQ5" s="70" t="s">
+      <c r="AP5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AR5" s="68"/>
+      <c r="AQ5" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="71"/>
     </row>
     <row r="6" customFormat="1" ht="45.6" customHeight="1" spans="1:44">
-      <c r="A6" s="14"/>
-      <c r="B6" s="25" t="s">
-        <v>36</v>
+      <c r="A6" s="15"/>
+      <c r="B6" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK6" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AO6" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP6" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR6" s="71"/>
+        <v>77</v>
+      </c>
+      <c r="AR6" s="74"/>
     </row>
     <row r="7" customFormat="1" spans="2:43">
-      <c r="B7" s="26">
+      <c r="B7" s="27">
         <v>0</v>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="28" t="str">
         <f>IF(_zhileng_day_hour!A2="","",_zhileng_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="28" t="str">
         <f>IF(_zhileng_day_hour!B2="","",_zhileng_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="E7" s="28" t="str">
         <f>IF(_zhileng_day_hour!C2="","",_zhileng_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="F7" s="28" t="str">
         <f>IF(_zhileng_day_hour!D2="","",_zhileng_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G7" s="27" t="str">
+      <c r="G7" s="28" t="str">
         <f>IF(_zhileng_day_hour!E2="","",_zhileng_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H7" s="27" t="str">
+      <c r="H7" s="28" t="str">
         <f>IF(_zhileng_day_hour!F2="","",_zhileng_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="28" t="str">
         <f>IF(_zhileng_day_hour!G2="","",_zhileng_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J7" s="27" t="str">
+      <c r="J7" s="28" t="str">
         <f>IF(_zhileng_day_hour!H2="","",_zhileng_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K7" s="27" t="str">
+      <c r="K7" s="28" t="str">
         <f>IF(_zhileng_day_hour!I2="","",_zhileng_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L7" s="27" t="str">
+      <c r="L7" s="28" t="str">
         <f>IF(_zhileng_day_hour!J2="","",_zhileng_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M7" s="27" t="str">
+      <c r="M7" s="28" t="str">
         <f>IF(_zhileng_day_hour!K2="","",_zhileng_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="28" t="str">
         <f>IF(_zhileng_day_hour!L2="","",_zhileng_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O7" s="27" t="str">
+      <c r="O7" s="28" t="str">
         <f>IF(_zhileng_day_hour!M2="","",_zhileng_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P7" s="27" t="str">
+      <c r="P7" s="28" t="str">
         <f>IF(_zhileng_day_hour!N2="","",_zhileng_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q7" s="27" t="str">
+      <c r="Q7" s="28" t="str">
         <f>IF(_zhileng_day_hour!O2="","",_zhileng_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R7" s="27" t="str">
+      <c r="R7" s="28" t="str">
         <f>IF(_zhileng_day_hour!P2="","",_zhileng_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S7" s="27" t="str">
+      <c r="S7" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q2="","",_zhileng_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T7" s="27" t="str">
+      <c r="T7" s="28" t="str">
         <f>IF(_zhileng_day_hour!R2="","",_zhileng_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U7" s="27" t="str">
+      <c r="U7" s="28" t="str">
         <f>IF(_zhileng_day_hour!S2="","",_zhileng_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V7" s="27" t="str">
+      <c r="V7" s="28" t="str">
         <f>IF(_zhileng_day_hour!T2="","",_zhileng_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W7" s="27" t="str">
+      <c r="W7" s="28" t="str">
         <f>IF(_zhileng_day_hour!U2="","",_zhileng_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X7" s="27" t="str">
+      <c r="X7" s="28" t="str">
         <f>IF(_zhileng_day_hour!V2="","",_zhileng_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y7" s="27" t="str">
+      <c r="Y7" s="28" t="str">
         <f>IF(_zhileng_day_hour!W2="","",_zhileng_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z7" s="27" t="str">
+      <c r="Z7" s="28" t="str">
         <f>IF(_zhileng_day_hour!X2="","",_zhileng_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA7" s="27" t="str">
+      <c r="AA7" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y2="","",_zhileng_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB7" s="27" t="str">
+      <c r="AB7" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z2="","",_zhileng_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC7" s="27" t="str">
+      <c r="AC7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA2="","",_zhileng_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD7" s="27" t="str">
+      <c r="AD7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB2="","",_zhileng_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE7" s="27" t="str">
+      <c r="AE7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC2="","",_zhileng_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF7" s="27" t="str">
+      <c r="AF7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD2="","",_zhileng_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG7" s="27" t="str">
+      <c r="AG7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE2="","",_zhileng_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH7" s="27" t="str">
+      <c r="AH7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF2="","",_zhileng_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI7" s="27" t="str">
+      <c r="AI7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG2="","",_zhileng_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ7" s="27" t="str">
+      <c r="AJ7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH2="","",_zhileng_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK7" s="27" t="str">
+      <c r="AK7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI2="","",_zhileng_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL7" s="27" t="str">
+      <c r="AL7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ2="","",_zhileng_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM7" s="27" t="str">
+      <c r="AM7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK2="","",_zhileng_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN7" s="27" t="str">
+      <c r="AN7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL2="","",_zhileng_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO7" s="27" t="str">
+      <c r="AO7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM2="","",_zhileng_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP7" s="27" t="str">
+      <c r="AP7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN2="","",_zhileng_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ7" s="72" t="str">
+      <c r="AQ7" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO2="","",_zhileng_day_hour!AO2)</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:43">
-      <c r="B8" s="26">
+      <c r="B8" s="27">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="28" t="str">
         <f>IF(_zhileng_day_hour!A3="","",_zhileng_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="28" t="str">
         <f>IF(_zhileng_day_hour!B3="","",_zhileng_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E8" s="27" t="str">
+      <c r="E8" s="28" t="str">
         <f>IF(_zhileng_day_hour!C3="","",_zhileng_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F8" s="27" t="str">
+      <c r="F8" s="28" t="str">
         <f>IF(_zhileng_day_hour!D3="","",_zhileng_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G8" s="27" t="str">
+      <c r="G8" s="28" t="str">
         <f>IF(_zhileng_day_hour!E3="","",_zhileng_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H8" s="27" t="str">
+      <c r="H8" s="28" t="str">
         <f>IF(_zhileng_day_hour!F3="","",_zhileng_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(_zhileng_day_hour!G3="","",_zhileng_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J8" s="27" t="str">
+      <c r="J8" s="28" t="str">
         <f>IF(_zhileng_day_hour!H3="","",_zhileng_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K8" s="27" t="str">
+      <c r="K8" s="28" t="str">
         <f>IF(_zhileng_day_hour!I3="","",_zhileng_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L8" s="27" t="str">
+      <c r="L8" s="28" t="str">
         <f>IF(_zhileng_day_hour!J3="","",_zhileng_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M8" s="27" t="str">
+      <c r="M8" s="28" t="str">
         <f>IF(_zhileng_day_hour!K3="","",_zhileng_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N8" s="27" t="str">
+      <c r="N8" s="28" t="str">
         <f>IF(_zhileng_day_hour!L3="","",_zhileng_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O8" s="27" t="str">
+      <c r="O8" s="28" t="str">
         <f>IF(_zhileng_day_hour!M3="","",_zhileng_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P8" s="27" t="str">
+      <c r="P8" s="28" t="str">
         <f>IF(_zhileng_day_hour!N3="","",_zhileng_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q8" s="27" t="str">
+      <c r="Q8" s="28" t="str">
         <f>IF(_zhileng_day_hour!O3="","",_zhileng_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R8" s="27" t="str">
+      <c r="R8" s="28" t="str">
         <f>IF(_zhileng_day_hour!P3="","",_zhileng_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S8" s="27" t="str">
+      <c r="S8" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q3="","",_zhileng_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T8" s="27" t="str">
+      <c r="T8" s="28" t="str">
         <f>IF(_zhileng_day_hour!R3="","",_zhileng_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U8" s="27" t="str">
+      <c r="U8" s="28" t="str">
         <f>IF(_zhileng_day_hour!S3="","",_zhileng_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V8" s="27" t="str">
+      <c r="V8" s="28" t="str">
         <f>IF(_zhileng_day_hour!T3="","",_zhileng_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W8" s="27" t="str">
+      <c r="W8" s="28" t="str">
         <f>IF(_zhileng_day_hour!U3="","",_zhileng_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X8" s="27" t="str">
+      <c r="X8" s="28" t="str">
         <f>IF(_zhileng_day_hour!V3="","",_zhileng_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y8" s="27" t="str">
+      <c r="Y8" s="28" t="str">
         <f>IF(_zhileng_day_hour!W3="","",_zhileng_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z8" s="27" t="str">
+      <c r="Z8" s="28" t="str">
         <f>IF(_zhileng_day_hour!X3="","",_zhileng_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA8" s="27" t="str">
+      <c r="AA8" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y3="","",_zhileng_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB8" s="27" t="str">
+      <c r="AB8" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z3="","",_zhileng_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC8" s="27" t="str">
+      <c r="AC8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA3="","",_zhileng_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD8" s="27" t="str">
+      <c r="AD8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB3="","",_zhileng_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE8" s="27" t="str">
+      <c r="AE8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC3="","",_zhileng_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF8" s="27" t="str">
+      <c r="AF8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD3="","",_zhileng_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG8" s="27" t="str">
+      <c r="AG8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE3="","",_zhileng_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH8" s="27" t="str">
+      <c r="AH8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF3="","",_zhileng_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI8" s="27" t="str">
+      <c r="AI8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG3="","",_zhileng_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ8" s="27" t="str">
+      <c r="AJ8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH3="","",_zhileng_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK8" s="27" t="str">
+      <c r="AK8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI3="","",_zhileng_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL8" s="27" t="str">
+      <c r="AL8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ3="","",_zhileng_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM8" s="27" t="str">
+      <c r="AM8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK3="","",_zhileng_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN8" s="27" t="str">
+      <c r="AN8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL3="","",_zhileng_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO8" s="27" t="str">
+      <c r="AO8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM3="","",_zhileng_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP8" s="27" t="str">
+      <c r="AP8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN3="","",_zhileng_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ8" s="72" t="str">
+      <c r="AQ8" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO3="","",_zhileng_day_hour!AO3)</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:43">
-      <c r="B9" s="26">
+      <c r="B9" s="27">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="28" t="str">
         <f>IF(_zhileng_day_hour!A4="","",_zhileng_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D9" s="27" t="str">
+      <c r="D9" s="28" t="str">
         <f>IF(_zhileng_day_hour!B4="","",_zhileng_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="28" t="str">
         <f>IF(_zhileng_day_hour!C4="","",_zhileng_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F9" s="27" t="str">
+      <c r="F9" s="28" t="str">
         <f>IF(_zhileng_day_hour!D4="","",_zhileng_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="28" t="str">
         <f>IF(_zhileng_day_hour!E4="","",_zhileng_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H9" s="27" t="str">
+      <c r="H9" s="28" t="str">
         <f>IF(_zhileng_day_hour!F4="","",_zhileng_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="28" t="str">
         <f>IF(_zhileng_day_hour!G4="","",_zhileng_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J9" s="27" t="str">
+      <c r="J9" s="28" t="str">
         <f>IF(_zhileng_day_hour!H4="","",_zhileng_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K9" s="27" t="str">
+      <c r="K9" s="28" t="str">
         <f>IF(_zhileng_day_hour!I4="","",_zhileng_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L9" s="27" t="str">
+      <c r="L9" s="28" t="str">
         <f>IF(_zhileng_day_hour!J4="","",_zhileng_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M9" s="27" t="str">
+      <c r="M9" s="28" t="str">
         <f>IF(_zhileng_day_hour!K4="","",_zhileng_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N9" s="27" t="str">
+      <c r="N9" s="28" t="str">
         <f>IF(_zhileng_day_hour!L4="","",_zhileng_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O9" s="27" t="str">
+      <c r="O9" s="28" t="str">
         <f>IF(_zhileng_day_hour!M4="","",_zhileng_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P9" s="27" t="str">
+      <c r="P9" s="28" t="str">
         <f>IF(_zhileng_day_hour!N4="","",_zhileng_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q9" s="27" t="str">
+      <c r="Q9" s="28" t="str">
         <f>IF(_zhileng_day_hour!O4="","",_zhileng_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R9" s="27" t="str">
+      <c r="R9" s="28" t="str">
         <f>IF(_zhileng_day_hour!P4="","",_zhileng_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S9" s="27" t="str">
+      <c r="S9" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q4="","",_zhileng_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T9" s="27" t="str">
+      <c r="T9" s="28" t="str">
         <f>IF(_zhileng_day_hour!R4="","",_zhileng_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U9" s="27" t="str">
+      <c r="U9" s="28" t="str">
         <f>IF(_zhileng_day_hour!S4="","",_zhileng_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V9" s="27" t="str">
+      <c r="V9" s="28" t="str">
         <f>IF(_zhileng_day_hour!T4="","",_zhileng_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W9" s="27" t="str">
+      <c r="W9" s="28" t="str">
         <f>IF(_zhileng_day_hour!U4="","",_zhileng_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X9" s="27" t="str">
+      <c r="X9" s="28" t="str">
         <f>IF(_zhileng_day_hour!V4="","",_zhileng_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y9" s="27" t="str">
+      <c r="Y9" s="28" t="str">
         <f>IF(_zhileng_day_hour!W4="","",_zhileng_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z9" s="27" t="str">
+      <c r="Z9" s="28" t="str">
         <f>IF(_zhileng_day_hour!X4="","",_zhileng_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA9" s="27" t="str">
+      <c r="AA9" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y4="","",_zhileng_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB9" s="27" t="str">
+      <c r="AB9" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z4="","",_zhileng_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC9" s="27" t="str">
+      <c r="AC9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA4="","",_zhileng_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD9" s="27" t="str">
+      <c r="AD9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB4="","",_zhileng_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE9" s="27" t="str">
+      <c r="AE9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC4="","",_zhileng_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF9" s="27" t="str">
+      <c r="AF9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD4="","",_zhileng_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG9" s="27" t="str">
+      <c r="AG9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE4="","",_zhileng_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH9" s="27" t="str">
+      <c r="AH9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF4="","",_zhileng_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI9" s="27" t="str">
+      <c r="AI9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG4="","",_zhileng_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ9" s="27" t="str">
+      <c r="AJ9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH4="","",_zhileng_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK9" s="27" t="str">
+      <c r="AK9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI4="","",_zhileng_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL9" s="27" t="str">
+      <c r="AL9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ4="","",_zhileng_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM9" s="27" t="str">
+      <c r="AM9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK4="","",_zhileng_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN9" s="27" t="str">
+      <c r="AN9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL4="","",_zhileng_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO9" s="27" t="str">
+      <c r="AO9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM4="","",_zhileng_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP9" s="27" t="str">
+      <c r="AP9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN4="","",_zhileng_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ9" s="72" t="str">
+      <c r="AQ9" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO4="","",_zhileng_day_hour!AO4)</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:43">
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>0.125</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="28" t="str">
         <f>IF(_zhileng_day_hour!A5="","",_zhileng_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="28" t="str">
         <f>IF(_zhileng_day_hour!B5="","",_zhileng_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="28" t="str">
         <f>IF(_zhileng_day_hour!C5="","",_zhileng_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="28" t="str">
         <f>IF(_zhileng_day_hour!D5="","",_zhileng_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="28" t="str">
         <f>IF(_zhileng_day_hour!E5="","",_zhileng_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H10" s="27" t="str">
+      <c r="H10" s="28" t="str">
         <f>IF(_zhileng_day_hour!F5="","",_zhileng_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="28" t="str">
         <f>IF(_zhileng_day_hour!G5="","",_zhileng_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J10" s="27" t="str">
+      <c r="J10" s="28" t="str">
         <f>IF(_zhileng_day_hour!H5="","",_zhileng_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="28" t="str">
         <f>IF(_zhileng_day_hour!I5="","",_zhileng_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L10" s="27" t="str">
+      <c r="L10" s="28" t="str">
         <f>IF(_zhileng_day_hour!J5="","",_zhileng_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M10" s="27" t="str">
+      <c r="M10" s="28" t="str">
         <f>IF(_zhileng_day_hour!K5="","",_zhileng_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N10" s="27" t="str">
+      <c r="N10" s="28" t="str">
         <f>IF(_zhileng_day_hour!L5="","",_zhileng_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O10" s="27" t="str">
+      <c r="O10" s="28" t="str">
         <f>IF(_zhileng_day_hour!M5="","",_zhileng_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P10" s="27" t="str">
+      <c r="P10" s="28" t="str">
         <f>IF(_zhileng_day_hour!N5="","",_zhileng_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q10" s="27" t="str">
+      <c r="Q10" s="28" t="str">
         <f>IF(_zhileng_day_hour!O5="","",_zhileng_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R10" s="27" t="str">
+      <c r="R10" s="28" t="str">
         <f>IF(_zhileng_day_hour!P5="","",_zhileng_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S10" s="27" t="str">
+      <c r="S10" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q5="","",_zhileng_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T10" s="27" t="str">
+      <c r="T10" s="28" t="str">
         <f>IF(_zhileng_day_hour!R5="","",_zhileng_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U10" s="27" t="str">
+      <c r="U10" s="28" t="str">
         <f>IF(_zhileng_day_hour!S5="","",_zhileng_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V10" s="27" t="str">
+      <c r="V10" s="28" t="str">
         <f>IF(_zhileng_day_hour!T5="","",_zhileng_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W10" s="27" t="str">
+      <c r="W10" s="28" t="str">
         <f>IF(_zhileng_day_hour!U5="","",_zhileng_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X10" s="27" t="str">
+      <c r="X10" s="28" t="str">
         <f>IF(_zhileng_day_hour!V5="","",_zhileng_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y10" s="27" t="str">
+      <c r="Y10" s="28" t="str">
         <f>IF(_zhileng_day_hour!W5="","",_zhileng_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z10" s="27" t="str">
+      <c r="Z10" s="28" t="str">
         <f>IF(_zhileng_day_hour!X5="","",_zhileng_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA10" s="27" t="str">
+      <c r="AA10" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y5="","",_zhileng_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB10" s="27" t="str">
+      <c r="AB10" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z5="","",_zhileng_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC10" s="27" t="str">
+      <c r="AC10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA5="","",_zhileng_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD10" s="27" t="str">
+      <c r="AD10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB5="","",_zhileng_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE10" s="27" t="str">
+      <c r="AE10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC5="","",_zhileng_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF10" s="27" t="str">
+      <c r="AF10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD5="","",_zhileng_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG10" s="27" t="str">
+      <c r="AG10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE5="","",_zhileng_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH10" s="27" t="str">
+      <c r="AH10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF5="","",_zhileng_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI10" s="27" t="str">
+      <c r="AI10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG5="","",_zhileng_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ10" s="27" t="str">
+      <c r="AJ10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH5="","",_zhileng_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK10" s="27" t="str">
+      <c r="AK10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI5="","",_zhileng_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL10" s="27" t="str">
+      <c r="AL10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ5="","",_zhileng_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM10" s="27" t="str">
+      <c r="AM10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK5="","",_zhileng_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN10" s="27" t="str">
+      <c r="AN10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL5="","",_zhileng_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO10" s="27" t="str">
+      <c r="AO10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM5="","",_zhileng_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP10" s="27" t="str">
+      <c r="AP10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN5="","",_zhileng_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ10" s="72" t="str">
+      <c r="AQ10" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO5="","",_zhileng_day_hour!AO5)</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:43">
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>0.166666666666667</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="28" t="str">
         <f>IF(_zhileng_day_hour!A6="","",_zhileng_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="28" t="str">
         <f>IF(_zhileng_day_hour!B6="","",_zhileng_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="28" t="str">
         <f>IF(_zhileng_day_hour!C6="","",_zhileng_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" s="28" t="str">
         <f>IF(_zhileng_day_hour!D6="","",_zhileng_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="28" t="str">
         <f>IF(_zhileng_day_hour!E6="","",_zhileng_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H11" s="27" t="str">
+      <c r="H11" s="28" t="str">
         <f>IF(_zhileng_day_hour!F6="","",_zhileng_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="28" t="str">
         <f>IF(_zhileng_day_hour!G6="","",_zhileng_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J11" s="27" t="str">
+      <c r="J11" s="28" t="str">
         <f>IF(_zhileng_day_hour!H6="","",_zhileng_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K11" s="28" t="str">
         <f>IF(_zhileng_day_hour!I6="","",_zhileng_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L11" s="27" t="str">
+      <c r="L11" s="28" t="str">
         <f>IF(_zhileng_day_hour!J6="","",_zhileng_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M11" s="27" t="str">
+      <c r="M11" s="28" t="str">
         <f>IF(_zhileng_day_hour!K6="","",_zhileng_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N11" s="27" t="str">
+      <c r="N11" s="28" t="str">
         <f>IF(_zhileng_day_hour!L6="","",_zhileng_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O11" s="27" t="str">
+      <c r="O11" s="28" t="str">
         <f>IF(_zhileng_day_hour!M6="","",_zhileng_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P11" s="27" t="str">
+      <c r="P11" s="28" t="str">
         <f>IF(_zhileng_day_hour!N6="","",_zhileng_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q11" s="27" t="str">
+      <c r="Q11" s="28" t="str">
         <f>IF(_zhileng_day_hour!O6="","",_zhileng_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R11" s="27" t="str">
+      <c r="R11" s="28" t="str">
         <f>IF(_zhileng_day_hour!P6="","",_zhileng_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S11" s="27" t="str">
+      <c r="S11" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q6="","",_zhileng_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T11" s="27" t="str">
+      <c r="T11" s="28" t="str">
         <f>IF(_zhileng_day_hour!R6="","",_zhileng_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U11" s="27" t="str">
+      <c r="U11" s="28" t="str">
         <f>IF(_zhileng_day_hour!S6="","",_zhileng_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V11" s="27" t="str">
+      <c r="V11" s="28" t="str">
         <f>IF(_zhileng_day_hour!T6="","",_zhileng_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W11" s="27" t="str">
+      <c r="W11" s="28" t="str">
         <f>IF(_zhileng_day_hour!U6="","",_zhileng_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X11" s="27" t="str">
+      <c r="X11" s="28" t="str">
         <f>IF(_zhileng_day_hour!V6="","",_zhileng_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y11" s="27" t="str">
+      <c r="Y11" s="28" t="str">
         <f>IF(_zhileng_day_hour!W6="","",_zhileng_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z11" s="27" t="str">
+      <c r="Z11" s="28" t="str">
         <f>IF(_zhileng_day_hour!X6="","",_zhileng_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA11" s="27" t="str">
+      <c r="AA11" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y6="","",_zhileng_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB11" s="27" t="str">
+      <c r="AB11" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z6="","",_zhileng_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC11" s="27" t="str">
+      <c r="AC11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA6="","",_zhileng_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD11" s="27" t="str">
+      <c r="AD11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB6="","",_zhileng_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE11" s="27" t="str">
+      <c r="AE11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC6="","",_zhileng_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF11" s="27" t="str">
+      <c r="AF11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD6="","",_zhileng_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG11" s="27" t="str">
+      <c r="AG11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE6="","",_zhileng_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH11" s="27" t="str">
+      <c r="AH11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF6="","",_zhileng_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI11" s="27" t="str">
+      <c r="AI11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG6="","",_zhileng_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ11" s="27" t="str">
+      <c r="AJ11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH6="","",_zhileng_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK11" s="27" t="str">
+      <c r="AK11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI6="","",_zhileng_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL11" s="27" t="str">
+      <c r="AL11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ6="","",_zhileng_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM11" s="27" t="str">
+      <c r="AM11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK6="","",_zhileng_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN11" s="27" t="str">
+      <c r="AN11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL6="","",_zhileng_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO11" s="27" t="str">
+      <c r="AO11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM6="","",_zhileng_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP11" s="27" t="str">
+      <c r="AP11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN6="","",_zhileng_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ11" s="72" t="str">
+      <c r="AQ11" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO6="","",_zhileng_day_hour!AO6)</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:43">
-      <c r="B12" s="26">
+      <c r="B12" s="27">
         <v>0.208333333333333</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="28" t="str">
         <f>IF(_zhileng_day_hour!A7="","",_zhileng_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D12" s="27" t="str">
+      <c r="D12" s="28" t="str">
         <f>IF(_zhileng_day_hour!B7="","",_zhileng_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E12" s="27" t="str">
+      <c r="E12" s="28" t="str">
         <f>IF(_zhileng_day_hour!C7="","",_zhileng_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F12" s="27" t="str">
+      <c r="F12" s="28" t="str">
         <f>IF(_zhileng_day_hour!D7="","",_zhileng_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G12" s="27" t="str">
+      <c r="G12" s="28" t="str">
         <f>IF(_zhileng_day_hour!E7="","",_zhileng_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H12" s="27" t="str">
+      <c r="H12" s="28" t="str">
         <f>IF(_zhileng_day_hour!F7="","",_zhileng_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="28" t="str">
         <f>IF(_zhileng_day_hour!G7="","",_zhileng_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J12" s="27" t="str">
+      <c r="J12" s="28" t="str">
         <f>IF(_zhileng_day_hour!H7="","",_zhileng_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="K12" s="28" t="str">
         <f>IF(_zhileng_day_hour!I7="","",_zhileng_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L12" s="27" t="str">
+      <c r="L12" s="28" t="str">
         <f>IF(_zhileng_day_hour!J7="","",_zhileng_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M12" s="27" t="str">
+      <c r="M12" s="28" t="str">
         <f>IF(_zhileng_day_hour!K7="","",_zhileng_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N12" s="27" t="str">
+      <c r="N12" s="28" t="str">
         <f>IF(_zhileng_day_hour!L7="","",_zhileng_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O12" s="27" t="str">
+      <c r="O12" s="28" t="str">
         <f>IF(_zhileng_day_hour!M7="","",_zhileng_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P12" s="27" t="str">
+      <c r="P12" s="28" t="str">
         <f>IF(_zhileng_day_hour!N7="","",_zhileng_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q12" s="27" t="str">
+      <c r="Q12" s="28" t="str">
         <f>IF(_zhileng_day_hour!O7="","",_zhileng_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R12" s="27" t="str">
+      <c r="R12" s="28" t="str">
         <f>IF(_zhileng_day_hour!P7="","",_zhileng_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S12" s="27" t="str">
+      <c r="S12" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q7="","",_zhileng_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T12" s="27" t="str">
+      <c r="T12" s="28" t="str">
         <f>IF(_zhileng_day_hour!R7="","",_zhileng_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U12" s="27" t="str">
+      <c r="U12" s="28" t="str">
         <f>IF(_zhileng_day_hour!S7="","",_zhileng_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V12" s="27" t="str">
+      <c r="V12" s="28" t="str">
         <f>IF(_zhileng_day_hour!T7="","",_zhileng_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W12" s="27" t="str">
+      <c r="W12" s="28" t="str">
         <f>IF(_zhileng_day_hour!U7="","",_zhileng_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X12" s="27" t="str">
+      <c r="X12" s="28" t="str">
         <f>IF(_zhileng_day_hour!V7="","",_zhileng_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y12" s="27" t="str">
+      <c r="Y12" s="28" t="str">
         <f>IF(_zhileng_day_hour!W7="","",_zhileng_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z12" s="27" t="str">
+      <c r="Z12" s="28" t="str">
         <f>IF(_zhileng_day_hour!X7="","",_zhileng_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA12" s="27" t="str">
+      <c r="AA12" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y7="","",_zhileng_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB12" s="27" t="str">
+      <c r="AB12" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z7="","",_zhileng_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC12" s="27" t="str">
+      <c r="AC12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA7="","",_zhileng_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD12" s="27" t="str">
+      <c r="AD12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB7="","",_zhileng_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE12" s="27" t="str">
+      <c r="AE12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC7="","",_zhileng_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF12" s="27" t="str">
+      <c r="AF12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD7="","",_zhileng_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG12" s="27" t="str">
+      <c r="AG12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE7="","",_zhileng_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH12" s="27" t="str">
+      <c r="AH12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF7="","",_zhileng_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI12" s="27" t="str">
+      <c r="AI12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG7="","",_zhileng_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ12" s="27" t="str">
+      <c r="AJ12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH7="","",_zhileng_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK12" s="27" t="str">
+      <c r="AK12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI7="","",_zhileng_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL12" s="27" t="str">
+      <c r="AL12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ7="","",_zhileng_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM12" s="27" t="str">
+      <c r="AM12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK7="","",_zhileng_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN12" s="27" t="str">
+      <c r="AN12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL7="","",_zhileng_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO12" s="27" t="str">
+      <c r="AO12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM7="","",_zhileng_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP12" s="27" t="str">
+      <c r="AP12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN7="","",_zhileng_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ12" s="72" t="str">
+      <c r="AQ12" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO7="","",_zhileng_day_hour!AO7)</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:43">
-      <c r="B13" s="26">
+      <c r="B13" s="27">
         <v>0.25</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_zhileng_day_hour!A8="","",_zhileng_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_zhileng_day_hour!B8="","",_zhileng_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_zhileng_day_hour!C8="","",_zhileng_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_zhileng_day_hour!D8="","",_zhileng_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_zhileng_day_hour!E8="","",_zhileng_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H13" s="27" t="str">
+      <c r="H13" s="28" t="str">
         <f>IF(_zhileng_day_hour!F8="","",_zhileng_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I13" s="27" t="str">
+      <c r="I13" s="28" t="str">
         <f>IF(_zhileng_day_hour!G8="","",_zhileng_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J13" s="27" t="str">
+      <c r="J13" s="28" t="str">
         <f>IF(_zhileng_day_hour!H8="","",_zhileng_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K13" s="27" t="str">
+      <c r="K13" s="28" t="str">
         <f>IF(_zhileng_day_hour!I8="","",_zhileng_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L13" s="27" t="str">
+      <c r="L13" s="28" t="str">
         <f>IF(_zhileng_day_hour!J8="","",_zhileng_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M13" s="27" t="str">
+      <c r="M13" s="28" t="str">
         <f>IF(_zhileng_day_hour!K8="","",_zhileng_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N13" s="27" t="str">
+      <c r="N13" s="28" t="str">
         <f>IF(_zhileng_day_hour!L8="","",_zhileng_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O13" s="27" t="str">
+      <c r="O13" s="28" t="str">
         <f>IF(_zhileng_day_hour!M8="","",_zhileng_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P13" s="27" t="str">
+      <c r="P13" s="28" t="str">
         <f>IF(_zhileng_day_hour!N8="","",_zhileng_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q13" s="27" t="str">
+      <c r="Q13" s="28" t="str">
         <f>IF(_zhileng_day_hour!O8="","",_zhileng_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R13" s="27" t="str">
+      <c r="R13" s="28" t="str">
         <f>IF(_zhileng_day_hour!P8="","",_zhileng_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S13" s="27" t="str">
+      <c r="S13" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q8="","",_zhileng_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T13" s="27" t="str">
+      <c r="T13" s="28" t="str">
         <f>IF(_zhileng_day_hour!R8="","",_zhileng_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U13" s="27" t="str">
+      <c r="U13" s="28" t="str">
         <f>IF(_zhileng_day_hour!S8="","",_zhileng_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V13" s="27" t="str">
+      <c r="V13" s="28" t="str">
         <f>IF(_zhileng_day_hour!T8="","",_zhileng_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W13" s="27" t="str">
+      <c r="W13" s="28" t="str">
         <f>IF(_zhileng_day_hour!U8="","",_zhileng_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X13" s="27" t="str">
+      <c r="X13" s="28" t="str">
         <f>IF(_zhileng_day_hour!V8="","",_zhileng_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y13" s="27" t="str">
+      <c r="Y13" s="28" t="str">
         <f>IF(_zhileng_day_hour!W8="","",_zhileng_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z13" s="27" t="str">
+      <c r="Z13" s="28" t="str">
         <f>IF(_zhileng_day_hour!X8="","",_zhileng_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA13" s="27" t="str">
+      <c r="AA13" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y8="","",_zhileng_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB13" s="27" t="str">
+      <c r="AB13" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z8="","",_zhileng_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC13" s="27" t="str">
+      <c r="AC13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA8="","",_zhileng_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD13" s="27" t="str">
+      <c r="AD13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB8="","",_zhileng_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE13" s="27" t="str">
+      <c r="AE13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC8="","",_zhileng_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF13" s="27" t="str">
+      <c r="AF13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD8="","",_zhileng_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG13" s="27" t="str">
+      <c r="AG13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE8="","",_zhileng_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH13" s="27" t="str">
+      <c r="AH13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF8="","",_zhileng_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI13" s="27" t="str">
+      <c r="AI13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG8="","",_zhileng_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ13" s="27" t="str">
+      <c r="AJ13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH8="","",_zhileng_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK13" s="27" t="str">
+      <c r="AK13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI8="","",_zhileng_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL13" s="27" t="str">
+      <c r="AL13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ8="","",_zhileng_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM13" s="27" t="str">
+      <c r="AM13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK8="","",_zhileng_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN13" s="27" t="str">
+      <c r="AN13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL8="","",_zhileng_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO13" s="27" t="str">
+      <c r="AO13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM8="","",_zhileng_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP13" s="27" t="str">
+      <c r="AP13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN8="","",_zhileng_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ13" s="72" t="str">
+      <c r="AQ13" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO8="","",_zhileng_day_hour!AO8)</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:43">
-      <c r="B14" s="26">
+      <c r="B14" s="27">
         <v>0.291666666666667</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="28" t="str">
         <f>IF(_zhileng_day_hour!A9="","",_zhileng_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="28" t="str">
         <f>IF(_zhileng_day_hour!B9="","",_zhileng_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="28" t="str">
         <f>IF(_zhileng_day_hour!C9="","",_zhileng_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="28" t="str">
         <f>IF(_zhileng_day_hour!D9="","",_zhileng_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="28" t="str">
         <f>IF(_zhileng_day_hour!E9="","",_zhileng_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H14" s="27" t="str">
+      <c r="H14" s="28" t="str">
         <f>IF(_zhileng_day_hour!F9="","",_zhileng_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(_zhileng_day_hour!G9="","",_zhileng_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="J14" s="28" t="str">
         <f>IF(_zhileng_day_hour!H9="","",_zhileng_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="28" t="str">
         <f>IF(_zhileng_day_hour!I9="","",_zhileng_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L14" s="27" t="str">
+      <c r="L14" s="28" t="str">
         <f>IF(_zhileng_day_hour!J9="","",_zhileng_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M14" s="27" t="str">
+      <c r="M14" s="28" t="str">
         <f>IF(_zhileng_day_hour!K9="","",_zhileng_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N14" s="27" t="str">
+      <c r="N14" s="28" t="str">
         <f>IF(_zhileng_day_hour!L9="","",_zhileng_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O14" s="27" t="str">
+      <c r="O14" s="28" t="str">
         <f>IF(_zhileng_day_hour!M9="","",_zhileng_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P14" s="27" t="str">
+      <c r="P14" s="28" t="str">
         <f>IF(_zhileng_day_hour!N9="","",_zhileng_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q14" s="27" t="str">
+      <c r="Q14" s="28" t="str">
         <f>IF(_zhileng_day_hour!O9="","",_zhileng_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R14" s="27" t="str">
+      <c r="R14" s="28" t="str">
         <f>IF(_zhileng_day_hour!P9="","",_zhileng_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S14" s="27" t="str">
+      <c r="S14" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q9="","",_zhileng_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T14" s="27" t="str">
+      <c r="T14" s="28" t="str">
         <f>IF(_zhileng_day_hour!R9="","",_zhileng_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U14" s="27" t="str">
+      <c r="U14" s="28" t="str">
         <f>IF(_zhileng_day_hour!S9="","",_zhileng_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V14" s="27" t="str">
+      <c r="V14" s="28" t="str">
         <f>IF(_zhileng_day_hour!T9="","",_zhileng_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W14" s="27" t="str">
+      <c r="W14" s="28" t="str">
         <f>IF(_zhileng_day_hour!U9="","",_zhileng_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X14" s="27" t="str">
+      <c r="X14" s="28" t="str">
         <f>IF(_zhileng_day_hour!V9="","",_zhileng_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y14" s="27" t="str">
+      <c r="Y14" s="28" t="str">
         <f>IF(_zhileng_day_hour!W9="","",_zhileng_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z14" s="27" t="str">
+      <c r="Z14" s="28" t="str">
         <f>IF(_zhileng_day_hour!X9="","",_zhileng_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA14" s="27" t="str">
+      <c r="AA14" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y9="","",_zhileng_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB14" s="27" t="str">
+      <c r="AB14" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z9="","",_zhileng_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC14" s="27" t="str">
+      <c r="AC14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA9="","",_zhileng_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD14" s="27" t="str">
+      <c r="AD14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB9="","",_zhileng_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE14" s="27" t="str">
+      <c r="AE14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC9="","",_zhileng_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF14" s="27" t="str">
+      <c r="AF14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD9="","",_zhileng_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG14" s="27" t="str">
+      <c r="AG14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE9="","",_zhileng_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH14" s="27" t="str">
+      <c r="AH14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF9="","",_zhileng_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI14" s="27" t="str">
+      <c r="AI14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG9="","",_zhileng_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ14" s="27" t="str">
+      <c r="AJ14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH9="","",_zhileng_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK14" s="27" t="str">
+      <c r="AK14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI9="","",_zhileng_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL14" s="27" t="str">
+      <c r="AL14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ9="","",_zhileng_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM14" s="27" t="str">
+      <c r="AM14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK9="","",_zhileng_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN14" s="27" t="str">
+      <c r="AN14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL9="","",_zhileng_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO14" s="27" t="str">
+      <c r="AO14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM9="","",_zhileng_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP14" s="27" t="str">
+      <c r="AP14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN9="","",_zhileng_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ14" s="72" t="str">
+      <c r="AQ14" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO9="","",_zhileng_day_hour!AO9)</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:43">
-      <c r="B15" s="26">
+      <c r="B15" s="27">
         <v>0.333333333333333</v>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="28" t="str">
         <f>IF(_zhileng_day_hour!A10="","",_zhileng_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="28" t="str">
         <f>IF(_zhileng_day_hour!B10="","",_zhileng_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="28" t="str">
         <f>IF(_zhileng_day_hour!C10="","",_zhileng_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="28" t="str">
         <f>IF(_zhileng_day_hour!D10="","",_zhileng_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="28" t="str">
         <f>IF(_zhileng_day_hour!E10="","",_zhileng_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H15" s="27" t="str">
+      <c r="H15" s="28" t="str">
         <f>IF(_zhileng_day_hour!F10="","",_zhileng_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="28" t="str">
         <f>IF(_zhileng_day_hour!G10="","",_zhileng_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J15" s="27" t="str">
+      <c r="J15" s="28" t="str">
         <f>IF(_zhileng_day_hour!H10="","",_zhileng_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K15" s="27" t="str">
+      <c r="K15" s="28" t="str">
         <f>IF(_zhileng_day_hour!I10="","",_zhileng_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L15" s="27" t="str">
+      <c r="L15" s="28" t="str">
         <f>IF(_zhileng_day_hour!J10="","",_zhileng_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M15" s="27" t="str">
+      <c r="M15" s="28" t="str">
         <f>IF(_zhileng_day_hour!K10="","",_zhileng_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N15" s="27" t="str">
+      <c r="N15" s="28" t="str">
         <f>IF(_zhileng_day_hour!L10="","",_zhileng_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O15" s="27" t="str">
+      <c r="O15" s="28" t="str">
         <f>IF(_zhileng_day_hour!M10="","",_zhileng_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P15" s="27" t="str">
+      <c r="P15" s="28" t="str">
         <f>IF(_zhileng_day_hour!N10="","",_zhileng_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q15" s="27" t="str">
+      <c r="Q15" s="28" t="str">
         <f>IF(_zhileng_day_hour!O10="","",_zhileng_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R15" s="27" t="str">
+      <c r="R15" s="28" t="str">
         <f>IF(_zhileng_day_hour!P10="","",_zhileng_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S15" s="27" t="str">
+      <c r="S15" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q10="","",_zhileng_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T15" s="27" t="str">
+      <c r="T15" s="28" t="str">
         <f>IF(_zhileng_day_hour!R10="","",_zhileng_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U15" s="27" t="str">
+      <c r="U15" s="28" t="str">
         <f>IF(_zhileng_day_hour!S10="","",_zhileng_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V15" s="27" t="str">
+      <c r="V15" s="28" t="str">
         <f>IF(_zhileng_day_hour!T10="","",_zhileng_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W15" s="27" t="str">
+      <c r="W15" s="28" t="str">
         <f>IF(_zhileng_day_hour!U10="","",_zhileng_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X15" s="27" t="str">
+      <c r="X15" s="28" t="str">
         <f>IF(_zhileng_day_hour!V10="","",_zhileng_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y15" s="27" t="str">
+      <c r="Y15" s="28" t="str">
         <f>IF(_zhileng_day_hour!W10="","",_zhileng_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z15" s="27" t="str">
+      <c r="Z15" s="28" t="str">
         <f>IF(_zhileng_day_hour!X10="","",_zhileng_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA15" s="27" t="str">
+      <c r="AA15" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y10="","",_zhileng_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB15" s="27" t="str">
+      <c r="AB15" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z10="","",_zhileng_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC15" s="27" t="str">
+      <c r="AC15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA10="","",_zhileng_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD15" s="27" t="str">
+      <c r="AD15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB10="","",_zhileng_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE15" s="27" t="str">
+      <c r="AE15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC10="","",_zhileng_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF15" s="27" t="str">
+      <c r="AF15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD10="","",_zhileng_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG15" s="27" t="str">
+      <c r="AG15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE10="","",_zhileng_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH15" s="27" t="str">
+      <c r="AH15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF10="","",_zhileng_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI15" s="27" t="str">
+      <c r="AI15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG10="","",_zhileng_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ15" s="27" t="str">
+      <c r="AJ15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH10="","",_zhileng_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK15" s="27" t="str">
+      <c r="AK15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI10="","",_zhileng_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL15" s="27" t="str">
+      <c r="AL15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ10="","",_zhileng_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM15" s="27" t="str">
+      <c r="AM15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK10="","",_zhileng_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN15" s="27" t="str">
+      <c r="AN15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL10="","",_zhileng_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO15" s="27" t="str">
+      <c r="AO15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM10="","",_zhileng_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP15" s="27" t="str">
+      <c r="AP15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN10="","",_zhileng_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ15" s="72" t="str">
+      <c r="AQ15" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO10="","",_zhileng_day_hour!AO10)</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:43">
-      <c r="B16" s="26">
+      <c r="B16" s="27">
         <v>0.375</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="28" t="str">
         <f>IF(_zhileng_day_hour!A11="","",_zhileng_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="28" t="str">
         <f>IF(_zhileng_day_hour!B11="","",_zhileng_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E16" s="27" t="str">
+      <c r="E16" s="28" t="str">
         <f>IF(_zhileng_day_hour!C11="","",_zhileng_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="28" t="str">
         <f>IF(_zhileng_day_hour!D11="","",_zhileng_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="28" t="str">
         <f>IF(_zhileng_day_hour!E11="","",_zhileng_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H16" s="27" t="str">
+      <c r="H16" s="28" t="str">
         <f>IF(_zhileng_day_hour!F11="","",_zhileng_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(_zhileng_day_hour!G11="","",_zhileng_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J16" s="27" t="str">
+      <c r="J16" s="28" t="str">
         <f>IF(_zhileng_day_hour!H11="","",_zhileng_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K16" s="27" t="str">
+      <c r="K16" s="28" t="str">
         <f>IF(_zhileng_day_hour!I11="","",_zhileng_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L16" s="27" t="str">
+      <c r="L16" s="28" t="str">
         <f>IF(_zhileng_day_hour!J11="","",_zhileng_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M16" s="27" t="str">
+      <c r="M16" s="28" t="str">
         <f>IF(_zhileng_day_hour!K11="","",_zhileng_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N16" s="27" t="str">
+      <c r="N16" s="28" t="str">
         <f>IF(_zhileng_day_hour!L11="","",_zhileng_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O16" s="27" t="str">
+      <c r="O16" s="28" t="str">
         <f>IF(_zhileng_day_hour!M11="","",_zhileng_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P16" s="27" t="str">
+      <c r="P16" s="28" t="str">
         <f>IF(_zhileng_day_hour!N11="","",_zhileng_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q16" s="27" t="str">
+      <c r="Q16" s="28" t="str">
         <f>IF(_zhileng_day_hour!O11="","",_zhileng_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R16" s="27" t="str">
+      <c r="R16" s="28" t="str">
         <f>IF(_zhileng_day_hour!P11="","",_zhileng_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S16" s="27" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q11="","",_zhileng_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T16" s="27" t="str">
+      <c r="T16" s="28" t="str">
         <f>IF(_zhileng_day_hour!R11="","",_zhileng_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U16" s="27" t="str">
+      <c r="U16" s="28" t="str">
         <f>IF(_zhileng_day_hour!S11="","",_zhileng_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V16" s="27" t="str">
+      <c r="V16" s="28" t="str">
         <f>IF(_zhileng_day_hour!T11="","",_zhileng_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W16" s="27" t="str">
+      <c r="W16" s="28" t="str">
         <f>IF(_zhileng_day_hour!U11="","",_zhileng_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X16" s="27" t="str">
+      <c r="X16" s="28" t="str">
         <f>IF(_zhileng_day_hour!V11="","",_zhileng_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y16" s="27" t="str">
+      <c r="Y16" s="28" t="str">
         <f>IF(_zhileng_day_hour!W11="","",_zhileng_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z16" s="27" t="str">
+      <c r="Z16" s="28" t="str">
         <f>IF(_zhileng_day_hour!X11="","",_zhileng_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA16" s="27" t="str">
+      <c r="AA16" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y11="","",_zhileng_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB16" s="27" t="str">
+      <c r="AB16" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z11="","",_zhileng_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC16" s="27" t="str">
+      <c r="AC16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA11="","",_zhileng_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD16" s="27" t="str">
+      <c r="AD16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB11="","",_zhileng_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE16" s="27" t="str">
+      <c r="AE16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC11="","",_zhileng_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF16" s="27" t="str">
+      <c r="AF16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD11="","",_zhileng_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG16" s="27" t="str">
+      <c r="AG16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE11="","",_zhileng_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH16" s="27" t="str">
+      <c r="AH16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF11="","",_zhileng_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI16" s="27" t="str">
+      <c r="AI16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG11="","",_zhileng_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ16" s="27" t="str">
+      <c r="AJ16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH11="","",_zhileng_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK16" s="27" t="str">
+      <c r="AK16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI11="","",_zhileng_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL16" s="27" t="str">
+      <c r="AL16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ11="","",_zhileng_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM16" s="27" t="str">
+      <c r="AM16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK11="","",_zhileng_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN16" s="27" t="str">
+      <c r="AN16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL11="","",_zhileng_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO16" s="27" t="str">
+      <c r="AO16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM11="","",_zhileng_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP16" s="27" t="str">
+      <c r="AP16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN11="","",_zhileng_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ16" s="72" t="str">
+      <c r="AQ16" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO11="","",_zhileng_day_hour!AO11)</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:43">
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>0.416666666666666</v>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="28" t="str">
         <f>IF(_zhileng_day_hour!A12="","",_zhileng_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="28" t="str">
         <f>IF(_zhileng_day_hour!B12="","",_zhileng_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E17" s="27" t="str">
+      <c r="E17" s="28" t="str">
         <f>IF(_zhileng_day_hour!C12="","",_zhileng_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="28" t="str">
         <f>IF(_zhileng_day_hour!D12="","",_zhileng_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="G17" s="28" t="str">
         <f>IF(_zhileng_day_hour!E12="","",_zhileng_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H17" s="27" t="str">
+      <c r="H17" s="28" t="str">
         <f>IF(_zhileng_day_hour!F12="","",_zhileng_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="28" t="str">
         <f>IF(_zhileng_day_hour!G12="","",_zhileng_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J17" s="27" t="str">
+      <c r="J17" s="28" t="str">
         <f>IF(_zhileng_day_hour!H12="","",_zhileng_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K17" s="27" t="str">
+      <c r="K17" s="28" t="str">
         <f>IF(_zhileng_day_hour!I12="","",_zhileng_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L17" s="27" t="str">
+      <c r="L17" s="28" t="str">
         <f>IF(_zhileng_day_hour!J12="","",_zhileng_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M17" s="27" t="str">
+      <c r="M17" s="28" t="str">
         <f>IF(_zhileng_day_hour!K12="","",_zhileng_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N17" s="27" t="str">
+      <c r="N17" s="28" t="str">
         <f>IF(_zhileng_day_hour!L12="","",_zhileng_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O17" s="27" t="str">
+      <c r="O17" s="28" t="str">
         <f>IF(_zhileng_day_hour!M12="","",_zhileng_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P17" s="27" t="str">
+      <c r="P17" s="28" t="str">
         <f>IF(_zhileng_day_hour!N12="","",_zhileng_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q17" s="27" t="str">
+      <c r="Q17" s="28" t="str">
         <f>IF(_zhileng_day_hour!O12="","",_zhileng_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R17" s="27" t="str">
+      <c r="R17" s="28" t="str">
         <f>IF(_zhileng_day_hour!P12="","",_zhileng_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S17" s="27" t="str">
+      <c r="S17" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q12="","",_zhileng_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T17" s="27" t="str">
+      <c r="T17" s="28" t="str">
         <f>IF(_zhileng_day_hour!R12="","",_zhileng_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U17" s="27" t="str">
+      <c r="U17" s="28" t="str">
         <f>IF(_zhileng_day_hour!S12="","",_zhileng_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V17" s="27" t="str">
+      <c r="V17" s="28" t="str">
         <f>IF(_zhileng_day_hour!T12="","",_zhileng_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W17" s="27" t="str">
+      <c r="W17" s="28" t="str">
         <f>IF(_zhileng_day_hour!U12="","",_zhileng_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X17" s="27" t="str">
+      <c r="X17" s="28" t="str">
         <f>IF(_zhileng_day_hour!V12="","",_zhileng_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y17" s="27" t="str">
+      <c r="Y17" s="28" t="str">
         <f>IF(_zhileng_day_hour!W12="","",_zhileng_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z17" s="27" t="str">
+      <c r="Z17" s="28" t="str">
         <f>IF(_zhileng_day_hour!X12="","",_zhileng_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA17" s="27" t="str">
+      <c r="AA17" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y12="","",_zhileng_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB17" s="27" t="str">
+      <c r="AB17" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z12="","",_zhileng_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC17" s="27" t="str">
+      <c r="AC17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA12="","",_zhileng_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD17" s="27" t="str">
+      <c r="AD17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB12="","",_zhileng_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE17" s="27" t="str">
+      <c r="AE17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC12="","",_zhileng_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF17" s="27" t="str">
+      <c r="AF17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD12="","",_zhileng_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG17" s="27" t="str">
+      <c r="AG17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE12="","",_zhileng_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH17" s="27" t="str">
+      <c r="AH17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF12="","",_zhileng_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI17" s="27" t="str">
+      <c r="AI17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG12="","",_zhileng_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ17" s="27" t="str">
+      <c r="AJ17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH12="","",_zhileng_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK17" s="27" t="str">
+      <c r="AK17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI12="","",_zhileng_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL17" s="27" t="str">
+      <c r="AL17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ12="","",_zhileng_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM17" s="27" t="str">
+      <c r="AM17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK12="","",_zhileng_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN17" s="27" t="str">
+      <c r="AN17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL12="","",_zhileng_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO17" s="27" t="str">
+      <c r="AO17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM12="","",_zhileng_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP17" s="27" t="str">
+      <c r="AP17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN12="","",_zhileng_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ17" s="72" t="str">
+      <c r="AQ17" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO12="","",_zhileng_day_hour!AO12)</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:43">
-      <c r="B18" s="26">
+      <c r="B18" s="27">
         <v>0.458333333333333</v>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="28" t="str">
         <f>IF(_zhileng_day_hour!A13="","",_zhileng_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="28" t="str">
         <f>IF(_zhileng_day_hour!B13="","",_zhileng_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E18" s="27" t="str">
+      <c r="E18" s="28" t="str">
         <f>IF(_zhileng_day_hour!C13="","",_zhileng_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F18" s="27" t="str">
+      <c r="F18" s="28" t="str">
         <f>IF(_zhileng_day_hour!D13="","",_zhileng_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G18" s="27" t="str">
+      <c r="G18" s="28" t="str">
         <f>IF(_zhileng_day_hour!E13="","",_zhileng_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H18" s="27" t="str">
+      <c r="H18" s="28" t="str">
         <f>IF(_zhileng_day_hour!F13="","",_zhileng_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I18" s="27" t="str">
+      <c r="I18" s="28" t="str">
         <f>IF(_zhileng_day_hour!G13="","",_zhileng_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J18" s="27" t="str">
+      <c r="J18" s="28" t="str">
         <f>IF(_zhileng_day_hour!H13="","",_zhileng_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K18" s="27" t="str">
+      <c r="K18" s="28" t="str">
         <f>IF(_zhileng_day_hour!I13="","",_zhileng_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L18" s="27" t="str">
+      <c r="L18" s="28" t="str">
         <f>IF(_zhileng_day_hour!J13="","",_zhileng_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M18" s="27" t="str">
+      <c r="M18" s="28" t="str">
         <f>IF(_zhileng_day_hour!K13="","",_zhileng_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N18" s="27" t="str">
+      <c r="N18" s="28" t="str">
         <f>IF(_zhileng_day_hour!L13="","",_zhileng_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O18" s="27" t="str">
+      <c r="O18" s="28" t="str">
         <f>IF(_zhileng_day_hour!M13="","",_zhileng_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P18" s="27" t="str">
+      <c r="P18" s="28" t="str">
         <f>IF(_zhileng_day_hour!N13="","",_zhileng_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q18" s="27" t="str">
+      <c r="Q18" s="28" t="str">
         <f>IF(_zhileng_day_hour!O13="","",_zhileng_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R18" s="27" t="str">
+      <c r="R18" s="28" t="str">
         <f>IF(_zhileng_day_hour!P13="","",_zhileng_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S18" s="27" t="str">
+      <c r="S18" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q13="","",_zhileng_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T18" s="27" t="str">
+      <c r="T18" s="28" t="str">
         <f>IF(_zhileng_day_hour!R13="","",_zhileng_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U18" s="27" t="str">
+      <c r="U18" s="28" t="str">
         <f>IF(_zhileng_day_hour!S13="","",_zhileng_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V18" s="27" t="str">
+      <c r="V18" s="28" t="str">
         <f>IF(_zhileng_day_hour!T13="","",_zhileng_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W18" s="27" t="str">
+      <c r="W18" s="28" t="str">
         <f>IF(_zhileng_day_hour!U13="","",_zhileng_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X18" s="27" t="str">
+      <c r="X18" s="28" t="str">
         <f>IF(_zhileng_day_hour!V13="","",_zhileng_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y18" s="27" t="str">
+      <c r="Y18" s="28" t="str">
         <f>IF(_zhileng_day_hour!W13="","",_zhileng_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z18" s="27" t="str">
+      <c r="Z18" s="28" t="str">
         <f>IF(_zhileng_day_hour!X13="","",_zhileng_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA18" s="27" t="str">
+      <c r="AA18" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y13="","",_zhileng_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB18" s="27" t="str">
+      <c r="AB18" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z13="","",_zhileng_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC18" s="27" t="str">
+      <c r="AC18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA13="","",_zhileng_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD18" s="27" t="str">
+      <c r="AD18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB13="","",_zhileng_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE18" s="27" t="str">
+      <c r="AE18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC13="","",_zhileng_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF18" s="27" t="str">
+      <c r="AF18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD13="","",_zhileng_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG18" s="27" t="str">
+      <c r="AG18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE13="","",_zhileng_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH18" s="27" t="str">
+      <c r="AH18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF13="","",_zhileng_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI18" s="27" t="str">
+      <c r="AI18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG13="","",_zhileng_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ18" s="27" t="str">
+      <c r="AJ18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH13="","",_zhileng_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK18" s="27" t="str">
+      <c r="AK18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI13="","",_zhileng_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL18" s="27" t="str">
+      <c r="AL18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ13="","",_zhileng_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM18" s="27" t="str">
+      <c r="AM18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK13="","",_zhileng_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN18" s="27" t="str">
+      <c r="AN18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL13="","",_zhileng_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO18" s="27" t="str">
+      <c r="AO18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM13="","",_zhileng_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP18" s="27" t="str">
+      <c r="AP18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN13="","",_zhileng_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ18" s="72" t="str">
+      <c r="AQ18" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO13="","",_zhileng_day_hour!AO13)</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:43">
-      <c r="B19" s="26">
+      <c r="B19" s="27">
         <v>0.5</v>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="28" t="str">
         <f>IF(_zhileng_day_hour!A14="","",_zhileng_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="28" t="str">
         <f>IF(_zhileng_day_hour!B14="","",_zhileng_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E19" s="27" t="str">
+      <c r="E19" s="28" t="str">
         <f>IF(_zhileng_day_hour!C14="","",_zhileng_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F19" s="27" t="str">
+      <c r="F19" s="28" t="str">
         <f>IF(_zhileng_day_hour!D14="","",_zhileng_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G19" s="27" t="str">
+      <c r="G19" s="28" t="str">
         <f>IF(_zhileng_day_hour!E14="","",_zhileng_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H19" s="27" t="str">
+      <c r="H19" s="28" t="str">
         <f>IF(_zhileng_day_hour!F14="","",_zhileng_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I19" s="27" t="str">
+      <c r="I19" s="28" t="str">
         <f>IF(_zhileng_day_hour!G14="","",_zhileng_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J19" s="27" t="str">
+      <c r="J19" s="28" t="str">
         <f>IF(_zhileng_day_hour!H14="","",_zhileng_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K19" s="27" t="str">
+      <c r="K19" s="28" t="str">
         <f>IF(_zhileng_day_hour!I14="","",_zhileng_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L19" s="27" t="str">
+      <c r="L19" s="28" t="str">
         <f>IF(_zhileng_day_hour!J14="","",_zhileng_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M19" s="27" t="str">
+      <c r="M19" s="28" t="str">
         <f>IF(_zhileng_day_hour!K14="","",_zhileng_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N19" s="27" t="str">
+      <c r="N19" s="28" t="str">
         <f>IF(_zhileng_day_hour!L14="","",_zhileng_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O19" s="27" t="str">
+      <c r="O19" s="28" t="str">
         <f>IF(_zhileng_day_hour!M14="","",_zhileng_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P19" s="27" t="str">
+      <c r="P19" s="28" t="str">
         <f>IF(_zhileng_day_hour!N14="","",_zhileng_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q19" s="27" t="str">
+      <c r="Q19" s="28" t="str">
         <f>IF(_zhileng_day_hour!O14="","",_zhileng_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R19" s="27" t="str">
+      <c r="R19" s="28" t="str">
         <f>IF(_zhileng_day_hour!P14="","",_zhileng_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S19" s="27" t="str">
+      <c r="S19" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q14="","",_zhileng_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T19" s="27" t="str">
+      <c r="T19" s="28" t="str">
         <f>IF(_zhileng_day_hour!R14="","",_zhileng_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U19" s="27" t="str">
+      <c r="U19" s="28" t="str">
         <f>IF(_zhileng_day_hour!S14="","",_zhileng_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V19" s="27" t="str">
+      <c r="V19" s="28" t="str">
         <f>IF(_zhileng_day_hour!T14="","",_zhileng_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W19" s="27" t="str">
+      <c r="W19" s="28" t="str">
         <f>IF(_zhileng_day_hour!U14="","",_zhileng_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X19" s="27" t="str">
+      <c r="X19" s="28" t="str">
         <f>IF(_zhileng_day_hour!V14="","",_zhileng_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y19" s="27" t="str">
+      <c r="Y19" s="28" t="str">
         <f>IF(_zhileng_day_hour!W14="","",_zhileng_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z19" s="27" t="str">
+      <c r="Z19" s="28" t="str">
         <f>IF(_zhileng_day_hour!X14="","",_zhileng_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA19" s="27" t="str">
+      <c r="AA19" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y14="","",_zhileng_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB19" s="27" t="str">
+      <c r="AB19" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z14="","",_zhileng_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC19" s="27" t="str">
+      <c r="AC19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA14="","",_zhileng_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD19" s="27" t="str">
+      <c r="AD19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB14="","",_zhileng_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE19" s="27" t="str">
+      <c r="AE19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC14="","",_zhileng_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF19" s="27" t="str">
+      <c r="AF19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD14="","",_zhileng_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG19" s="27" t="str">
+      <c r="AG19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE14="","",_zhileng_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH19" s="27" t="str">
+      <c r="AH19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF14="","",_zhileng_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI19" s="27" t="str">
+      <c r="AI19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG14="","",_zhileng_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ19" s="27" t="str">
+      <c r="AJ19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH14="","",_zhileng_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK19" s="27" t="str">
+      <c r="AK19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI14="","",_zhileng_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL19" s="27" t="str">
+      <c r="AL19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ14="","",_zhileng_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM19" s="27" t="str">
+      <c r="AM19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK14="","",_zhileng_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN19" s="27" t="str">
+      <c r="AN19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL14="","",_zhileng_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO19" s="27" t="str">
+      <c r="AO19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM14="","",_zhileng_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP19" s="27" t="str">
+      <c r="AP19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN14="","",_zhileng_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ19" s="72" t="str">
+      <c r="AQ19" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO14="","",_zhileng_day_hour!AO14)</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:43">
-      <c r="B20" s="26">
+      <c r="B20" s="27">
         <v>0.541666666666666</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="28" t="str">
         <f>IF(_zhileng_day_hour!A15="","",_zhileng_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="28" t="str">
         <f>IF(_zhileng_day_hour!B15="","",_zhileng_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E20" s="27" t="str">
+      <c r="E20" s="28" t="str">
         <f>IF(_zhileng_day_hour!C15="","",_zhileng_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F20" s="27" t="str">
+      <c r="F20" s="28" t="str">
         <f>IF(_zhileng_day_hour!D15="","",_zhileng_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G20" s="27" t="str">
+      <c r="G20" s="28" t="str">
         <f>IF(_zhileng_day_hour!E15="","",_zhileng_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H20" s="27" t="str">
+      <c r="H20" s="28" t="str">
         <f>IF(_zhileng_day_hour!F15="","",_zhileng_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I20" s="27" t="str">
+      <c r="I20" s="28" t="str">
         <f>IF(_zhileng_day_hour!G15="","",_zhileng_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J20" s="27" t="str">
+      <c r="J20" s="28" t="str">
         <f>IF(_zhileng_day_hour!H15="","",_zhileng_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K20" s="27" t="str">
+      <c r="K20" s="28" t="str">
         <f>IF(_zhileng_day_hour!I15="","",_zhileng_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L20" s="27" t="str">
+      <c r="L20" s="28" t="str">
         <f>IF(_zhileng_day_hour!J15="","",_zhileng_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M20" s="27" t="str">
+      <c r="M20" s="28" t="str">
         <f>IF(_zhileng_day_hour!K15="","",_zhileng_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N20" s="27" t="str">
+      <c r="N20" s="28" t="str">
         <f>IF(_zhileng_day_hour!L15="","",_zhileng_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O20" s="27" t="str">
+      <c r="O20" s="28" t="str">
         <f>IF(_zhileng_day_hour!M15="","",_zhileng_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="28" t="str">
         <f>IF(_zhileng_day_hour!N15="","",_zhileng_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q20" s="27" t="str">
+      <c r="Q20" s="28" t="str">
         <f>IF(_zhileng_day_hour!O15="","",_zhileng_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R20" s="27" t="str">
+      <c r="R20" s="28" t="str">
         <f>IF(_zhileng_day_hour!P15="","",_zhileng_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S20" s="27" t="str">
+      <c r="S20" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q15="","",_zhileng_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T20" s="27" t="str">
+      <c r="T20" s="28" t="str">
         <f>IF(_zhileng_day_hour!R15="","",_zhileng_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U20" s="27" t="str">
+      <c r="U20" s="28" t="str">
         <f>IF(_zhileng_day_hour!S15="","",_zhileng_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V20" s="27" t="str">
+      <c r="V20" s="28" t="str">
         <f>IF(_zhileng_day_hour!T15="","",_zhileng_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W20" s="27" t="str">
+      <c r="W20" s="28" t="str">
         <f>IF(_zhileng_day_hour!U15="","",_zhileng_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X20" s="27" t="str">
+      <c r="X20" s="28" t="str">
         <f>IF(_zhileng_day_hour!V15="","",_zhileng_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y20" s="27" t="str">
+      <c r="Y20" s="28" t="str">
         <f>IF(_zhileng_day_hour!W15="","",_zhileng_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z20" s="27" t="str">
+      <c r="Z20" s="28" t="str">
         <f>IF(_zhileng_day_hour!X15="","",_zhileng_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA20" s="27" t="str">
+      <c r="AA20" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y15="","",_zhileng_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB20" s="27" t="str">
+      <c r="AB20" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z15="","",_zhileng_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC20" s="27" t="str">
+      <c r="AC20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA15="","",_zhileng_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD20" s="27" t="str">
+      <c r="AD20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB15="","",_zhileng_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE20" s="27" t="str">
+      <c r="AE20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC15="","",_zhileng_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF20" s="27" t="str">
+      <c r="AF20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD15="","",_zhileng_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG20" s="27" t="str">
+      <c r="AG20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE15="","",_zhileng_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH20" s="27" t="str">
+      <c r="AH20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF15="","",_zhileng_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI20" s="27" t="str">
+      <c r="AI20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG15="","",_zhileng_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ20" s="27" t="str">
+      <c r="AJ20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH15="","",_zhileng_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK20" s="27" t="str">
+      <c r="AK20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI15="","",_zhileng_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL20" s="27" t="str">
+      <c r="AL20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ15="","",_zhileng_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM20" s="27" t="str">
+      <c r="AM20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK15="","",_zhileng_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN20" s="27" t="str">
+      <c r="AN20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL15="","",_zhileng_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO20" s="27" t="str">
+      <c r="AO20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM15="","",_zhileng_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP20" s="27" t="str">
+      <c r="AP20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN15="","",_zhileng_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ20" s="72" t="str">
+      <c r="AQ20" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO15="","",_zhileng_day_hour!AO15)</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:43">
-      <c r="B21" s="26">
+      <c r="B21" s="27">
         <v>0.583333333333333</v>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="28" t="str">
         <f>IF(_zhileng_day_hour!A16="","",_zhileng_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D21" s="27" t="str">
+      <c r="D21" s="28" t="str">
         <f>IF(_zhileng_day_hour!B16="","",_zhileng_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="28" t="str">
         <f>IF(_zhileng_day_hour!C16="","",_zhileng_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F21" s="27" t="str">
+      <c r="F21" s="28" t="str">
         <f>IF(_zhileng_day_hour!D16="","",_zhileng_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G21" s="27" t="str">
+      <c r="G21" s="28" t="str">
         <f>IF(_zhileng_day_hour!E16="","",_zhileng_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H21" s="27" t="str">
+      <c r="H21" s="28" t="str">
         <f>IF(_zhileng_day_hour!F16="","",_zhileng_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I21" s="27" t="str">
+      <c r="I21" s="28" t="str">
         <f>IF(_zhileng_day_hour!G16="","",_zhileng_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J21" s="27" t="str">
+      <c r="J21" s="28" t="str">
         <f>IF(_zhileng_day_hour!H16="","",_zhileng_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K21" s="27" t="str">
+      <c r="K21" s="28" t="str">
         <f>IF(_zhileng_day_hour!I16="","",_zhileng_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L21" s="27" t="str">
+      <c r="L21" s="28" t="str">
         <f>IF(_zhileng_day_hour!J16="","",_zhileng_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M21" s="27" t="str">
+      <c r="M21" s="28" t="str">
         <f>IF(_zhileng_day_hour!K16="","",_zhileng_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N21" s="27" t="str">
+      <c r="N21" s="28" t="str">
         <f>IF(_zhileng_day_hour!L16="","",_zhileng_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O21" s="27" t="str">
+      <c r="O21" s="28" t="str">
         <f>IF(_zhileng_day_hour!M16="","",_zhileng_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P21" s="27" t="str">
+      <c r="P21" s="28" t="str">
         <f>IF(_zhileng_day_hour!N16="","",_zhileng_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q21" s="27" t="str">
+      <c r="Q21" s="28" t="str">
         <f>IF(_zhileng_day_hour!O16="","",_zhileng_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R21" s="27" t="str">
+      <c r="R21" s="28" t="str">
         <f>IF(_zhileng_day_hour!P16="","",_zhileng_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S21" s="27" t="str">
+      <c r="S21" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q16="","",_zhileng_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T21" s="27" t="str">
+      <c r="T21" s="28" t="str">
         <f>IF(_zhileng_day_hour!R16="","",_zhileng_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U21" s="27" t="str">
+      <c r="U21" s="28" t="str">
         <f>IF(_zhileng_day_hour!S16="","",_zhileng_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V21" s="27" t="str">
+      <c r="V21" s="28" t="str">
         <f>IF(_zhileng_day_hour!T16="","",_zhileng_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W21" s="27" t="str">
+      <c r="W21" s="28" t="str">
         <f>IF(_zhileng_day_hour!U16="","",_zhileng_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X21" s="27" t="str">
+      <c r="X21" s="28" t="str">
         <f>IF(_zhileng_day_hour!V16="","",_zhileng_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y21" s="27" t="str">
+      <c r="Y21" s="28" t="str">
         <f>IF(_zhileng_day_hour!W16="","",_zhileng_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z21" s="27" t="str">
+      <c r="Z21" s="28" t="str">
         <f>IF(_zhileng_day_hour!X16="","",_zhileng_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA21" s="27" t="str">
+      <c r="AA21" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y16="","",_zhileng_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB21" s="27" t="str">
+      <c r="AB21" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z16="","",_zhileng_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC21" s="27" t="str">
+      <c r="AC21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA16="","",_zhileng_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD21" s="27" t="str">
+      <c r="AD21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB16="","",_zhileng_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE21" s="27" t="str">
+      <c r="AE21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC16="","",_zhileng_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF21" s="27" t="str">
+      <c r="AF21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD16="","",_zhileng_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG21" s="27" t="str">
+      <c r="AG21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE16="","",_zhileng_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH21" s="27" t="str">
+      <c r="AH21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF16="","",_zhileng_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI21" s="27" t="str">
+      <c r="AI21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG16="","",_zhileng_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ21" s="27" t="str">
+      <c r="AJ21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH16="","",_zhileng_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK21" s="27" t="str">
+      <c r="AK21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI16="","",_zhileng_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL21" s="27" t="str">
+      <c r="AL21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ16="","",_zhileng_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM21" s="27" t="str">
+      <c r="AM21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK16="","",_zhileng_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN21" s="27" t="str">
+      <c r="AN21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL16="","",_zhileng_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO21" s="27" t="str">
+      <c r="AO21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM16="","",_zhileng_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP21" s="27" t="str">
+      <c r="AP21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN16="","",_zhileng_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ21" s="72" t="str">
+      <c r="AQ21" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO16="","",_zhileng_day_hour!AO16)</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:43">
-      <c r="B22" s="26">
+      <c r="B22" s="27">
         <v>0.625</v>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="28" t="str">
         <f>IF(_zhileng_day_hour!A17="","",_zhileng_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D22" s="27" t="str">
+      <c r="D22" s="28" t="str">
         <f>IF(_zhileng_day_hour!B17="","",_zhileng_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E22" s="27" t="str">
+      <c r="E22" s="28" t="str">
         <f>IF(_zhileng_day_hour!C17="","",_zhileng_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F22" s="27" t="str">
+      <c r="F22" s="28" t="str">
         <f>IF(_zhileng_day_hour!D17="","",_zhileng_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G22" s="27" t="str">
+      <c r="G22" s="28" t="str">
         <f>IF(_zhileng_day_hour!E17="","",_zhileng_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H22" s="27" t="str">
+      <c r="H22" s="28" t="str">
         <f>IF(_zhileng_day_hour!F17="","",_zhileng_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I22" s="27" t="str">
+      <c r="I22" s="28" t="str">
         <f>IF(_zhileng_day_hour!G17="","",_zhileng_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J22" s="27" t="str">
+      <c r="J22" s="28" t="str">
         <f>IF(_zhileng_day_hour!H17="","",_zhileng_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K22" s="27" t="str">
+      <c r="K22" s="28" t="str">
         <f>IF(_zhileng_day_hour!I17="","",_zhileng_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L22" s="27" t="str">
+      <c r="L22" s="28" t="str">
         <f>IF(_zhileng_day_hour!J17="","",_zhileng_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M22" s="27" t="str">
+      <c r="M22" s="28" t="str">
         <f>IF(_zhileng_day_hour!K17="","",_zhileng_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N22" s="27" t="str">
+      <c r="N22" s="28" t="str">
         <f>IF(_zhileng_day_hour!L17="","",_zhileng_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O22" s="27" t="str">
+      <c r="O22" s="28" t="str">
         <f>IF(_zhileng_day_hour!M17="","",_zhileng_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P22" s="27" t="str">
+      <c r="P22" s="28" t="str">
         <f>IF(_zhileng_day_hour!N17="","",_zhileng_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q22" s="27" t="str">
+      <c r="Q22" s="28" t="str">
         <f>IF(_zhileng_day_hour!O17="","",_zhileng_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R22" s="27" t="str">
+      <c r="R22" s="28" t="str">
         <f>IF(_zhileng_day_hour!P17="","",_zhileng_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S22" s="27" t="str">
+      <c r="S22" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q17="","",_zhileng_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T22" s="27" t="str">
+      <c r="T22" s="28" t="str">
         <f>IF(_zhileng_day_hour!R17="","",_zhileng_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U22" s="27" t="str">
+      <c r="U22" s="28" t="str">
         <f>IF(_zhileng_day_hour!S17="","",_zhileng_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V22" s="27" t="str">
+      <c r="V22" s="28" t="str">
         <f>IF(_zhileng_day_hour!T17="","",_zhileng_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W22" s="27" t="str">
+      <c r="W22" s="28" t="str">
         <f>IF(_zhileng_day_hour!U17="","",_zhileng_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X22" s="27" t="str">
+      <c r="X22" s="28" t="str">
         <f>IF(_zhileng_day_hour!V17="","",_zhileng_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y22" s="27" t="str">
+      <c r="Y22" s="28" t="str">
         <f>IF(_zhileng_day_hour!W17="","",_zhileng_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z22" s="27" t="str">
+      <c r="Z22" s="28" t="str">
         <f>IF(_zhileng_day_hour!X17="","",_zhileng_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA22" s="27" t="str">
+      <c r="AA22" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y17="","",_zhileng_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB22" s="27" t="str">
+      <c r="AB22" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z17="","",_zhileng_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC22" s="27" t="str">
+      <c r="AC22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA17="","",_zhileng_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD22" s="27" t="str">
+      <c r="AD22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB17="","",_zhileng_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE22" s="27" t="str">
+      <c r="AE22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC17="","",_zhileng_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF22" s="27" t="str">
+      <c r="AF22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD17="","",_zhileng_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG22" s="27" t="str">
+      <c r="AG22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE17="","",_zhileng_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH22" s="27" t="str">
+      <c r="AH22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF17="","",_zhileng_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI22" s="27" t="str">
+      <c r="AI22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG17="","",_zhileng_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ22" s="27" t="str">
+      <c r="AJ22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH17="","",_zhileng_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK22" s="27" t="str">
+      <c r="AK22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI17="","",_zhileng_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL22" s="27" t="str">
+      <c r="AL22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ17="","",_zhileng_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM22" s="27" t="str">
+      <c r="AM22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK17="","",_zhileng_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN22" s="27" t="str">
+      <c r="AN22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL17="","",_zhileng_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO22" s="27" t="str">
+      <c r="AO22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM17="","",_zhileng_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP22" s="27" t="str">
+      <c r="AP22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN17="","",_zhileng_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ22" s="72" t="str">
+      <c r="AQ22" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO17="","",_zhileng_day_hour!AO17)</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:43">
-      <c r="B23" s="26">
+      <c r="B23" s="27">
         <v>0.666666666666667</v>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="28" t="str">
         <f>IF(_zhileng_day_hour!A18="","",_zhileng_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D23" s="27" t="str">
+      <c r="D23" s="28" t="str">
         <f>IF(_zhileng_day_hour!B18="","",_zhileng_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E23" s="27" t="str">
+      <c r="E23" s="28" t="str">
         <f>IF(_zhileng_day_hour!C18="","",_zhileng_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F23" s="27" t="str">
+      <c r="F23" s="28" t="str">
         <f>IF(_zhileng_day_hour!D18="","",_zhileng_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G23" s="27" t="str">
+      <c r="G23" s="28" t="str">
         <f>IF(_zhileng_day_hour!E18="","",_zhileng_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H23" s="27" t="str">
+      <c r="H23" s="28" t="str">
         <f>IF(_zhileng_day_hour!F18="","",_zhileng_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I23" s="27" t="str">
+      <c r="I23" s="28" t="str">
         <f>IF(_zhileng_day_hour!G18="","",_zhileng_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J23" s="27" t="str">
+      <c r="J23" s="28" t="str">
         <f>IF(_zhileng_day_hour!H18="","",_zhileng_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K23" s="27" t="str">
+      <c r="K23" s="28" t="str">
         <f>IF(_zhileng_day_hour!I18="","",_zhileng_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L23" s="27" t="str">
+      <c r="L23" s="28" t="str">
         <f>IF(_zhileng_day_hour!J18="","",_zhileng_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M23" s="27" t="str">
+      <c r="M23" s="28" t="str">
         <f>IF(_zhileng_day_hour!K18="","",_zhileng_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N23" s="27" t="str">
+      <c r="N23" s="28" t="str">
         <f>IF(_zhileng_day_hour!L18="","",_zhileng_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O23" s="27" t="str">
+      <c r="O23" s="28" t="str">
         <f>IF(_zhileng_day_hour!M18="","",_zhileng_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P23" s="27" t="str">
+      <c r="P23" s="28" t="str">
         <f>IF(_zhileng_day_hour!N18="","",_zhileng_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q23" s="27" t="str">
+      <c r="Q23" s="28" t="str">
         <f>IF(_zhileng_day_hour!O18="","",_zhileng_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R23" s="27" t="str">
+      <c r="R23" s="28" t="str">
         <f>IF(_zhileng_day_hour!P18="","",_zhileng_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S23" s="27" t="str">
+      <c r="S23" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q18="","",_zhileng_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T23" s="27" t="str">
+      <c r="T23" s="28" t="str">
         <f>IF(_zhileng_day_hour!R18="","",_zhileng_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U23" s="27" t="str">
+      <c r="U23" s="28" t="str">
         <f>IF(_zhileng_day_hour!S18="","",_zhileng_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V23" s="27" t="str">
+      <c r="V23" s="28" t="str">
         <f>IF(_zhileng_day_hour!T18="","",_zhileng_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W23" s="27" t="str">
+      <c r="W23" s="28" t="str">
         <f>IF(_zhileng_day_hour!U18="","",_zhileng_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X23" s="27" t="str">
+      <c r="X23" s="28" t="str">
         <f>IF(_zhileng_day_hour!V18="","",_zhileng_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y23" s="27" t="str">
+      <c r="Y23" s="28" t="str">
         <f>IF(_zhileng_day_hour!W18="","",_zhileng_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z23" s="27" t="str">
+      <c r="Z23" s="28" t="str">
         <f>IF(_zhileng_day_hour!X18="","",_zhileng_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA23" s="27" t="str">
+      <c r="AA23" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y18="","",_zhileng_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB23" s="27" t="str">
+      <c r="AB23" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z18="","",_zhileng_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC23" s="27" t="str">
+      <c r="AC23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA18="","",_zhileng_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD23" s="27" t="str">
+      <c r="AD23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB18="","",_zhileng_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE23" s="27" t="str">
+      <c r="AE23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC18="","",_zhileng_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF23" s="27" t="str">
+      <c r="AF23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD18="","",_zhileng_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG23" s="27" t="str">
+      <c r="AG23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE18="","",_zhileng_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH23" s="27" t="str">
+      <c r="AH23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF18="","",_zhileng_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI23" s="27" t="str">
+      <c r="AI23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG18="","",_zhileng_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ23" s="27" t="str">
+      <c r="AJ23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH18="","",_zhileng_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK23" s="27" t="str">
+      <c r="AK23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI18="","",_zhileng_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL23" s="27" t="str">
+      <c r="AL23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ18="","",_zhileng_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM23" s="27" t="str">
+      <c r="AM23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK18="","",_zhileng_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN23" s="27" t="str">
+      <c r="AN23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL18="","",_zhileng_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO23" s="27" t="str">
+      <c r="AO23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM18="","",_zhileng_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP23" s="27" t="str">
+      <c r="AP23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN18="","",_zhileng_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ23" s="72" t="str">
+      <c r="AQ23" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO18="","",_zhileng_day_hour!AO18)</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:43">
-      <c r="B24" s="26">
+      <c r="B24" s="27">
         <v>0.708333333333333</v>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="28" t="str">
         <f>IF(_zhileng_day_hour!A19="","",_zhileng_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D24" s="27" t="str">
+      <c r="D24" s="28" t="str">
         <f>IF(_zhileng_day_hour!B19="","",_zhileng_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E24" s="27" t="str">
+      <c r="E24" s="28" t="str">
         <f>IF(_zhileng_day_hour!C19="","",_zhileng_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F24" s="27" t="str">
+      <c r="F24" s="28" t="str">
         <f>IF(_zhileng_day_hour!D19="","",_zhileng_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G24" s="27" t="str">
+      <c r="G24" s="28" t="str">
         <f>IF(_zhileng_day_hour!E19="","",_zhileng_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H24" s="27" t="str">
+      <c r="H24" s="28" t="str">
         <f>IF(_zhileng_day_hour!F19="","",_zhileng_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I24" s="27" t="str">
+      <c r="I24" s="28" t="str">
         <f>IF(_zhileng_day_hour!G19="","",_zhileng_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J24" s="27" t="str">
+      <c r="J24" s="28" t="str">
         <f>IF(_zhileng_day_hour!H19="","",_zhileng_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K24" s="27" t="str">
+      <c r="K24" s="28" t="str">
         <f>IF(_zhileng_day_hour!I19="","",_zhileng_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L24" s="27" t="str">
+      <c r="L24" s="28" t="str">
         <f>IF(_zhileng_day_hour!J19="","",_zhileng_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M24" s="27" t="str">
+      <c r="M24" s="28" t="str">
         <f>IF(_zhileng_day_hour!K19="","",_zhileng_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N24" s="27" t="str">
+      <c r="N24" s="28" t="str">
         <f>IF(_zhileng_day_hour!L19="","",_zhileng_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O24" s="27" t="str">
+      <c r="O24" s="28" t="str">
         <f>IF(_zhileng_day_hour!M19="","",_zhileng_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P24" s="27" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_zhileng_day_hour!N19="","",_zhileng_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q24" s="27" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_zhileng_day_hour!O19="","",_zhileng_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R24" s="27" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_zhileng_day_hour!P19="","",_zhileng_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S24" s="27" t="str">
+      <c r="S24" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q19="","",_zhileng_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T24" s="27" t="str">
+      <c r="T24" s="28" t="str">
         <f>IF(_zhileng_day_hour!R19="","",_zhileng_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U24" s="27" t="str">
+      <c r="U24" s="28" t="str">
         <f>IF(_zhileng_day_hour!S19="","",_zhileng_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V24" s="27" t="str">
+      <c r="V24" s="28" t="str">
         <f>IF(_zhileng_day_hour!T19="","",_zhileng_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W24" s="27" t="str">
+      <c r="W24" s="28" t="str">
         <f>IF(_zhileng_day_hour!U19="","",_zhileng_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X24" s="27" t="str">
+      <c r="X24" s="28" t="str">
         <f>IF(_zhileng_day_hour!V19="","",_zhileng_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y24" s="27" t="str">
+      <c r="Y24" s="28" t="str">
         <f>IF(_zhileng_day_hour!W19="","",_zhileng_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z24" s="27" t="str">
+      <c r="Z24" s="28" t="str">
         <f>IF(_zhileng_day_hour!X19="","",_zhileng_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA24" s="27" t="str">
+      <c r="AA24" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y19="","",_zhileng_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB24" s="27" t="str">
+      <c r="AB24" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z19="","",_zhileng_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC24" s="27" t="str">
+      <c r="AC24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA19="","",_zhileng_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD24" s="27" t="str">
+      <c r="AD24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB19="","",_zhileng_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE24" s="27" t="str">
+      <c r="AE24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC19="","",_zhileng_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF24" s="27" t="str">
+      <c r="AF24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD19="","",_zhileng_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG24" s="27" t="str">
+      <c r="AG24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE19="","",_zhileng_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH24" s="27" t="str">
+      <c r="AH24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF19="","",_zhileng_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI24" s="27" t="str">
+      <c r="AI24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG19="","",_zhileng_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ24" s="27" t="str">
+      <c r="AJ24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH19="","",_zhileng_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK24" s="27" t="str">
+      <c r="AK24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI19="","",_zhileng_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL24" s="27" t="str">
+      <c r="AL24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ19="","",_zhileng_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM24" s="27" t="str">
+      <c r="AM24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK19="","",_zhileng_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN24" s="27" t="str">
+      <c r="AN24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL19="","",_zhileng_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO24" s="27" t="str">
+      <c r="AO24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM19="","",_zhileng_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP24" s="27" t="str">
+      <c r="AP24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN19="","",_zhileng_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ24" s="72" t="str">
+      <c r="AQ24" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO19="","",_zhileng_day_hour!AO19)</f>
         <v/>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:43">
-      <c r="B25" s="26">
+      <c r="B25" s="27">
         <v>0.75</v>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="28" t="str">
         <f>IF(_zhileng_day_hour!A20="","",_zhileng_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D25" s="27" t="str">
+      <c r="D25" s="28" t="str">
         <f>IF(_zhileng_day_hour!B20="","",_zhileng_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E25" s="27" t="str">
+      <c r="E25" s="28" t="str">
         <f>IF(_zhileng_day_hour!C20="","",_zhileng_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F25" s="27" t="str">
+      <c r="F25" s="28" t="str">
         <f>IF(_zhileng_day_hour!D20="","",_zhileng_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G25" s="27" t="str">
+      <c r="G25" s="28" t="str">
         <f>IF(_zhileng_day_hour!E20="","",_zhileng_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H25" s="27" t="str">
+      <c r="H25" s="28" t="str">
         <f>IF(_zhileng_day_hour!F20="","",_zhileng_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I25" s="27" t="str">
+      <c r="I25" s="28" t="str">
         <f>IF(_zhileng_day_hour!G20="","",_zhileng_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J25" s="27" t="str">
+      <c r="J25" s="28" t="str">
         <f>IF(_zhileng_day_hour!H20="","",_zhileng_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K25" s="27" t="str">
+      <c r="K25" s="28" t="str">
         <f>IF(_zhileng_day_hour!I20="","",_zhileng_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L25" s="27" t="str">
+      <c r="L25" s="28" t="str">
         <f>IF(_zhileng_day_hour!J20="","",_zhileng_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M25" s="27" t="str">
+      <c r="M25" s="28" t="str">
         <f>IF(_zhileng_day_hour!K20="","",_zhileng_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N25" s="27" t="str">
+      <c r="N25" s="28" t="str">
         <f>IF(_zhileng_day_hour!L20="","",_zhileng_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O25" s="27" t="str">
+      <c r="O25" s="28" t="str">
         <f>IF(_zhileng_day_hour!M20="","",_zhileng_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P25" s="27" t="str">
+      <c r="P25" s="28" t="str">
         <f>IF(_zhileng_day_hour!N20="","",_zhileng_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q25" s="27" t="str">
+      <c r="Q25" s="28" t="str">
         <f>IF(_zhileng_day_hour!O20="","",_zhileng_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R25" s="27" t="str">
+      <c r="R25" s="28" t="str">
         <f>IF(_zhileng_day_hour!P20="","",_zhileng_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S25" s="27" t="str">
+      <c r="S25" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q20="","",_zhileng_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T25" s="27" t="str">
+      <c r="T25" s="28" t="str">
         <f>IF(_zhileng_day_hour!R20="","",_zhileng_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U25" s="27" t="str">
+      <c r="U25" s="28" t="str">
         <f>IF(_zhileng_day_hour!S20="","",_zhileng_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V25" s="27" t="str">
+      <c r="V25" s="28" t="str">
         <f>IF(_zhileng_day_hour!T20="","",_zhileng_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W25" s="27" t="str">
+      <c r="W25" s="28" t="str">
         <f>IF(_zhileng_day_hour!U20="","",_zhileng_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X25" s="27" t="str">
+      <c r="X25" s="28" t="str">
         <f>IF(_zhileng_day_hour!V20="","",_zhileng_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y25" s="27" t="str">
+      <c r="Y25" s="28" t="str">
         <f>IF(_zhileng_day_hour!W20="","",_zhileng_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z25" s="27" t="str">
+      <c r="Z25" s="28" t="str">
         <f>IF(_zhileng_day_hour!X20="","",_zhileng_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA25" s="27" t="str">
+      <c r="AA25" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y20="","",_zhileng_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB25" s="27" t="str">
+      <c r="AB25" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z20="","",_zhileng_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC25" s="27" t="str">
+      <c r="AC25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA20="","",_zhileng_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD25" s="27" t="str">
+      <c r="AD25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB20="","",_zhileng_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE25" s="27" t="str">
+      <c r="AE25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC20="","",_zhileng_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF25" s="27" t="str">
+      <c r="AF25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD20="","",_zhileng_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG25" s="27" t="str">
+      <c r="AG25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE20="","",_zhileng_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH25" s="27" t="str">
+      <c r="AH25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF20="","",_zhileng_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI25" s="27" t="str">
+      <c r="AI25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG20="","",_zhileng_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ25" s="27" t="str">
+      <c r="AJ25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH20="","",_zhileng_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK25" s="27" t="str">
+      <c r="AK25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI20="","",_zhileng_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL25" s="27" t="str">
+      <c r="AL25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ20="","",_zhileng_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM25" s="27" t="str">
+      <c r="AM25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK20="","",_zhileng_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN25" s="27" t="str">
+      <c r="AN25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL20="","",_zhileng_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO25" s="27" t="str">
+      <c r="AO25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM20="","",_zhileng_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP25" s="27" t="str">
+      <c r="AP25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN20="","",_zhileng_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ25" s="72" t="str">
+      <c r="AQ25" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO20="","",_zhileng_day_hour!AO20)</f>
         <v/>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:43">
-      <c r="B26" s="26">
+      <c r="B26" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="28" t="str">
         <f>IF(_zhileng_day_hour!A21="","",_zhileng_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D26" s="27" t="str">
+      <c r="D26" s="28" t="str">
         <f>IF(_zhileng_day_hour!B21="","",_zhileng_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E26" s="27" t="str">
+      <c r="E26" s="28" t="str">
         <f>IF(_zhileng_day_hour!C21="","",_zhileng_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F26" s="27" t="str">
+      <c r="F26" s="28" t="str">
         <f>IF(_zhileng_day_hour!D21="","",_zhileng_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G26" s="27" t="str">
+      <c r="G26" s="28" t="str">
         <f>IF(_zhileng_day_hour!E21="","",_zhileng_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H26" s="27" t="str">
+      <c r="H26" s="28" t="str">
         <f>IF(_zhileng_day_hour!F21="","",_zhileng_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I26" s="27" t="str">
+      <c r="I26" s="28" t="str">
         <f>IF(_zhileng_day_hour!G21="","",_zhileng_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J26" s="27" t="str">
+      <c r="J26" s="28" t="str">
         <f>IF(_zhileng_day_hour!H21="","",_zhileng_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K26" s="27" t="str">
+      <c r="K26" s="28" t="str">
         <f>IF(_zhileng_day_hour!I21="","",_zhileng_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L26" s="27" t="str">
+      <c r="L26" s="28" t="str">
         <f>IF(_zhileng_day_hour!J21="","",_zhileng_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M26" s="27" t="str">
+      <c r="M26" s="28" t="str">
         <f>IF(_zhileng_day_hour!K21="","",_zhileng_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N26" s="27" t="str">
+      <c r="N26" s="28" t="str">
         <f>IF(_zhileng_day_hour!L21="","",_zhileng_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O26" s="27" t="str">
+      <c r="O26" s="28" t="str">
         <f>IF(_zhileng_day_hour!M21="","",_zhileng_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P26" s="27" t="str">
+      <c r="P26" s="28" t="str">
         <f>IF(_zhileng_day_hour!N21="","",_zhileng_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q26" s="27" t="str">
+      <c r="Q26" s="28" t="str">
         <f>IF(_zhileng_day_hour!O21="","",_zhileng_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R26" s="27" t="str">
+      <c r="R26" s="28" t="str">
         <f>IF(_zhileng_day_hour!P21="","",_zhileng_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S26" s="27" t="str">
+      <c r="S26" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q21="","",_zhileng_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T26" s="27" t="str">
+      <c r="T26" s="28" t="str">
         <f>IF(_zhileng_day_hour!R21="","",_zhileng_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U26" s="27" t="str">
+      <c r="U26" s="28" t="str">
         <f>IF(_zhileng_day_hour!S21="","",_zhileng_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V26" s="27" t="str">
+      <c r="V26" s="28" t="str">
         <f>IF(_zhileng_day_hour!T21="","",_zhileng_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W26" s="27" t="str">
+      <c r="W26" s="28" t="str">
         <f>IF(_zhileng_day_hour!U21="","",_zhileng_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X26" s="27" t="str">
+      <c r="X26" s="28" t="str">
         <f>IF(_zhileng_day_hour!V21="","",_zhileng_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y26" s="27" t="str">
+      <c r="Y26" s="28" t="str">
         <f>IF(_zhileng_day_hour!W21="","",_zhileng_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z26" s="27" t="str">
+      <c r="Z26" s="28" t="str">
         <f>IF(_zhileng_day_hour!X21="","",_zhileng_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA26" s="27" t="str">
+      <c r="AA26" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y21="","",_zhileng_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB26" s="27" t="str">
+      <c r="AB26" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z21="","",_zhileng_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC26" s="27" t="str">
+      <c r="AC26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA21="","",_zhileng_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD26" s="27" t="str">
+      <c r="AD26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB21="","",_zhileng_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE26" s="27" t="str">
+      <c r="AE26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC21="","",_zhileng_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF26" s="27" t="str">
+      <c r="AF26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD21="","",_zhileng_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG26" s="27" t="str">
+      <c r="AG26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE21="","",_zhileng_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH26" s="27" t="str">
+      <c r="AH26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF21="","",_zhileng_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI26" s="27" t="str">
+      <c r="AI26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG21="","",_zhileng_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ26" s="27" t="str">
+      <c r="AJ26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH21="","",_zhileng_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK26" s="27" t="str">
+      <c r="AK26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI21="","",_zhileng_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL26" s="27" t="str">
+      <c r="AL26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ21="","",_zhileng_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM26" s="27" t="str">
+      <c r="AM26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK21="","",_zhileng_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN26" s="27" t="str">
+      <c r="AN26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL21="","",_zhileng_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO26" s="27" t="str">
+      <c r="AO26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM21="","",_zhileng_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP26" s="27" t="str">
+      <c r="AP26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN21="","",_zhileng_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ26" s="72" t="str">
+      <c r="AQ26" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO21="","",_zhileng_day_hour!AO21)</f>
         <v/>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:43">
-      <c r="B27" s="26">
+      <c r="B27" s="27">
         <v>0.833333333333333</v>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="28" t="str">
         <f>IF(_zhileng_day_hour!A22="","",_zhileng_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D27" s="27" t="str">
+      <c r="D27" s="28" t="str">
         <f>IF(_zhileng_day_hour!B22="","",_zhileng_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E27" s="27" t="str">
+      <c r="E27" s="28" t="str">
         <f>IF(_zhileng_day_hour!C22="","",_zhileng_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F27" s="27" t="str">
+      <c r="F27" s="28" t="str">
         <f>IF(_zhileng_day_hour!D22="","",_zhileng_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G27" s="27" t="str">
+      <c r="G27" s="28" t="str">
         <f>IF(_zhileng_day_hour!E22="","",_zhileng_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H27" s="27" t="str">
+      <c r="H27" s="28" t="str">
         <f>IF(_zhileng_day_hour!F22="","",_zhileng_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I27" s="27" t="str">
+      <c r="I27" s="28" t="str">
         <f>IF(_zhileng_day_hour!G22="","",_zhileng_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J27" s="27" t="str">
+      <c r="J27" s="28" t="str">
         <f>IF(_zhileng_day_hour!H22="","",_zhileng_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K27" s="27" t="str">
+      <c r="K27" s="28" t="str">
         <f>IF(_zhileng_day_hour!I22="","",_zhileng_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L27" s="27" t="str">
+      <c r="L27" s="28" t="str">
         <f>IF(_zhileng_day_hour!J22="","",_zhileng_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M27" s="27" t="str">
+      <c r="M27" s="28" t="str">
         <f>IF(_zhileng_day_hour!K22="","",_zhileng_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N27" s="27" t="str">
+      <c r="N27" s="28" t="str">
         <f>IF(_zhileng_day_hour!L22="","",_zhileng_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O27" s="27" t="str">
+      <c r="O27" s="28" t="str">
         <f>IF(_zhileng_day_hour!M22="","",_zhileng_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P27" s="27" t="str">
+      <c r="P27" s="28" t="str">
         <f>IF(_zhileng_day_hour!N22="","",_zhileng_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q27" s="27" t="str">
+      <c r="Q27" s="28" t="str">
         <f>IF(_zhileng_day_hour!O22="","",_zhileng_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R27" s="27" t="str">
+      <c r="R27" s="28" t="str">
         <f>IF(_zhileng_day_hour!P22="","",_zhileng_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S27" s="27" t="str">
+      <c r="S27" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q22="","",_zhileng_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T27" s="27" t="str">
+      <c r="T27" s="28" t="str">
         <f>IF(_zhileng_day_hour!R22="","",_zhileng_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U27" s="27" t="str">
+      <c r="U27" s="28" t="str">
         <f>IF(_zhileng_day_hour!S22="","",_zhileng_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V27" s="27" t="str">
+      <c r="V27" s="28" t="str">
         <f>IF(_zhileng_day_hour!T22="","",_zhileng_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W27" s="27" t="str">
+      <c r="W27" s="28" t="str">
         <f>IF(_zhileng_day_hour!U22="","",_zhileng_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X27" s="27" t="str">
+      <c r="X27" s="28" t="str">
         <f>IF(_zhileng_day_hour!V22="","",_zhileng_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y27" s="27" t="str">
+      <c r="Y27" s="28" t="str">
         <f>IF(_zhileng_day_hour!W22="","",_zhileng_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z27" s="27" t="str">
+      <c r="Z27" s="28" t="str">
         <f>IF(_zhileng_day_hour!X22="","",_zhileng_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA27" s="27" t="str">
+      <c r="AA27" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y22="","",_zhileng_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB27" s="27" t="str">
+      <c r="AB27" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z22="","",_zhileng_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC27" s="27" t="str">
+      <c r="AC27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA22="","",_zhileng_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD27" s="27" t="str">
+      <c r="AD27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB22="","",_zhileng_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE27" s="27" t="str">
+      <c r="AE27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC22="","",_zhileng_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF27" s="27" t="str">
+      <c r="AF27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD22="","",_zhileng_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG27" s="27" t="str">
+      <c r="AG27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE22="","",_zhileng_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH27" s="27" t="str">
+      <c r="AH27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF22="","",_zhileng_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI27" s="27" t="str">
+      <c r="AI27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG22="","",_zhileng_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ27" s="27" t="str">
+      <c r="AJ27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH22="","",_zhileng_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK27" s="27" t="str">
+      <c r="AK27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI22="","",_zhileng_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL27" s="27" t="str">
+      <c r="AL27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ22="","",_zhileng_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM27" s="27" t="str">
+      <c r="AM27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK22="","",_zhileng_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN27" s="27" t="str">
+      <c r="AN27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL22="","",_zhileng_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO27" s="27" t="str">
+      <c r="AO27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM22="","",_zhileng_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP27" s="27" t="str">
+      <c r="AP27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN22="","",_zhileng_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ27" s="72" t="str">
+      <c r="AQ27" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO22="","",_zhileng_day_hour!AO22)</f>
         <v/>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:43">
-      <c r="B28" s="26">
+      <c r="B28" s="27">
         <v>0.875</v>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="28" t="str">
         <f>IF(_zhileng_day_hour!A23="","",_zhileng_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D28" s="27" t="str">
+      <c r="D28" s="28" t="str">
         <f>IF(_zhileng_day_hour!B23="","",_zhileng_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E28" s="27" t="str">
+      <c r="E28" s="28" t="str">
         <f>IF(_zhileng_day_hour!C23="","",_zhileng_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F28" s="27" t="str">
+      <c r="F28" s="28" t="str">
         <f>IF(_zhileng_day_hour!D23="","",_zhileng_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G28" s="27" t="str">
+      <c r="G28" s="28" t="str">
         <f>IF(_zhileng_day_hour!E23="","",_zhileng_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H28" s="27" t="str">
+      <c r="H28" s="28" t="str">
         <f>IF(_zhileng_day_hour!F23="","",_zhileng_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I28" s="27" t="str">
+      <c r="I28" s="28" t="str">
         <f>IF(_zhileng_day_hour!G23="","",_zhileng_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J28" s="27" t="str">
+      <c r="J28" s="28" t="str">
         <f>IF(_zhileng_day_hour!H23="","",_zhileng_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K28" s="27" t="str">
+      <c r="K28" s="28" t="str">
         <f>IF(_zhileng_day_hour!I23="","",_zhileng_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L28" s="27" t="str">
+      <c r="L28" s="28" t="str">
         <f>IF(_zhileng_day_hour!J23="","",_zhileng_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M28" s="27" t="str">
+      <c r="M28" s="28" t="str">
         <f>IF(_zhileng_day_hour!K23="","",_zhileng_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N28" s="27" t="str">
+      <c r="N28" s="28" t="str">
         <f>IF(_zhileng_day_hour!L23="","",_zhileng_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O28" s="27" t="str">
+      <c r="O28" s="28" t="str">
         <f>IF(_zhileng_day_hour!M23="","",_zhileng_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="28" t="str">
         <f>IF(_zhileng_day_hour!N23="","",_zhileng_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q28" s="27" t="str">
+      <c r="Q28" s="28" t="str">
         <f>IF(_zhileng_day_hour!O23="","",_zhileng_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R28" s="27" t="str">
+      <c r="R28" s="28" t="str">
         <f>IF(_zhileng_day_hour!P23="","",_zhileng_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S28" s="27" t="str">
+      <c r="S28" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q23="","",_zhileng_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T28" s="27" t="str">
+      <c r="T28" s="28" t="str">
         <f>IF(_zhileng_day_hour!R23="","",_zhileng_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U28" s="27" t="str">
+      <c r="U28" s="28" t="str">
         <f>IF(_zhileng_day_hour!S23="","",_zhileng_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V28" s="27" t="str">
+      <c r="V28" s="28" t="str">
         <f>IF(_zhileng_day_hour!T23="","",_zhileng_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W28" s="27" t="str">
+      <c r="W28" s="28" t="str">
         <f>IF(_zhileng_day_hour!U23="","",_zhileng_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X28" s="27" t="str">
+      <c r="X28" s="28" t="str">
         <f>IF(_zhileng_day_hour!V23="","",_zhileng_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y28" s="27" t="str">
+      <c r="Y28" s="28" t="str">
         <f>IF(_zhileng_day_hour!W23="","",_zhileng_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z28" s="27" t="str">
+      <c r="Z28" s="28" t="str">
         <f>IF(_zhileng_day_hour!X23="","",_zhileng_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA28" s="27" t="str">
+      <c r="AA28" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y23="","",_zhileng_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB28" s="27" t="str">
+      <c r="AB28" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z23="","",_zhileng_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC28" s="27" t="str">
+      <c r="AC28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA23="","",_zhileng_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD28" s="27" t="str">
+      <c r="AD28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB23="","",_zhileng_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE28" s="27" t="str">
+      <c r="AE28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC23="","",_zhileng_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF28" s="27" t="str">
+      <c r="AF28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD23="","",_zhileng_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG28" s="27" t="str">
+      <c r="AG28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE23="","",_zhileng_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH28" s="27" t="str">
+      <c r="AH28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF23="","",_zhileng_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI28" s="27" t="str">
+      <c r="AI28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG23="","",_zhileng_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ28" s="27" t="str">
+      <c r="AJ28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH23="","",_zhileng_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK28" s="27" t="str">
+      <c r="AK28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI23="","",_zhileng_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL28" s="27" t="str">
+      <c r="AL28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ23="","",_zhileng_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM28" s="27" t="str">
+      <c r="AM28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK23="","",_zhileng_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN28" s="27" t="str">
+      <c r="AN28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL23="","",_zhileng_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO28" s="27" t="str">
+      <c r="AO28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM23="","",_zhileng_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP28" s="27" t="str">
+      <c r="AP28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN23="","",_zhileng_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ28" s="72" t="str">
+      <c r="AQ28" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO23="","",_zhileng_day_hour!AO23)</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:43">
-      <c r="B29" s="26">
+      <c r="B29" s="27">
         <v>0.916666666666667</v>
       </c>
-      <c r="C29" s="27" t="str">
+      <c r="C29" s="28" t="str">
         <f>IF(_zhileng_day_hour!A24="","",_zhileng_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D29" s="27" t="str">
+      <c r="D29" s="28" t="str">
         <f>IF(_zhileng_day_hour!B24="","",_zhileng_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E29" s="27" t="str">
+      <c r="E29" s="28" t="str">
         <f>IF(_zhileng_day_hour!C24="","",_zhileng_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F29" s="27" t="str">
+      <c r="F29" s="28" t="str">
         <f>IF(_zhileng_day_hour!D24="","",_zhileng_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G29" s="27" t="str">
+      <c r="G29" s="28" t="str">
         <f>IF(_zhileng_day_hour!E24="","",_zhileng_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H29" s="27" t="str">
+      <c r="H29" s="28" t="str">
         <f>IF(_zhileng_day_hour!F24="","",_zhileng_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I29" s="27" t="str">
+      <c r="I29" s="28" t="str">
         <f>IF(_zhileng_day_hour!G24="","",_zhileng_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J29" s="27" t="str">
+      <c r="J29" s="28" t="str">
         <f>IF(_zhileng_day_hour!H24="","",_zhileng_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K29" s="27" t="str">
+      <c r="K29" s="28" t="str">
         <f>IF(_zhileng_day_hour!I24="","",_zhileng_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L29" s="27" t="str">
+      <c r="L29" s="28" t="str">
         <f>IF(_zhileng_day_hour!J24="","",_zhileng_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M29" s="27" t="str">
+      <c r="M29" s="28" t="str">
         <f>IF(_zhileng_day_hour!K24="","",_zhileng_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N29" s="27" t="str">
+      <c r="N29" s="28" t="str">
         <f>IF(_zhileng_day_hour!L24="","",_zhileng_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O29" s="27" t="str">
+      <c r="O29" s="28" t="str">
         <f>IF(_zhileng_day_hour!M24="","",_zhileng_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P29" s="27" t="str">
+      <c r="P29" s="28" t="str">
         <f>IF(_zhileng_day_hour!N24="","",_zhileng_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q29" s="27" t="str">
+      <c r="Q29" s="28" t="str">
         <f>IF(_zhileng_day_hour!O24="","",_zhileng_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R29" s="27" t="str">
+      <c r="R29" s="28" t="str">
         <f>IF(_zhileng_day_hour!P24="","",_zhileng_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S29" s="27" t="str">
+      <c r="S29" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q24="","",_zhileng_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T29" s="27" t="str">
+      <c r="T29" s="28" t="str">
         <f>IF(_zhileng_day_hour!R24="","",_zhileng_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U29" s="27" t="str">
+      <c r="U29" s="28" t="str">
         <f>IF(_zhileng_day_hour!S24="","",_zhileng_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V29" s="27" t="str">
+      <c r="V29" s="28" t="str">
         <f>IF(_zhileng_day_hour!T24="","",_zhileng_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W29" s="27" t="str">
+      <c r="W29" s="28" t="str">
         <f>IF(_zhileng_day_hour!U24="","",_zhileng_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X29" s="27" t="str">
+      <c r="X29" s="28" t="str">
         <f>IF(_zhileng_day_hour!V24="","",_zhileng_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y29" s="27" t="str">
+      <c r="Y29" s="28" t="str">
         <f>IF(_zhileng_day_hour!W24="","",_zhileng_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z29" s="27" t="str">
+      <c r="Z29" s="28" t="str">
         <f>IF(_zhileng_day_hour!X24="","",_zhileng_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA29" s="27" t="str">
+      <c r="AA29" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y24="","",_zhileng_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB29" s="27" t="str">
+      <c r="AB29" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z24="","",_zhileng_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC29" s="27" t="str">
+      <c r="AC29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA24="","",_zhileng_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD29" s="27" t="str">
+      <c r="AD29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB24="","",_zhileng_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE29" s="27" t="str">
+      <c r="AE29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC24="","",_zhileng_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF29" s="27" t="str">
+      <c r="AF29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD24="","",_zhileng_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG29" s="27" t="str">
+      <c r="AG29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE24="","",_zhileng_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH29" s="27" t="str">
+      <c r="AH29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF24="","",_zhileng_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI29" s="27" t="str">
+      <c r="AI29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG24="","",_zhileng_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ29" s="27" t="str">
+      <c r="AJ29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH24="","",_zhileng_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK29" s="27" t="str">
+      <c r="AK29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI24="","",_zhileng_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL29" s="27" t="str">
+      <c r="AL29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ24="","",_zhileng_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM29" s="27" t="str">
+      <c r="AM29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK24="","",_zhileng_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN29" s="27" t="str">
+      <c r="AN29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL24="","",_zhileng_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO29" s="27" t="str">
+      <c r="AO29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM24="","",_zhileng_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP29" s="27" t="str">
+      <c r="AP29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN24="","",_zhileng_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ29" s="72" t="str">
+      <c r="AQ29" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO24="","",_zhileng_day_hour!AO24)</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:43">
-      <c r="B30" s="26">
+      <c r="B30" s="27">
         <v>0.958333333333333</v>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="28" t="str">
         <f>IF(_zhileng_day_hour!A25="","",_zhileng_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="D30" s="28" t="str">
         <f>IF(_zhileng_day_hour!B25="","",_zhileng_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="28" t="str">
         <f>IF(_zhileng_day_hour!C25="","",_zhileng_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F30" s="27" t="str">
+      <c r="F30" s="28" t="str">
         <f>IF(_zhileng_day_hour!D25="","",_zhileng_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="28" t="str">
         <f>IF(_zhileng_day_hour!E25="","",_zhileng_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H30" s="27" t="str">
+      <c r="H30" s="28" t="str">
         <f>IF(_zhileng_day_hour!F25="","",_zhileng_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I30" s="27" t="str">
+      <c r="I30" s="28" t="str">
         <f>IF(_zhileng_day_hour!G25="","",_zhileng_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J30" s="27" t="str">
+      <c r="J30" s="28" t="str">
         <f>IF(_zhileng_day_hour!H25="","",_zhileng_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K30" s="27" t="str">
+      <c r="K30" s="28" t="str">
         <f>IF(_zhileng_day_hour!I25="","",_zhileng_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L30" s="27" t="str">
+      <c r="L30" s="28" t="str">
         <f>IF(_zhileng_day_hour!J25="","",_zhileng_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M30" s="27" t="str">
+      <c r="M30" s="28" t="str">
         <f>IF(_zhileng_day_hour!K25="","",_zhileng_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N30" s="27" t="str">
+      <c r="N30" s="28" t="str">
         <f>IF(_zhileng_day_hour!L25="","",_zhileng_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O30" s="27" t="str">
+      <c r="O30" s="28" t="str">
         <f>IF(_zhileng_day_hour!M25="","",_zhileng_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P30" s="27" t="str">
+      <c r="P30" s="28" t="str">
         <f>IF(_zhileng_day_hour!N25="","",_zhileng_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q30" s="27" t="str">
+      <c r="Q30" s="28" t="str">
         <f>IF(_zhileng_day_hour!O25="","",_zhileng_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R30" s="27" t="str">
+      <c r="R30" s="28" t="str">
         <f>IF(_zhileng_day_hour!P25="","",_zhileng_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S30" s="27" t="str">
+      <c r="S30" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q25="","",_zhileng_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T30" s="27" t="str">
+      <c r="T30" s="28" t="str">
         <f>IF(_zhileng_day_hour!R25="","",_zhileng_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U30" s="27" t="str">
+      <c r="U30" s="28" t="str">
         <f>IF(_zhileng_day_hour!S25="","",_zhileng_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V30" s="27" t="str">
+      <c r="V30" s="28" t="str">
         <f>IF(_zhileng_day_hour!T25="","",_zhileng_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W30" s="27" t="str">
+      <c r="W30" s="28" t="str">
         <f>IF(_zhileng_day_hour!U25="","",_zhileng_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X30" s="27" t="str">
+      <c r="X30" s="28" t="str">
         <f>IF(_zhileng_day_hour!V25="","",_zhileng_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y30" s="27" t="str">
+      <c r="Y30" s="28" t="str">
         <f>IF(_zhileng_day_hour!W25="","",_zhileng_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z30" s="27" t="str">
+      <c r="Z30" s="28" t="str">
         <f>IF(_zhileng_day_hour!X25="","",_zhileng_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA30" s="27" t="str">
+      <c r="AA30" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y25="","",_zhileng_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB30" s="27" t="str">
+      <c r="AB30" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z25="","",_zhileng_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC30" s="27" t="str">
+      <c r="AC30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA25="","",_zhileng_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD30" s="27" t="str">
+      <c r="AD30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB25="","",_zhileng_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE30" s="27" t="str">
+      <c r="AE30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC25="","",_zhileng_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF30" s="27" t="str">
+      <c r="AF30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD25="","",_zhileng_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG30" s="27" t="str">
+      <c r="AG30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE25="","",_zhileng_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH30" s="27" t="str">
+      <c r="AH30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF25="","",_zhileng_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI30" s="27" t="str">
+      <c r="AI30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG25="","",_zhileng_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ30" s="27" t="str">
+      <c r="AJ30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH25="","",_zhileng_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK30" s="27" t="str">
+      <c r="AK30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI25="","",_zhileng_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL30" s="27" t="str">
+      <c r="AL30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ25="","",_zhileng_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM30" s="27" t="str">
+      <c r="AM30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK25="","",_zhileng_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN30" s="27" t="str">
+      <c r="AN30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL25="","",_zhileng_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO30" s="27" t="str">
+      <c r="AO30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM25="","",_zhileng_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP30" s="27" t="str">
+      <c r="AP30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN25="","",_zhileng_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ30" s="72" t="str">
+      <c r="AQ30" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO25="","",_zhileng_day_hour!AO25)</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:43">
-      <c r="B31" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="27"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="27"/>
-      <c r="AQ31" s="72"/>
+      <c r="B31" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="75"/>
     </row>
     <row r="32" customFormat="1" spans="2:43">
-      <c r="B32" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="27"/>
-      <c r="AO32" s="27"/>
-      <c r="AP32" s="27"/>
-      <c r="AQ32" s="72"/>
+      <c r="B32" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="75"/>
     </row>
     <row r="33" customFormat="1" spans="2:43">
-      <c r="B33" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="27"/>
-      <c r="AQ33" s="72"/>
+      <c r="B33" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="75"/>
     </row>
     <row r="34" customFormat="1" ht="14.25" spans="2:43">
-      <c r="B34" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="27"/>
-      <c r="AQ34" s="72"/>
+      <c r="B34" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="75"/>
     </row>
     <row r="35" customFormat="1" ht="91.5" customHeight="1" spans="2:43">
-      <c r="B35" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="31" t="s">
+      <c r="B35" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="31" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="73"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="69"/>
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="69"/>
+      <c r="AN35" s="69"/>
+      <c r="AO35" s="69"/>
+      <c r="AP35" s="69"/>
+      <c r="AQ35" s="76"/>
     </row>
     <row r="36" customFormat="1" ht="16.5" spans="2:43">
-      <c r="B36" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="74"/>
+      <c r="B36" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="70"/>
+      <c r="AJ36" s="70"/>
+      <c r="AK36" s="70"/>
+      <c r="AL36" s="70"/>
+      <c r="AM36" s="70"/>
+      <c r="AN36" s="70"/>
+      <c r="AO36" s="70"/>
+      <c r="AP36" s="70"/>
+      <c r="AQ36" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="46">
     <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="B2:AN2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="N3:T3"/>
     <mergeCell ref="U3:AB3"/>
@@ -7477,127 +7474,127 @@
   <sheetData>
     <row r="1" customFormat="1" ht="45" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.制冷循环水（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_zhileng_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -24,6 +22,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
@@ -613,10 +617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="39">
@@ -721,11 +725,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,30 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,18 +763,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,11 +785,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,9 +836,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,27 +865,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -895,7 +899,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +1043,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,163 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,6 +1596,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1610,36 +1629,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,6 +1663,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1690,148 +1694,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2305,19 +2309,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2651,9 +2642,9 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="36" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="I2" s="36">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -7601,4 +7592,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.制冷循环水（日）" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>6-7#  焦炉制冷循环水操作记录</t>
   </si>
@@ -26,7 +26,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
@@ -34,7 +34,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -50,6 +50,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产水 泵压力</t>
@@ -58,7 +59,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> MPa</t>
     </r>
@@ -90,6 +91,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>煤气净化循环水泵频率</t>
@@ -99,7 +101,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Hz</t>
     </r>
@@ -130,6 +132,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>去废水站流量</t>
@@ -138,7 +141,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -147,7 +150,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -155,7 +158,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -166,6 +169,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制冷循环水泵频率</t>
@@ -175,7 +179,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Hz</t>
     </r>
@@ -192,6 +196,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>低温水泵频率</t>
@@ -201,7 +206,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Hz</t>
     </r>
@@ -221,7 +226,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1#</t>
     </r>
@@ -229,6 +234,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>机组</t>
@@ -239,7 +245,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2#机组</t>
     </r>
@@ -249,7 +255,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3#机组</t>
     </r>
@@ -259,7 +265,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>4#</t>
     </r>
@@ -267,6 +273,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>机组</t>
@@ -283,6 +290,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷却水流量</t>
@@ -291,7 +299,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -300,7 +308,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -308,7 +316,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -318,6 +326,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>低温水流量</t>
@@ -326,7 +335,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -335,7 +344,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -343,7 +352,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -491,7 +500,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -500,6 +509,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -508,7 +518,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -518,7 +528,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -526,6 +536,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -535,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -543,7 +555,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -553,6 +565,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -562,6 +575,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -570,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -580,7 +594,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -589,6 +603,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -597,7 +612,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -606,6 +621,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -615,15 +631,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,23 +643,25 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -658,6 +669,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -665,42 +677,45 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -708,383 +723,66 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="49">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1590,256 +1288,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1874,44 +1330,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1919,32 +1342,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1955,7 +1395,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1964,29 +1416,72 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1995,116 +1490,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2115,7 +1527,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2129,7 +1541,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2563,19 +1975,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="7" max="7" width="8.625"/>
     <col min="15" max="15" width="8.625"/>
@@ -2586,350 +1998,350 @@
     <col min="41" max="43" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="38.45" customHeight="1" spans="2:43">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:44" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="2:43">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="36">
-        <f>_metadata!B1</f>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="78">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="37" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
     </row>
-    <row r="3" customFormat="1" ht="14.1" customHeight="1" spans="1:44">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:44" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="59" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="60" t="s">
+      <c r="AD3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="60" t="s">
+      <c r="AE3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="61" t="s">
+      <c r="AF3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="71"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="77"/>
     </row>
-    <row r="4" customFormat="1" ht="29.1" customHeight="1" spans="1:44">
-      <c r="A4" s="15"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="1:44" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="43"/>
-      <c r="W4" s="53" t="s">
+      <c r="V4" s="45"/>
+      <c r="W4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="Y4" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="62" t="s">
+      <c r="AB4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="64" t="s">
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="64" t="s">
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="64" t="s">
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="64" t="s">
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="71"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="77"/>
     </row>
-    <row r="5" customFormat="1" ht="29.1" customHeight="1" spans="1:44">
-      <c r="A5" s="15"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
+    <row r="5" spans="1:44" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="46" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="57" t="s">
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="57" t="s">
+      <c r="V5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="44"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="66" t="s">
+      <c r="W5" s="65"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AG5" s="66" t="s">
+      <c r="AG5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AH5" s="66" t="s">
+      <c r="AH5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="66" t="s">
+      <c r="AI5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="66" t="s">
+      <c r="AJ5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="66" t="s">
+      <c r="AK5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="66" t="s">
+      <c r="AL5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AM5" s="66" t="s">
+      <c r="AM5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AN5" s="66" t="s">
+      <c r="AN5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AO5" s="66" t="s">
+      <c r="AO5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="66" t="s">
+      <c r="AP5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="73" t="s">
+      <c r="AQ5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="71"/>
+      <c r="AR5" s="77"/>
     </row>
-    <row r="6" customFormat="1" ht="45.6" customHeight="1" spans="1:44">
-      <c r="A6" s="15"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:44" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="56"/>
+      <c r="B6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3055,4367 +2467,4351 @@
       <c r="AQ6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AR6" s="74"/>
+      <c r="AR6" s="28"/>
     </row>
-    <row r="7" customFormat="1" spans="2:43">
-      <c r="B7" s="27">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B7" s="16">
         <v>0</v>
       </c>
-      <c r="C7" s="28" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_zhileng_day_hour!A2="","",_zhileng_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="28" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_zhileng_day_hour!B2="","",_zhileng_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_zhileng_day_hour!C2="","",_zhileng_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F7" s="28" t="str">
+      <c r="F7" s="17" t="str">
         <f>IF(_zhileng_day_hour!D2="","",_zhileng_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G7" s="28" t="str">
+      <c r="G7" s="17" t="str">
         <f>IF(_zhileng_day_hour!E2="","",_zhileng_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H7" s="28" t="str">
+      <c r="H7" s="17" t="str">
         <f>IF(_zhileng_day_hour!F2="","",_zhileng_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I7" s="28" t="str">
+      <c r="I7" s="17" t="str">
         <f>IF(_zhileng_day_hour!G2="","",_zhileng_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J7" s="28" t="str">
+      <c r="J7" s="17" t="str">
         <f>IF(_zhileng_day_hour!H2="","",_zhileng_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K7" s="28" t="str">
+      <c r="K7" s="17" t="str">
         <f>IF(_zhileng_day_hour!I2="","",_zhileng_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L7" s="28" t="str">
+      <c r="L7" s="17" t="str">
         <f>IF(_zhileng_day_hour!J2="","",_zhileng_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M7" s="28" t="str">
+      <c r="M7" s="17" t="str">
         <f>IF(_zhileng_day_hour!K2="","",_zhileng_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N7" s="28" t="str">
+      <c r="N7" s="17" t="str">
         <f>IF(_zhileng_day_hour!L2="","",_zhileng_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O7" s="28" t="str">
+      <c r="O7" s="17" t="str">
         <f>IF(_zhileng_day_hour!M2="","",_zhileng_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P7" s="28" t="str">
+      <c r="P7" s="17" t="str">
         <f>IF(_zhileng_day_hour!N2="","",_zhileng_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q7" s="28" t="str">
+      <c r="Q7" s="17" t="str">
         <f>IF(_zhileng_day_hour!O2="","",_zhileng_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R7" s="28" t="str">
+      <c r="R7" s="17" t="str">
         <f>IF(_zhileng_day_hour!P2="","",_zhileng_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S7" s="28" t="str">
+      <c r="S7" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q2="","",_zhileng_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T7" s="28" t="str">
+      <c r="T7" s="17" t="str">
         <f>IF(_zhileng_day_hour!R2="","",_zhileng_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U7" s="28" t="str">
+      <c r="U7" s="17" t="str">
         <f>IF(_zhileng_day_hour!S2="","",_zhileng_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V7" s="28" t="str">
+      <c r="V7" s="17" t="str">
         <f>IF(_zhileng_day_hour!T2="","",_zhileng_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W7" s="28" t="str">
+      <c r="W7" s="17" t="str">
         <f>IF(_zhileng_day_hour!U2="","",_zhileng_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X7" s="28" t="str">
+      <c r="X7" s="17" t="str">
         <f>IF(_zhileng_day_hour!V2="","",_zhileng_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y7" s="28" t="str">
+      <c r="Y7" s="17" t="str">
         <f>IF(_zhileng_day_hour!W2="","",_zhileng_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z7" s="28" t="str">
+      <c r="Z7" s="17" t="str">
         <f>IF(_zhileng_day_hour!X2="","",_zhileng_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA7" s="28" t="str">
+      <c r="AA7" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y2="","",_zhileng_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB7" s="28" t="str">
+      <c r="AB7" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z2="","",_zhileng_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC7" s="28" t="str">
+      <c r="AC7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA2="","",_zhileng_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD7" s="28" t="str">
+      <c r="AD7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB2="","",_zhileng_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE7" s="28" t="str">
+      <c r="AE7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC2="","",_zhileng_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF7" s="28" t="str">
+      <c r="AF7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD2="","",_zhileng_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG7" s="28" t="str">
+      <c r="AG7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE2="","",_zhileng_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH7" s="28" t="str">
+      <c r="AH7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF2="","",_zhileng_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI7" s="28" t="str">
+      <c r="AI7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG2="","",_zhileng_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ7" s="28" t="str">
+      <c r="AJ7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH2="","",_zhileng_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK7" s="28" t="str">
+      <c r="AK7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI2="","",_zhileng_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL7" s="28" t="str">
+      <c r="AL7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ2="","",_zhileng_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM7" s="28" t="str">
+      <c r="AM7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK2="","",_zhileng_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN7" s="28" t="str">
+      <c r="AN7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL2="","",_zhileng_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO7" s="28" t="str">
+      <c r="AO7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM2="","",_zhileng_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP7" s="28" t="str">
+      <c r="AP7" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN2="","",_zhileng_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ7" s="75" t="str">
+      <c r="AQ7" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO2="","",_zhileng_day_hour!AO2)</f>
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:43">
-      <c r="B8" s="27">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C8" s="28" t="str">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B8" s="16">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C8" s="17" t="str">
         <f>IF(_zhileng_day_hour!A3="","",_zhileng_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D8" s="28" t="str">
+      <c r="D8" s="17" t="str">
         <f>IF(_zhileng_day_hour!B3="","",_zhileng_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="17" t="str">
         <f>IF(_zhileng_day_hour!C3="","",_zhileng_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F8" s="28" t="str">
+      <c r="F8" s="17" t="str">
         <f>IF(_zhileng_day_hour!D3="","",_zhileng_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G8" s="28" t="str">
+      <c r="G8" s="17" t="str">
         <f>IF(_zhileng_day_hour!E3="","",_zhileng_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H8" s="28" t="str">
+      <c r="H8" s="17" t="str">
         <f>IF(_zhileng_day_hour!F3="","",_zhileng_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I8" s="28" t="str">
+      <c r="I8" s="17" t="str">
         <f>IF(_zhileng_day_hour!G3="","",_zhileng_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J8" s="28" t="str">
+      <c r="J8" s="17" t="str">
         <f>IF(_zhileng_day_hour!H3="","",_zhileng_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K8" s="28" t="str">
+      <c r="K8" s="17" t="str">
         <f>IF(_zhileng_day_hour!I3="","",_zhileng_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L8" s="28" t="str">
+      <c r="L8" s="17" t="str">
         <f>IF(_zhileng_day_hour!J3="","",_zhileng_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M8" s="28" t="str">
+      <c r="M8" s="17" t="str">
         <f>IF(_zhileng_day_hour!K3="","",_zhileng_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="N8" s="17" t="str">
         <f>IF(_zhileng_day_hour!L3="","",_zhileng_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O8" s="28" t="str">
+      <c r="O8" s="17" t="str">
         <f>IF(_zhileng_day_hour!M3="","",_zhileng_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P8" s="28" t="str">
+      <c r="P8" s="17" t="str">
         <f>IF(_zhileng_day_hour!N3="","",_zhileng_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q8" s="28" t="str">
+      <c r="Q8" s="17" t="str">
         <f>IF(_zhileng_day_hour!O3="","",_zhileng_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R8" s="28" t="str">
+      <c r="R8" s="17" t="str">
         <f>IF(_zhileng_day_hour!P3="","",_zhileng_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S8" s="28" t="str">
+      <c r="S8" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q3="","",_zhileng_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T8" s="28" t="str">
+      <c r="T8" s="17" t="str">
         <f>IF(_zhileng_day_hour!R3="","",_zhileng_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U8" s="28" t="str">
+      <c r="U8" s="17" t="str">
         <f>IF(_zhileng_day_hour!S3="","",_zhileng_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V8" s="28" t="str">
+      <c r="V8" s="17" t="str">
         <f>IF(_zhileng_day_hour!T3="","",_zhileng_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W8" s="28" t="str">
+      <c r="W8" s="17" t="str">
         <f>IF(_zhileng_day_hour!U3="","",_zhileng_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X8" s="28" t="str">
+      <c r="X8" s="17" t="str">
         <f>IF(_zhileng_day_hour!V3="","",_zhileng_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y8" s="28" t="str">
+      <c r="Y8" s="17" t="str">
         <f>IF(_zhileng_day_hour!W3="","",_zhileng_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z8" s="28" t="str">
+      <c r="Z8" s="17" t="str">
         <f>IF(_zhileng_day_hour!X3="","",_zhileng_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA8" s="28" t="str">
+      <c r="AA8" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y3="","",_zhileng_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB8" s="28" t="str">
+      <c r="AB8" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z3="","",_zhileng_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC8" s="28" t="str">
+      <c r="AC8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA3="","",_zhileng_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD8" s="28" t="str">
+      <c r="AD8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB3="","",_zhileng_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE8" s="28" t="str">
+      <c r="AE8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC3="","",_zhileng_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF8" s="28" t="str">
+      <c r="AF8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD3="","",_zhileng_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG8" s="28" t="str">
+      <c r="AG8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE3="","",_zhileng_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH8" s="28" t="str">
+      <c r="AH8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF3="","",_zhileng_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI8" s="28" t="str">
+      <c r="AI8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG3="","",_zhileng_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ8" s="28" t="str">
+      <c r="AJ8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH3="","",_zhileng_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK8" s="28" t="str">
+      <c r="AK8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI3="","",_zhileng_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL8" s="28" t="str">
+      <c r="AL8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ3="","",_zhileng_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM8" s="28" t="str">
+      <c r="AM8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK3="","",_zhileng_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN8" s="28" t="str">
+      <c r="AN8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL3="","",_zhileng_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO8" s="28" t="str">
+      <c r="AO8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM3="","",_zhileng_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP8" s="28" t="str">
+      <c r="AP8" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN3="","",_zhileng_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ8" s="75" t="str">
+      <c r="AQ8" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO3="","",_zhileng_day_hour!AO3)</f>
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:43">
-      <c r="B9" s="27">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C9" s="28" t="str">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B9" s="16">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C9" s="17" t="str">
         <f>IF(_zhileng_day_hour!A4="","",_zhileng_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="17" t="str">
         <f>IF(_zhileng_day_hour!B4="","",_zhileng_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="17" t="str">
         <f>IF(_zhileng_day_hour!C4="","",_zhileng_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="17" t="str">
         <f>IF(_zhileng_day_hour!D4="","",_zhileng_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="17" t="str">
         <f>IF(_zhileng_day_hour!E4="","",_zhileng_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H9" s="28" t="str">
+      <c r="H9" s="17" t="str">
         <f>IF(_zhileng_day_hour!F4="","",_zhileng_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="17" t="str">
         <f>IF(_zhileng_day_hour!G4="","",_zhileng_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="17" t="str">
         <f>IF(_zhileng_day_hour!H4="","",_zhileng_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="17" t="str">
         <f>IF(_zhileng_day_hour!I4="","",_zhileng_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L9" s="28" t="str">
+      <c r="L9" s="17" t="str">
         <f>IF(_zhileng_day_hour!J4="","",_zhileng_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="17" t="str">
         <f>IF(_zhileng_day_hour!K4="","",_zhileng_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="N9" s="17" t="str">
         <f>IF(_zhileng_day_hour!L4="","",_zhileng_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O9" s="28" t="str">
+      <c r="O9" s="17" t="str">
         <f>IF(_zhileng_day_hour!M4="","",_zhileng_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P9" s="28" t="str">
+      <c r="P9" s="17" t="str">
         <f>IF(_zhileng_day_hour!N4="","",_zhileng_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q9" s="28" t="str">
+      <c r="Q9" s="17" t="str">
         <f>IF(_zhileng_day_hour!O4="","",_zhileng_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R9" s="28" t="str">
+      <c r="R9" s="17" t="str">
         <f>IF(_zhileng_day_hour!P4="","",_zhileng_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S9" s="28" t="str">
+      <c r="S9" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q4="","",_zhileng_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T9" s="28" t="str">
+      <c r="T9" s="17" t="str">
         <f>IF(_zhileng_day_hour!R4="","",_zhileng_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U9" s="28" t="str">
+      <c r="U9" s="17" t="str">
         <f>IF(_zhileng_day_hour!S4="","",_zhileng_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V9" s="28" t="str">
+      <c r="V9" s="17" t="str">
         <f>IF(_zhileng_day_hour!T4="","",_zhileng_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W9" s="28" t="str">
+      <c r="W9" s="17" t="str">
         <f>IF(_zhileng_day_hour!U4="","",_zhileng_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X9" s="28" t="str">
+      <c r="X9" s="17" t="str">
         <f>IF(_zhileng_day_hour!V4="","",_zhileng_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y9" s="28" t="str">
+      <c r="Y9" s="17" t="str">
         <f>IF(_zhileng_day_hour!W4="","",_zhileng_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z9" s="28" t="str">
+      <c r="Z9" s="17" t="str">
         <f>IF(_zhileng_day_hour!X4="","",_zhileng_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA9" s="28" t="str">
+      <c r="AA9" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y4="","",_zhileng_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB9" s="28" t="str">
+      <c r="AB9" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z4="","",_zhileng_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC9" s="28" t="str">
+      <c r="AC9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA4="","",_zhileng_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD9" s="28" t="str">
+      <c r="AD9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB4="","",_zhileng_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE9" s="28" t="str">
+      <c r="AE9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC4="","",_zhileng_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF9" s="28" t="str">
+      <c r="AF9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD4="","",_zhileng_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG9" s="28" t="str">
+      <c r="AG9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE4="","",_zhileng_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH9" s="28" t="str">
+      <c r="AH9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF4="","",_zhileng_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI9" s="28" t="str">
+      <c r="AI9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG4="","",_zhileng_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ9" s="28" t="str">
+      <c r="AJ9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH4="","",_zhileng_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK9" s="28" t="str">
+      <c r="AK9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI4="","",_zhileng_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL9" s="28" t="str">
+      <c r="AL9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ4="","",_zhileng_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM9" s="28" t="str">
+      <c r="AM9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK4="","",_zhileng_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN9" s="28" t="str">
+      <c r="AN9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL4="","",_zhileng_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO9" s="28" t="str">
+      <c r="AO9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM4="","",_zhileng_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP9" s="28" t="str">
+      <c r="AP9" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN4="","",_zhileng_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ9" s="75" t="str">
+      <c r="AQ9" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO4="","",_zhileng_day_hour!AO4)</f>
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="2:43">
-      <c r="B10" s="27">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B10" s="16">
         <v>0.125</v>
       </c>
-      <c r="C10" s="28" t="str">
+      <c r="C10" s="17" t="str">
         <f>IF(_zhileng_day_hour!A5="","",_zhileng_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D10" s="28" t="str">
+      <c r="D10" s="17" t="str">
         <f>IF(_zhileng_day_hour!B5="","",_zhileng_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="17" t="str">
         <f>IF(_zhileng_day_hour!C5="","",_zhileng_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F10" s="28" t="str">
+      <c r="F10" s="17" t="str">
         <f>IF(_zhileng_day_hour!D5="","",_zhileng_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G10" s="28" t="str">
+      <c r="G10" s="17" t="str">
         <f>IF(_zhileng_day_hour!E5="","",_zhileng_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H10" s="28" t="str">
+      <c r="H10" s="17" t="str">
         <f>IF(_zhileng_day_hour!F5="","",_zhileng_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I10" s="28" t="str">
+      <c r="I10" s="17" t="str">
         <f>IF(_zhileng_day_hour!G5="","",_zhileng_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J10" s="28" t="str">
+      <c r="J10" s="17" t="str">
         <f>IF(_zhileng_day_hour!H5="","",_zhileng_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K10" s="28" t="str">
+      <c r="K10" s="17" t="str">
         <f>IF(_zhileng_day_hour!I5="","",_zhileng_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L10" s="28" t="str">
+      <c r="L10" s="17" t="str">
         <f>IF(_zhileng_day_hour!J5="","",_zhileng_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M10" s="28" t="str">
+      <c r="M10" s="17" t="str">
         <f>IF(_zhileng_day_hour!K5="","",_zhileng_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="17" t="str">
         <f>IF(_zhileng_day_hour!L5="","",_zhileng_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O10" s="28" t="str">
+      <c r="O10" s="17" t="str">
         <f>IF(_zhileng_day_hour!M5="","",_zhileng_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P10" s="28" t="str">
+      <c r="P10" s="17" t="str">
         <f>IF(_zhileng_day_hour!N5="","",_zhileng_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q10" s="28" t="str">
+      <c r="Q10" s="17" t="str">
         <f>IF(_zhileng_day_hour!O5="","",_zhileng_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R10" s="28" t="str">
+      <c r="R10" s="17" t="str">
         <f>IF(_zhileng_day_hour!P5="","",_zhileng_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S10" s="28" t="str">
+      <c r="S10" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q5="","",_zhileng_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T10" s="28" t="str">
+      <c r="T10" s="17" t="str">
         <f>IF(_zhileng_day_hour!R5="","",_zhileng_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U10" s="28" t="str">
+      <c r="U10" s="17" t="str">
         <f>IF(_zhileng_day_hour!S5="","",_zhileng_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V10" s="28" t="str">
+      <c r="V10" s="17" t="str">
         <f>IF(_zhileng_day_hour!T5="","",_zhileng_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W10" s="28" t="str">
+      <c r="W10" s="17" t="str">
         <f>IF(_zhileng_day_hour!U5="","",_zhileng_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X10" s="28" t="str">
+      <c r="X10" s="17" t="str">
         <f>IF(_zhileng_day_hour!V5="","",_zhileng_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y10" s="28" t="str">
+      <c r="Y10" s="17" t="str">
         <f>IF(_zhileng_day_hour!W5="","",_zhileng_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z10" s="28" t="str">
+      <c r="Z10" s="17" t="str">
         <f>IF(_zhileng_day_hour!X5="","",_zhileng_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA10" s="28" t="str">
+      <c r="AA10" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y5="","",_zhileng_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB10" s="28" t="str">
+      <c r="AB10" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z5="","",_zhileng_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC10" s="28" t="str">
+      <c r="AC10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA5="","",_zhileng_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD10" s="28" t="str">
+      <c r="AD10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB5="","",_zhileng_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE10" s="28" t="str">
+      <c r="AE10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC5="","",_zhileng_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF10" s="28" t="str">
+      <c r="AF10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD5="","",_zhileng_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG10" s="28" t="str">
+      <c r="AG10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE5="","",_zhileng_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH10" s="28" t="str">
+      <c r="AH10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF5="","",_zhileng_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI10" s="28" t="str">
+      <c r="AI10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG5="","",_zhileng_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ10" s="28" t="str">
+      <c r="AJ10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH5="","",_zhileng_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK10" s="28" t="str">
+      <c r="AK10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI5="","",_zhileng_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL10" s="28" t="str">
+      <c r="AL10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ5="","",_zhileng_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM10" s="28" t="str">
+      <c r="AM10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK5="","",_zhileng_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN10" s="28" t="str">
+      <c r="AN10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL5="","",_zhileng_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO10" s="28" t="str">
+      <c r="AO10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM5="","",_zhileng_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP10" s="28" t="str">
+      <c r="AP10" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN5="","",_zhileng_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ10" s="75" t="str">
+      <c r="AQ10" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO5="","",_zhileng_day_hour!AO5)</f>
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="2:43">
-      <c r="B11" s="27">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C11" s="28" t="str">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B11" s="16">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C11" s="17" t="str">
         <f>IF(_zhileng_day_hour!A6="","",_zhileng_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D11" s="28" t="str">
+      <c r="D11" s="17" t="str">
         <f>IF(_zhileng_day_hour!B6="","",_zhileng_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E11" s="28" t="str">
+      <c r="E11" s="17" t="str">
         <f>IF(_zhileng_day_hour!C6="","",_zhileng_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F11" s="28" t="str">
+      <c r="F11" s="17" t="str">
         <f>IF(_zhileng_day_hour!D6="","",_zhileng_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G11" s="28" t="str">
+      <c r="G11" s="17" t="str">
         <f>IF(_zhileng_day_hour!E6="","",_zhileng_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H11" s="28" t="str">
+      <c r="H11" s="17" t="str">
         <f>IF(_zhileng_day_hour!F6="","",_zhileng_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I11" s="28" t="str">
+      <c r="I11" s="17" t="str">
         <f>IF(_zhileng_day_hour!G6="","",_zhileng_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J11" s="28" t="str">
+      <c r="J11" s="17" t="str">
         <f>IF(_zhileng_day_hour!H6="","",_zhileng_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K11" s="28" t="str">
+      <c r="K11" s="17" t="str">
         <f>IF(_zhileng_day_hour!I6="","",_zhileng_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L11" s="28" t="str">
+      <c r="L11" s="17" t="str">
         <f>IF(_zhileng_day_hour!J6="","",_zhileng_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M11" s="28" t="str">
+      <c r="M11" s="17" t="str">
         <f>IF(_zhileng_day_hour!K6="","",_zhileng_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N11" s="28" t="str">
+      <c r="N11" s="17" t="str">
         <f>IF(_zhileng_day_hour!L6="","",_zhileng_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O11" s="28" t="str">
+      <c r="O11" s="17" t="str">
         <f>IF(_zhileng_day_hour!M6="","",_zhileng_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P11" s="28" t="str">
+      <c r="P11" s="17" t="str">
         <f>IF(_zhileng_day_hour!N6="","",_zhileng_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q11" s="28" t="str">
+      <c r="Q11" s="17" t="str">
         <f>IF(_zhileng_day_hour!O6="","",_zhileng_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R11" s="28" t="str">
+      <c r="R11" s="17" t="str">
         <f>IF(_zhileng_day_hour!P6="","",_zhileng_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S11" s="28" t="str">
+      <c r="S11" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q6="","",_zhileng_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T11" s="28" t="str">
+      <c r="T11" s="17" t="str">
         <f>IF(_zhileng_day_hour!R6="","",_zhileng_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U11" s="28" t="str">
+      <c r="U11" s="17" t="str">
         <f>IF(_zhileng_day_hour!S6="","",_zhileng_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V11" s="28" t="str">
+      <c r="V11" s="17" t="str">
         <f>IF(_zhileng_day_hour!T6="","",_zhileng_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W11" s="28" t="str">
+      <c r="W11" s="17" t="str">
         <f>IF(_zhileng_day_hour!U6="","",_zhileng_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X11" s="28" t="str">
+      <c r="X11" s="17" t="str">
         <f>IF(_zhileng_day_hour!V6="","",_zhileng_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y11" s="28" t="str">
+      <c r="Y11" s="17" t="str">
         <f>IF(_zhileng_day_hour!W6="","",_zhileng_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z11" s="28" t="str">
+      <c r="Z11" s="17" t="str">
         <f>IF(_zhileng_day_hour!X6="","",_zhileng_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA11" s="28" t="str">
+      <c r="AA11" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y6="","",_zhileng_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB11" s="28" t="str">
+      <c r="AB11" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z6="","",_zhileng_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC11" s="28" t="str">
+      <c r="AC11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA6="","",_zhileng_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD11" s="28" t="str">
+      <c r="AD11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB6="","",_zhileng_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE11" s="28" t="str">
+      <c r="AE11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC6="","",_zhileng_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF11" s="28" t="str">
+      <c r="AF11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD6="","",_zhileng_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG11" s="28" t="str">
+      <c r="AG11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE6="","",_zhileng_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH11" s="28" t="str">
+      <c r="AH11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF6="","",_zhileng_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI11" s="28" t="str">
+      <c r="AI11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG6="","",_zhileng_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ11" s="28" t="str">
+      <c r="AJ11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH6="","",_zhileng_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK11" s="28" t="str">
+      <c r="AK11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI6="","",_zhileng_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL11" s="28" t="str">
+      <c r="AL11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ6="","",_zhileng_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM11" s="28" t="str">
+      <c r="AM11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK6="","",_zhileng_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN11" s="28" t="str">
+      <c r="AN11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL6="","",_zhileng_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO11" s="28" t="str">
+      <c r="AO11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM6="","",_zhileng_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP11" s="28" t="str">
+      <c r="AP11" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN6="","",_zhileng_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ11" s="75" t="str">
+      <c r="AQ11" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO6="","",_zhileng_day_hour!AO6)</f>
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="2:43">
-      <c r="B12" s="27">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C12" s="28" t="str">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B12" s="16">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C12" s="17" t="str">
         <f>IF(_zhileng_day_hour!A7="","",_zhileng_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D12" s="28" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(_zhileng_day_hour!B7="","",_zhileng_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="17" t="str">
         <f>IF(_zhileng_day_hour!C7="","",_zhileng_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F12" s="28" t="str">
+      <c r="F12" s="17" t="str">
         <f>IF(_zhileng_day_hour!D7="","",_zhileng_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="17" t="str">
         <f>IF(_zhileng_day_hour!E7="","",_zhileng_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H12" s="28" t="str">
+      <c r="H12" s="17" t="str">
         <f>IF(_zhileng_day_hour!F7="","",_zhileng_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="17" t="str">
         <f>IF(_zhileng_day_hour!G7="","",_zhileng_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J12" s="28" t="str">
+      <c r="J12" s="17" t="str">
         <f>IF(_zhileng_day_hour!H7="","",_zhileng_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K12" s="28" t="str">
+      <c r="K12" s="17" t="str">
         <f>IF(_zhileng_day_hour!I7="","",_zhileng_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L12" s="28" t="str">
+      <c r="L12" s="17" t="str">
         <f>IF(_zhileng_day_hour!J7="","",_zhileng_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M12" s="28" t="str">
+      <c r="M12" s="17" t="str">
         <f>IF(_zhileng_day_hour!K7="","",_zhileng_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N12" s="28" t="str">
+      <c r="N12" s="17" t="str">
         <f>IF(_zhileng_day_hour!L7="","",_zhileng_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O12" s="28" t="str">
+      <c r="O12" s="17" t="str">
         <f>IF(_zhileng_day_hour!M7="","",_zhileng_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P12" s="28" t="str">
+      <c r="P12" s="17" t="str">
         <f>IF(_zhileng_day_hour!N7="","",_zhileng_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q12" s="28" t="str">
+      <c r="Q12" s="17" t="str">
         <f>IF(_zhileng_day_hour!O7="","",_zhileng_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R12" s="28" t="str">
+      <c r="R12" s="17" t="str">
         <f>IF(_zhileng_day_hour!P7="","",_zhileng_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S12" s="28" t="str">
+      <c r="S12" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q7="","",_zhileng_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T12" s="28" t="str">
+      <c r="T12" s="17" t="str">
         <f>IF(_zhileng_day_hour!R7="","",_zhileng_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U12" s="28" t="str">
+      <c r="U12" s="17" t="str">
         <f>IF(_zhileng_day_hour!S7="","",_zhileng_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V12" s="28" t="str">
+      <c r="V12" s="17" t="str">
         <f>IF(_zhileng_day_hour!T7="","",_zhileng_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W12" s="28" t="str">
+      <c r="W12" s="17" t="str">
         <f>IF(_zhileng_day_hour!U7="","",_zhileng_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X12" s="28" t="str">
+      <c r="X12" s="17" t="str">
         <f>IF(_zhileng_day_hour!V7="","",_zhileng_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y12" s="28" t="str">
+      <c r="Y12" s="17" t="str">
         <f>IF(_zhileng_day_hour!W7="","",_zhileng_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z12" s="28" t="str">
+      <c r="Z12" s="17" t="str">
         <f>IF(_zhileng_day_hour!X7="","",_zhileng_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA12" s="28" t="str">
+      <c r="AA12" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y7="","",_zhileng_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB12" s="28" t="str">
+      <c r="AB12" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z7="","",_zhileng_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC12" s="28" t="str">
+      <c r="AC12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA7="","",_zhileng_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD12" s="28" t="str">
+      <c r="AD12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB7="","",_zhileng_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE12" s="28" t="str">
+      <c r="AE12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC7="","",_zhileng_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF12" s="28" t="str">
+      <c r="AF12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD7="","",_zhileng_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG12" s="28" t="str">
+      <c r="AG12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE7="","",_zhileng_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH12" s="28" t="str">
+      <c r="AH12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF7="","",_zhileng_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI12" s="28" t="str">
+      <c r="AI12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG7="","",_zhileng_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ12" s="28" t="str">
+      <c r="AJ12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH7="","",_zhileng_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK12" s="28" t="str">
+      <c r="AK12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI7="","",_zhileng_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL12" s="28" t="str">
+      <c r="AL12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ7="","",_zhileng_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM12" s="28" t="str">
+      <c r="AM12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK7="","",_zhileng_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN12" s="28" t="str">
+      <c r="AN12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL7="","",_zhileng_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO12" s="28" t="str">
+      <c r="AO12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM7="","",_zhileng_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP12" s="28" t="str">
+      <c r="AP12" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN7="","",_zhileng_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ12" s="75" t="str">
+      <c r="AQ12" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO7="","",_zhileng_day_hour!AO7)</f>
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:43">
-      <c r="B13" s="27">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B13" s="16">
         <v>0.25</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="17" t="str">
         <f>IF(_zhileng_day_hour!A8="","",_zhileng_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="17" t="str">
         <f>IF(_zhileng_day_hour!B8="","",_zhileng_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="17" t="str">
         <f>IF(_zhileng_day_hour!C8="","",_zhileng_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="17" t="str">
         <f>IF(_zhileng_day_hour!D8="","",_zhileng_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="17" t="str">
         <f>IF(_zhileng_day_hour!E8="","",_zhileng_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H13" s="28" t="str">
+      <c r="H13" s="17" t="str">
         <f>IF(_zhileng_day_hour!F8="","",_zhileng_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I13" s="28" t="str">
+      <c r="I13" s="17" t="str">
         <f>IF(_zhileng_day_hour!G8="","",_zhileng_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J13" s="28" t="str">
+      <c r="J13" s="17" t="str">
         <f>IF(_zhileng_day_hour!H8="","",_zhileng_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K13" s="28" t="str">
+      <c r="K13" s="17" t="str">
         <f>IF(_zhileng_day_hour!I8="","",_zhileng_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L13" s="28" t="str">
+      <c r="L13" s="17" t="str">
         <f>IF(_zhileng_day_hour!J8="","",_zhileng_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M13" s="28" t="str">
+      <c r="M13" s="17" t="str">
         <f>IF(_zhileng_day_hour!K8="","",_zhileng_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N13" s="28" t="str">
+      <c r="N13" s="17" t="str">
         <f>IF(_zhileng_day_hour!L8="","",_zhileng_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O13" s="28" t="str">
+      <c r="O13" s="17" t="str">
         <f>IF(_zhileng_day_hour!M8="","",_zhileng_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P13" s="28" t="str">
+      <c r="P13" s="17" t="str">
         <f>IF(_zhileng_day_hour!N8="","",_zhileng_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q13" s="28" t="str">
+      <c r="Q13" s="17" t="str">
         <f>IF(_zhileng_day_hour!O8="","",_zhileng_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R13" s="28" t="str">
+      <c r="R13" s="17" t="str">
         <f>IF(_zhileng_day_hour!P8="","",_zhileng_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S13" s="28" t="str">
+      <c r="S13" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q8="","",_zhileng_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T13" s="28" t="str">
+      <c r="T13" s="17" t="str">
         <f>IF(_zhileng_day_hour!R8="","",_zhileng_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U13" s="28" t="str">
+      <c r="U13" s="17" t="str">
         <f>IF(_zhileng_day_hour!S8="","",_zhileng_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V13" s="28" t="str">
+      <c r="V13" s="17" t="str">
         <f>IF(_zhileng_day_hour!T8="","",_zhileng_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W13" s="28" t="str">
+      <c r="W13" s="17" t="str">
         <f>IF(_zhileng_day_hour!U8="","",_zhileng_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X13" s="28" t="str">
+      <c r="X13" s="17" t="str">
         <f>IF(_zhileng_day_hour!V8="","",_zhileng_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y13" s="28" t="str">
+      <c r="Y13" s="17" t="str">
         <f>IF(_zhileng_day_hour!W8="","",_zhileng_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z13" s="28" t="str">
+      <c r="Z13" s="17" t="str">
         <f>IF(_zhileng_day_hour!X8="","",_zhileng_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA13" s="28" t="str">
+      <c r="AA13" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y8="","",_zhileng_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB13" s="28" t="str">
+      <c r="AB13" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z8="","",_zhileng_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC13" s="28" t="str">
+      <c r="AC13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA8="","",_zhileng_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD13" s="28" t="str">
+      <c r="AD13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB8="","",_zhileng_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE13" s="28" t="str">
+      <c r="AE13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC8="","",_zhileng_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF13" s="28" t="str">
+      <c r="AF13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD8="","",_zhileng_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG13" s="28" t="str">
+      <c r="AG13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE8="","",_zhileng_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH13" s="28" t="str">
+      <c r="AH13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF8="","",_zhileng_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI13" s="28" t="str">
+      <c r="AI13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG8="","",_zhileng_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ13" s="28" t="str">
+      <c r="AJ13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH8="","",_zhileng_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK13" s="28" t="str">
+      <c r="AK13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI8="","",_zhileng_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL13" s="28" t="str">
+      <c r="AL13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ8="","",_zhileng_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM13" s="28" t="str">
+      <c r="AM13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK8="","",_zhileng_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN13" s="28" t="str">
+      <c r="AN13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL8="","",_zhileng_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO13" s="28" t="str">
+      <c r="AO13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM8="","",_zhileng_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP13" s="28" t="str">
+      <c r="AP13" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN8="","",_zhileng_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ13" s="75" t="str">
+      <c r="AQ13" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO8="","",_zhileng_day_hour!AO8)</f>
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="2:43">
-      <c r="B14" s="27">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C14" s="28" t="str">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B14" s="16">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C14" s="17" t="str">
         <f>IF(_zhileng_day_hour!A9="","",_zhileng_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D14" s="28" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(_zhileng_day_hour!B9="","",_zhileng_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="17" t="str">
         <f>IF(_zhileng_day_hour!C9="","",_zhileng_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="17" t="str">
         <f>IF(_zhileng_day_hour!D9="","",_zhileng_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G14" s="28" t="str">
+      <c r="G14" s="17" t="str">
         <f>IF(_zhileng_day_hour!E9="","",_zhileng_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H14" s="28" t="str">
+      <c r="H14" s="17" t="str">
         <f>IF(_zhileng_day_hour!F9="","",_zhileng_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I14" s="28" t="str">
+      <c r="I14" s="17" t="str">
         <f>IF(_zhileng_day_hour!G9="","",_zhileng_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J14" s="28" t="str">
+      <c r="J14" s="17" t="str">
         <f>IF(_zhileng_day_hour!H9="","",_zhileng_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K14" s="28" t="str">
+      <c r="K14" s="17" t="str">
         <f>IF(_zhileng_day_hour!I9="","",_zhileng_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L14" s="28" t="str">
+      <c r="L14" s="17" t="str">
         <f>IF(_zhileng_day_hour!J9="","",_zhileng_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M14" s="28" t="str">
+      <c r="M14" s="17" t="str">
         <f>IF(_zhileng_day_hour!K9="","",_zhileng_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N14" s="28" t="str">
+      <c r="N14" s="17" t="str">
         <f>IF(_zhileng_day_hour!L9="","",_zhileng_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O14" s="28" t="str">
+      <c r="O14" s="17" t="str">
         <f>IF(_zhileng_day_hour!M9="","",_zhileng_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P14" s="28" t="str">
+      <c r="P14" s="17" t="str">
         <f>IF(_zhileng_day_hour!N9="","",_zhileng_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q14" s="28" t="str">
+      <c r="Q14" s="17" t="str">
         <f>IF(_zhileng_day_hour!O9="","",_zhileng_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R14" s="28" t="str">
+      <c r="R14" s="17" t="str">
         <f>IF(_zhileng_day_hour!P9="","",_zhileng_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S14" s="28" t="str">
+      <c r="S14" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q9="","",_zhileng_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T14" s="28" t="str">
+      <c r="T14" s="17" t="str">
         <f>IF(_zhileng_day_hour!R9="","",_zhileng_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U14" s="28" t="str">
+      <c r="U14" s="17" t="str">
         <f>IF(_zhileng_day_hour!S9="","",_zhileng_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V14" s="28" t="str">
+      <c r="V14" s="17" t="str">
         <f>IF(_zhileng_day_hour!T9="","",_zhileng_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W14" s="28" t="str">
+      <c r="W14" s="17" t="str">
         <f>IF(_zhileng_day_hour!U9="","",_zhileng_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X14" s="28" t="str">
+      <c r="X14" s="17" t="str">
         <f>IF(_zhileng_day_hour!V9="","",_zhileng_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y14" s="28" t="str">
+      <c r="Y14" s="17" t="str">
         <f>IF(_zhileng_day_hour!W9="","",_zhileng_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z14" s="28" t="str">
+      <c r="Z14" s="17" t="str">
         <f>IF(_zhileng_day_hour!X9="","",_zhileng_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA14" s="28" t="str">
+      <c r="AA14" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y9="","",_zhileng_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB14" s="28" t="str">
+      <c r="AB14" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z9="","",_zhileng_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC14" s="28" t="str">
+      <c r="AC14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA9="","",_zhileng_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD14" s="28" t="str">
+      <c r="AD14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB9="","",_zhileng_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE14" s="28" t="str">
+      <c r="AE14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC9="","",_zhileng_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF14" s="28" t="str">
+      <c r="AF14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD9="","",_zhileng_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG14" s="28" t="str">
+      <c r="AG14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE9="","",_zhileng_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH14" s="28" t="str">
+      <c r="AH14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF9="","",_zhileng_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI14" s="28" t="str">
+      <c r="AI14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG9="","",_zhileng_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ14" s="28" t="str">
+      <c r="AJ14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH9="","",_zhileng_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK14" s="28" t="str">
+      <c r="AK14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI9="","",_zhileng_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL14" s="28" t="str">
+      <c r="AL14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ9="","",_zhileng_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM14" s="28" t="str">
+      <c r="AM14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK9="","",_zhileng_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN14" s="28" t="str">
+      <c r="AN14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL9="","",_zhileng_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO14" s="28" t="str">
+      <c r="AO14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM9="","",_zhileng_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP14" s="28" t="str">
+      <c r="AP14" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN9="","",_zhileng_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ14" s="75" t="str">
+      <c r="AQ14" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO9="","",_zhileng_day_hour!AO9)</f>
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="2:43">
-      <c r="B15" s="27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C15" s="28" t="str">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B15" s="16">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C15" s="17" t="str">
         <f>IF(_zhileng_day_hour!A10="","",_zhileng_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D15" s="28" t="str">
+      <c r="D15" s="17" t="str">
         <f>IF(_zhileng_day_hour!B10="","",_zhileng_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="17" t="str">
         <f>IF(_zhileng_day_hour!C10="","",_zhileng_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F15" s="28" t="str">
+      <c r="F15" s="17" t="str">
         <f>IF(_zhileng_day_hour!D10="","",_zhileng_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G15" s="28" t="str">
+      <c r="G15" s="17" t="str">
         <f>IF(_zhileng_day_hour!E10="","",_zhileng_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H15" s="28" t="str">
+      <c r="H15" s="17" t="str">
         <f>IF(_zhileng_day_hour!F10="","",_zhileng_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I15" s="28" t="str">
+      <c r="I15" s="17" t="str">
         <f>IF(_zhileng_day_hour!G10="","",_zhileng_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J15" s="28" t="str">
+      <c r="J15" s="17" t="str">
         <f>IF(_zhileng_day_hour!H10="","",_zhileng_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K15" s="28" t="str">
+      <c r="K15" s="17" t="str">
         <f>IF(_zhileng_day_hour!I10="","",_zhileng_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L15" s="28" t="str">
+      <c r="L15" s="17" t="str">
         <f>IF(_zhileng_day_hour!J10="","",_zhileng_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M15" s="28" t="str">
+      <c r="M15" s="17" t="str">
         <f>IF(_zhileng_day_hour!K10="","",_zhileng_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N15" s="28" t="str">
+      <c r="N15" s="17" t="str">
         <f>IF(_zhileng_day_hour!L10="","",_zhileng_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O15" s="28" t="str">
+      <c r="O15" s="17" t="str">
         <f>IF(_zhileng_day_hour!M10="","",_zhileng_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P15" s="28" t="str">
+      <c r="P15" s="17" t="str">
         <f>IF(_zhileng_day_hour!N10="","",_zhileng_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q15" s="28" t="str">
+      <c r="Q15" s="17" t="str">
         <f>IF(_zhileng_day_hour!O10="","",_zhileng_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R15" s="28" t="str">
+      <c r="R15" s="17" t="str">
         <f>IF(_zhileng_day_hour!P10="","",_zhileng_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S15" s="28" t="str">
+      <c r="S15" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q10="","",_zhileng_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T15" s="28" t="str">
+      <c r="T15" s="17" t="str">
         <f>IF(_zhileng_day_hour!R10="","",_zhileng_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U15" s="28" t="str">
+      <c r="U15" s="17" t="str">
         <f>IF(_zhileng_day_hour!S10="","",_zhileng_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V15" s="28" t="str">
+      <c r="V15" s="17" t="str">
         <f>IF(_zhileng_day_hour!T10="","",_zhileng_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W15" s="28" t="str">
+      <c r="W15" s="17" t="str">
         <f>IF(_zhileng_day_hour!U10="","",_zhileng_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X15" s="28" t="str">
+      <c r="X15" s="17" t="str">
         <f>IF(_zhileng_day_hour!V10="","",_zhileng_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y15" s="28" t="str">
+      <c r="Y15" s="17" t="str">
         <f>IF(_zhileng_day_hour!W10="","",_zhileng_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z15" s="28" t="str">
+      <c r="Z15" s="17" t="str">
         <f>IF(_zhileng_day_hour!X10="","",_zhileng_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA15" s="28" t="str">
+      <c r="AA15" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y10="","",_zhileng_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB15" s="28" t="str">
+      <c r="AB15" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z10="","",_zhileng_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC15" s="28" t="str">
+      <c r="AC15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA10="","",_zhileng_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD15" s="28" t="str">
+      <c r="AD15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB10="","",_zhileng_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE15" s="28" t="str">
+      <c r="AE15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC10="","",_zhileng_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF15" s="28" t="str">
+      <c r="AF15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD10="","",_zhileng_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG15" s="28" t="str">
+      <c r="AG15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE10="","",_zhileng_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH15" s="28" t="str">
+      <c r="AH15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF10="","",_zhileng_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI15" s="28" t="str">
+      <c r="AI15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG10="","",_zhileng_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ15" s="28" t="str">
+      <c r="AJ15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH10="","",_zhileng_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK15" s="28" t="str">
+      <c r="AK15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI10="","",_zhileng_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL15" s="28" t="str">
+      <c r="AL15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ10="","",_zhileng_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM15" s="28" t="str">
+      <c r="AM15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK10="","",_zhileng_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN15" s="28" t="str">
+      <c r="AN15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL10="","",_zhileng_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO15" s="28" t="str">
+      <c r="AO15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM10="","",_zhileng_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP15" s="28" t="str">
+      <c r="AP15" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN10="","",_zhileng_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ15" s="75" t="str">
+      <c r="AQ15" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO10="","",_zhileng_day_hour!AO10)</f>
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="2:43">
-      <c r="B16" s="27">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B16" s="16">
         <v>0.375</v>
       </c>
-      <c r="C16" s="28" t="str">
+      <c r="C16" s="17" t="str">
         <f>IF(_zhileng_day_hour!A11="","",_zhileng_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="17" t="str">
         <f>IF(_zhileng_day_hour!B11="","",_zhileng_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="17" t="str">
         <f>IF(_zhileng_day_hour!C11="","",_zhileng_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F16" s="28" t="str">
+      <c r="F16" s="17" t="str">
         <f>IF(_zhileng_day_hour!D11="","",_zhileng_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="17" t="str">
         <f>IF(_zhileng_day_hour!E11="","",_zhileng_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="17" t="str">
         <f>IF(_zhileng_day_hour!F11="","",_zhileng_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="17" t="str">
         <f>IF(_zhileng_day_hour!G11="","",_zhileng_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J16" s="28" t="str">
+      <c r="J16" s="17" t="str">
         <f>IF(_zhileng_day_hour!H11="","",_zhileng_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K16" s="28" t="str">
+      <c r="K16" s="17" t="str">
         <f>IF(_zhileng_day_hour!I11="","",_zhileng_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L16" s="28" t="str">
+      <c r="L16" s="17" t="str">
         <f>IF(_zhileng_day_hour!J11="","",_zhileng_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M16" s="28" t="str">
+      <c r="M16" s="17" t="str">
         <f>IF(_zhileng_day_hour!K11="","",_zhileng_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N16" s="28" t="str">
+      <c r="N16" s="17" t="str">
         <f>IF(_zhileng_day_hour!L11="","",_zhileng_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O16" s="28" t="str">
+      <c r="O16" s="17" t="str">
         <f>IF(_zhileng_day_hour!M11="","",_zhileng_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P16" s="28" t="str">
+      <c r="P16" s="17" t="str">
         <f>IF(_zhileng_day_hour!N11="","",_zhileng_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q16" s="28" t="str">
+      <c r="Q16" s="17" t="str">
         <f>IF(_zhileng_day_hour!O11="","",_zhileng_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R16" s="28" t="str">
+      <c r="R16" s="17" t="str">
         <f>IF(_zhileng_day_hour!P11="","",_zhileng_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S16" s="28" t="str">
+      <c r="S16" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q11="","",_zhileng_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T16" s="28" t="str">
+      <c r="T16" s="17" t="str">
         <f>IF(_zhileng_day_hour!R11="","",_zhileng_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U16" s="28" t="str">
+      <c r="U16" s="17" t="str">
         <f>IF(_zhileng_day_hour!S11="","",_zhileng_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V16" s="28" t="str">
+      <c r="V16" s="17" t="str">
         <f>IF(_zhileng_day_hour!T11="","",_zhileng_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W16" s="28" t="str">
+      <c r="W16" s="17" t="str">
         <f>IF(_zhileng_day_hour!U11="","",_zhileng_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X16" s="28" t="str">
+      <c r="X16" s="17" t="str">
         <f>IF(_zhileng_day_hour!V11="","",_zhileng_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y16" s="28" t="str">
+      <c r="Y16" s="17" t="str">
         <f>IF(_zhileng_day_hour!W11="","",_zhileng_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z16" s="28" t="str">
+      <c r="Z16" s="17" t="str">
         <f>IF(_zhileng_day_hour!X11="","",_zhileng_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA16" s="28" t="str">
+      <c r="AA16" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y11="","",_zhileng_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB16" s="28" t="str">
+      <c r="AB16" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z11="","",_zhileng_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC16" s="28" t="str">
+      <c r="AC16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA11="","",_zhileng_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD16" s="28" t="str">
+      <c r="AD16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB11="","",_zhileng_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE16" s="28" t="str">
+      <c r="AE16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC11="","",_zhileng_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF16" s="28" t="str">
+      <c r="AF16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD11="","",_zhileng_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG16" s="28" t="str">
+      <c r="AG16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE11="","",_zhileng_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH16" s="28" t="str">
+      <c r="AH16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF11="","",_zhileng_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI16" s="28" t="str">
+      <c r="AI16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG11="","",_zhileng_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ16" s="28" t="str">
+      <c r="AJ16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH11="","",_zhileng_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK16" s="28" t="str">
+      <c r="AK16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI11="","",_zhileng_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL16" s="28" t="str">
+      <c r="AL16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ11="","",_zhileng_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM16" s="28" t="str">
+      <c r="AM16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK11="","",_zhileng_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN16" s="28" t="str">
+      <c r="AN16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL11="","",_zhileng_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO16" s="28" t="str">
+      <c r="AO16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM11="","",_zhileng_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP16" s="28" t="str">
+      <c r="AP16" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN11="","",_zhileng_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ16" s="75" t="str">
+      <c r="AQ16" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO11="","",_zhileng_day_hour!AO11)</f>
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="2:43">
-      <c r="B17" s="27">
-        <v>0.416666666666666</v>
-      </c>
-      <c r="C17" s="28" t="str">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B17" s="16">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C17" s="17" t="str">
         <f>IF(_zhileng_day_hour!A12="","",_zhileng_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="17" t="str">
         <f>IF(_zhileng_day_hour!B12="","",_zhileng_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="17" t="str">
         <f>IF(_zhileng_day_hour!C12="","",_zhileng_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F17" s="28" t="str">
+      <c r="F17" s="17" t="str">
         <f>IF(_zhileng_day_hour!D12="","",_zhileng_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="17" t="str">
         <f>IF(_zhileng_day_hour!E12="","",_zhileng_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H17" s="28" t="str">
+      <c r="H17" s="17" t="str">
         <f>IF(_zhileng_day_hour!F12="","",_zhileng_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="17" t="str">
         <f>IF(_zhileng_day_hour!G12="","",_zhileng_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J17" s="28" t="str">
+      <c r="J17" s="17" t="str">
         <f>IF(_zhileng_day_hour!H12="","",_zhileng_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K17" s="28" t="str">
+      <c r="K17" s="17" t="str">
         <f>IF(_zhileng_day_hour!I12="","",_zhileng_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L17" s="28" t="str">
+      <c r="L17" s="17" t="str">
         <f>IF(_zhileng_day_hour!J12="","",_zhileng_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M17" s="28" t="str">
+      <c r="M17" s="17" t="str">
         <f>IF(_zhileng_day_hour!K12="","",_zhileng_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N17" s="28" t="str">
+      <c r="N17" s="17" t="str">
         <f>IF(_zhileng_day_hour!L12="","",_zhileng_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O17" s="28" t="str">
+      <c r="O17" s="17" t="str">
         <f>IF(_zhileng_day_hour!M12="","",_zhileng_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P17" s="28" t="str">
+      <c r="P17" s="17" t="str">
         <f>IF(_zhileng_day_hour!N12="","",_zhileng_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q17" s="28" t="str">
+      <c r="Q17" s="17" t="str">
         <f>IF(_zhileng_day_hour!O12="","",_zhileng_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R17" s="28" t="str">
+      <c r="R17" s="17" t="str">
         <f>IF(_zhileng_day_hour!P12="","",_zhileng_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S17" s="28" t="str">
+      <c r="S17" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q12="","",_zhileng_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T17" s="28" t="str">
+      <c r="T17" s="17" t="str">
         <f>IF(_zhileng_day_hour!R12="","",_zhileng_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U17" s="28" t="str">
+      <c r="U17" s="17" t="str">
         <f>IF(_zhileng_day_hour!S12="","",_zhileng_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V17" s="28" t="str">
+      <c r="V17" s="17" t="str">
         <f>IF(_zhileng_day_hour!T12="","",_zhileng_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W17" s="28" t="str">
+      <c r="W17" s="17" t="str">
         <f>IF(_zhileng_day_hour!U12="","",_zhileng_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X17" s="28" t="str">
+      <c r="X17" s="17" t="str">
         <f>IF(_zhileng_day_hour!V12="","",_zhileng_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y17" s="28" t="str">
+      <c r="Y17" s="17" t="str">
         <f>IF(_zhileng_day_hour!W12="","",_zhileng_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z17" s="28" t="str">
+      <c r="Z17" s="17" t="str">
         <f>IF(_zhileng_day_hour!X12="","",_zhileng_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA17" s="28" t="str">
+      <c r="AA17" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y12="","",_zhileng_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB17" s="28" t="str">
+      <c r="AB17" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z12="","",_zhileng_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC17" s="28" t="str">
+      <c r="AC17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA12="","",_zhileng_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD17" s="28" t="str">
+      <c r="AD17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB12="","",_zhileng_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE17" s="28" t="str">
+      <c r="AE17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC12="","",_zhileng_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF17" s="28" t="str">
+      <c r="AF17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD12="","",_zhileng_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG17" s="28" t="str">
+      <c r="AG17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE12="","",_zhileng_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH17" s="28" t="str">
+      <c r="AH17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF12="","",_zhileng_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI17" s="28" t="str">
+      <c r="AI17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG12="","",_zhileng_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ17" s="28" t="str">
+      <c r="AJ17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH12="","",_zhileng_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK17" s="28" t="str">
+      <c r="AK17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI12="","",_zhileng_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL17" s="28" t="str">
+      <c r="AL17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ12="","",_zhileng_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM17" s="28" t="str">
+      <c r="AM17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK12="","",_zhileng_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN17" s="28" t="str">
+      <c r="AN17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL12="","",_zhileng_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO17" s="28" t="str">
+      <c r="AO17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM12="","",_zhileng_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP17" s="28" t="str">
+      <c r="AP17" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN12="","",_zhileng_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ17" s="75" t="str">
+      <c r="AQ17" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO12="","",_zhileng_day_hour!AO12)</f>
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="2:43">
-      <c r="B18" s="27">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C18" s="28" t="str">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B18" s="16">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C18" s="17" t="str">
         <f>IF(_zhileng_day_hour!A13="","",_zhileng_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D18" s="28" t="str">
+      <c r="D18" s="17" t="str">
         <f>IF(_zhileng_day_hour!B13="","",_zhileng_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E18" s="28" t="str">
+      <c r="E18" s="17" t="str">
         <f>IF(_zhileng_day_hour!C13="","",_zhileng_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F18" s="28" t="str">
+      <c r="F18" s="17" t="str">
         <f>IF(_zhileng_day_hour!D13="","",_zhileng_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G18" s="28" t="str">
+      <c r="G18" s="17" t="str">
         <f>IF(_zhileng_day_hour!E13="","",_zhileng_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H18" s="28" t="str">
+      <c r="H18" s="17" t="str">
         <f>IF(_zhileng_day_hour!F13="","",_zhileng_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I18" s="28" t="str">
+      <c r="I18" s="17" t="str">
         <f>IF(_zhileng_day_hour!G13="","",_zhileng_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J18" s="28" t="str">
+      <c r="J18" s="17" t="str">
         <f>IF(_zhileng_day_hour!H13="","",_zhileng_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K18" s="28" t="str">
+      <c r="K18" s="17" t="str">
         <f>IF(_zhileng_day_hour!I13="","",_zhileng_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L18" s="28" t="str">
+      <c r="L18" s="17" t="str">
         <f>IF(_zhileng_day_hour!J13="","",_zhileng_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M18" s="28" t="str">
+      <c r="M18" s="17" t="str">
         <f>IF(_zhileng_day_hour!K13="","",_zhileng_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N18" s="28" t="str">
+      <c r="N18" s="17" t="str">
         <f>IF(_zhileng_day_hour!L13="","",_zhileng_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O18" s="28" t="str">
+      <c r="O18" s="17" t="str">
         <f>IF(_zhileng_day_hour!M13="","",_zhileng_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P18" s="28" t="str">
+      <c r="P18" s="17" t="str">
         <f>IF(_zhileng_day_hour!N13="","",_zhileng_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q18" s="28" t="str">
+      <c r="Q18" s="17" t="str">
         <f>IF(_zhileng_day_hour!O13="","",_zhileng_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R18" s="28" t="str">
+      <c r="R18" s="17" t="str">
         <f>IF(_zhileng_day_hour!P13="","",_zhileng_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S18" s="28" t="str">
+      <c r="S18" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q13="","",_zhileng_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T18" s="28" t="str">
+      <c r="T18" s="17" t="str">
         <f>IF(_zhileng_day_hour!R13="","",_zhileng_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U18" s="28" t="str">
+      <c r="U18" s="17" t="str">
         <f>IF(_zhileng_day_hour!S13="","",_zhileng_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V18" s="28" t="str">
+      <c r="V18" s="17" t="str">
         <f>IF(_zhileng_day_hour!T13="","",_zhileng_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W18" s="28" t="str">
+      <c r="W18" s="17" t="str">
         <f>IF(_zhileng_day_hour!U13="","",_zhileng_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X18" s="28" t="str">
+      <c r="X18" s="17" t="str">
         <f>IF(_zhileng_day_hour!V13="","",_zhileng_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y18" s="28" t="str">
+      <c r="Y18" s="17" t="str">
         <f>IF(_zhileng_day_hour!W13="","",_zhileng_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z18" s="28" t="str">
+      <c r="Z18" s="17" t="str">
         <f>IF(_zhileng_day_hour!X13="","",_zhileng_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA18" s="28" t="str">
+      <c r="AA18" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y13="","",_zhileng_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB18" s="28" t="str">
+      <c r="AB18" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z13="","",_zhileng_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC18" s="28" t="str">
+      <c r="AC18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA13="","",_zhileng_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD18" s="28" t="str">
+      <c r="AD18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB13="","",_zhileng_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE18" s="28" t="str">
+      <c r="AE18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC13="","",_zhileng_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF18" s="28" t="str">
+      <c r="AF18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD13="","",_zhileng_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG18" s="28" t="str">
+      <c r="AG18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE13="","",_zhileng_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH18" s="28" t="str">
+      <c r="AH18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF13="","",_zhileng_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI18" s="28" t="str">
+      <c r="AI18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG13="","",_zhileng_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ18" s="28" t="str">
+      <c r="AJ18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH13="","",_zhileng_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK18" s="28" t="str">
+      <c r="AK18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI13="","",_zhileng_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL18" s="28" t="str">
+      <c r="AL18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ13="","",_zhileng_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM18" s="28" t="str">
+      <c r="AM18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK13="","",_zhileng_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN18" s="28" t="str">
+      <c r="AN18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL13="","",_zhileng_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO18" s="28" t="str">
+      <c r="AO18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM13="","",_zhileng_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP18" s="28" t="str">
+      <c r="AP18" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN13="","",_zhileng_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ18" s="75" t="str">
+      <c r="AQ18" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO13="","",_zhileng_day_hour!AO13)</f>
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="2:43">
-      <c r="B19" s="27">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B19" s="16">
         <v>0.5</v>
       </c>
-      <c r="C19" s="28" t="str">
+      <c r="C19" s="17" t="str">
         <f>IF(_zhileng_day_hour!A14="","",_zhileng_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D19" s="28" t="str">
+      <c r="D19" s="17" t="str">
         <f>IF(_zhileng_day_hour!B14="","",_zhileng_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E19" s="28" t="str">
+      <c r="E19" s="17" t="str">
         <f>IF(_zhileng_day_hour!C14="","",_zhileng_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F19" s="28" t="str">
+      <c r="F19" s="17" t="str">
         <f>IF(_zhileng_day_hour!D14="","",_zhileng_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G19" s="28" t="str">
+      <c r="G19" s="17" t="str">
         <f>IF(_zhileng_day_hour!E14="","",_zhileng_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H19" s="28" t="str">
+      <c r="H19" s="17" t="str">
         <f>IF(_zhileng_day_hour!F14="","",_zhileng_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I19" s="28" t="str">
+      <c r="I19" s="17" t="str">
         <f>IF(_zhileng_day_hour!G14="","",_zhileng_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J19" s="28" t="str">
+      <c r="J19" s="17" t="str">
         <f>IF(_zhileng_day_hour!H14="","",_zhileng_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K19" s="28" t="str">
+      <c r="K19" s="17" t="str">
         <f>IF(_zhileng_day_hour!I14="","",_zhileng_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L19" s="28" t="str">
+      <c r="L19" s="17" t="str">
         <f>IF(_zhileng_day_hour!J14="","",_zhileng_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M19" s="28" t="str">
+      <c r="M19" s="17" t="str">
         <f>IF(_zhileng_day_hour!K14="","",_zhileng_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N19" s="28" t="str">
+      <c r="N19" s="17" t="str">
         <f>IF(_zhileng_day_hour!L14="","",_zhileng_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O19" s="28" t="str">
+      <c r="O19" s="17" t="str">
         <f>IF(_zhileng_day_hour!M14="","",_zhileng_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P19" s="28" t="str">
+      <c r="P19" s="17" t="str">
         <f>IF(_zhileng_day_hour!N14="","",_zhileng_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q19" s="28" t="str">
+      <c r="Q19" s="17" t="str">
         <f>IF(_zhileng_day_hour!O14="","",_zhileng_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R19" s="28" t="str">
+      <c r="R19" s="17" t="str">
         <f>IF(_zhileng_day_hour!P14="","",_zhileng_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S19" s="28" t="str">
+      <c r="S19" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q14="","",_zhileng_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T19" s="28" t="str">
+      <c r="T19" s="17" t="str">
         <f>IF(_zhileng_day_hour!R14="","",_zhileng_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U19" s="28" t="str">
+      <c r="U19" s="17" t="str">
         <f>IF(_zhileng_day_hour!S14="","",_zhileng_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V19" s="28" t="str">
+      <c r="V19" s="17" t="str">
         <f>IF(_zhileng_day_hour!T14="","",_zhileng_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W19" s="28" t="str">
+      <c r="W19" s="17" t="str">
         <f>IF(_zhileng_day_hour!U14="","",_zhileng_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X19" s="28" t="str">
+      <c r="X19" s="17" t="str">
         <f>IF(_zhileng_day_hour!V14="","",_zhileng_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y19" s="28" t="str">
+      <c r="Y19" s="17" t="str">
         <f>IF(_zhileng_day_hour!W14="","",_zhileng_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z19" s="28" t="str">
+      <c r="Z19" s="17" t="str">
         <f>IF(_zhileng_day_hour!X14="","",_zhileng_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA19" s="28" t="str">
+      <c r="AA19" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y14="","",_zhileng_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB19" s="28" t="str">
+      <c r="AB19" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z14="","",_zhileng_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC19" s="28" t="str">
+      <c r="AC19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA14="","",_zhileng_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD19" s="28" t="str">
+      <c r="AD19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB14="","",_zhileng_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE19" s="28" t="str">
+      <c r="AE19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC14="","",_zhileng_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF19" s="28" t="str">
+      <c r="AF19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD14="","",_zhileng_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG19" s="28" t="str">
+      <c r="AG19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE14="","",_zhileng_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH19" s="28" t="str">
+      <c r="AH19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF14="","",_zhileng_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI19" s="28" t="str">
+      <c r="AI19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG14="","",_zhileng_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ19" s="28" t="str">
+      <c r="AJ19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH14="","",_zhileng_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK19" s="28" t="str">
+      <c r="AK19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI14="","",_zhileng_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL19" s="28" t="str">
+      <c r="AL19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ14="","",_zhileng_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM19" s="28" t="str">
+      <c r="AM19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK14="","",_zhileng_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN19" s="28" t="str">
+      <c r="AN19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL14="","",_zhileng_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO19" s="28" t="str">
+      <c r="AO19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM14="","",_zhileng_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP19" s="28" t="str">
+      <c r="AP19" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN14="","",_zhileng_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ19" s="75" t="str">
+      <c r="AQ19" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO14="","",_zhileng_day_hour!AO14)</f>
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="2:43">
-      <c r="B20" s="27">
-        <v>0.541666666666666</v>
-      </c>
-      <c r="C20" s="28" t="str">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B20" s="16">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C20" s="17" t="str">
         <f>IF(_zhileng_day_hour!A15="","",_zhileng_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D20" s="28" t="str">
+      <c r="D20" s="17" t="str">
         <f>IF(_zhileng_day_hour!B15="","",_zhileng_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="17" t="str">
         <f>IF(_zhileng_day_hour!C15="","",_zhileng_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F20" s="28" t="str">
+      <c r="F20" s="17" t="str">
         <f>IF(_zhileng_day_hour!D15="","",_zhileng_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G20" s="28" t="str">
+      <c r="G20" s="17" t="str">
         <f>IF(_zhileng_day_hour!E15="","",_zhileng_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H20" s="28" t="str">
+      <c r="H20" s="17" t="str">
         <f>IF(_zhileng_day_hour!F15="","",_zhileng_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I20" s="28" t="str">
+      <c r="I20" s="17" t="str">
         <f>IF(_zhileng_day_hour!G15="","",_zhileng_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J20" s="28" t="str">
+      <c r="J20" s="17" t="str">
         <f>IF(_zhileng_day_hour!H15="","",_zhileng_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K20" s="28" t="str">
+      <c r="K20" s="17" t="str">
         <f>IF(_zhileng_day_hour!I15="","",_zhileng_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L20" s="28" t="str">
+      <c r="L20" s="17" t="str">
         <f>IF(_zhileng_day_hour!J15="","",_zhileng_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M20" s="28" t="str">
+      <c r="M20" s="17" t="str">
         <f>IF(_zhileng_day_hour!K15="","",_zhileng_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N20" s="28" t="str">
+      <c r="N20" s="17" t="str">
         <f>IF(_zhileng_day_hour!L15="","",_zhileng_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O20" s="28" t="str">
+      <c r="O20" s="17" t="str">
         <f>IF(_zhileng_day_hour!M15="","",_zhileng_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P20" s="28" t="str">
+      <c r="P20" s="17" t="str">
         <f>IF(_zhileng_day_hour!N15="","",_zhileng_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q20" s="28" t="str">
+      <c r="Q20" s="17" t="str">
         <f>IF(_zhileng_day_hour!O15="","",_zhileng_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="17" t="str">
         <f>IF(_zhileng_day_hour!P15="","",_zhileng_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S20" s="28" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q15="","",_zhileng_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T20" s="28" t="str">
+      <c r="T20" s="17" t="str">
         <f>IF(_zhileng_day_hour!R15="","",_zhileng_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U20" s="28" t="str">
+      <c r="U20" s="17" t="str">
         <f>IF(_zhileng_day_hour!S15="","",_zhileng_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V20" s="28" t="str">
+      <c r="V20" s="17" t="str">
         <f>IF(_zhileng_day_hour!T15="","",_zhileng_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W20" s="28" t="str">
+      <c r="W20" s="17" t="str">
         <f>IF(_zhileng_day_hour!U15="","",_zhileng_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X20" s="28" t="str">
+      <c r="X20" s="17" t="str">
         <f>IF(_zhileng_day_hour!V15="","",_zhileng_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y20" s="28" t="str">
+      <c r="Y20" s="17" t="str">
         <f>IF(_zhileng_day_hour!W15="","",_zhileng_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z20" s="28" t="str">
+      <c r="Z20" s="17" t="str">
         <f>IF(_zhileng_day_hour!X15="","",_zhileng_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA20" s="28" t="str">
+      <c r="AA20" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y15="","",_zhileng_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB20" s="28" t="str">
+      <c r="AB20" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z15="","",_zhileng_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC20" s="28" t="str">
+      <c r="AC20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA15="","",_zhileng_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD20" s="28" t="str">
+      <c r="AD20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB15="","",_zhileng_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE20" s="28" t="str">
+      <c r="AE20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC15="","",_zhileng_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF20" s="28" t="str">
+      <c r="AF20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD15="","",_zhileng_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG20" s="28" t="str">
+      <c r="AG20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE15="","",_zhileng_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH20" s="28" t="str">
+      <c r="AH20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF15="","",_zhileng_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI20" s="28" t="str">
+      <c r="AI20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG15="","",_zhileng_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ20" s="28" t="str">
+      <c r="AJ20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH15="","",_zhileng_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK20" s="28" t="str">
+      <c r="AK20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI15="","",_zhileng_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL20" s="28" t="str">
+      <c r="AL20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ15="","",_zhileng_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM20" s="28" t="str">
+      <c r="AM20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK15="","",_zhileng_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN20" s="28" t="str">
+      <c r="AN20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL15="","",_zhileng_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO20" s="28" t="str">
+      <c r="AO20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM15="","",_zhileng_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP20" s="28" t="str">
+      <c r="AP20" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN15="","",_zhileng_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ20" s="75" t="str">
+      <c r="AQ20" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO15="","",_zhileng_day_hour!AO15)</f>
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="2:43">
-      <c r="B21" s="27">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C21" s="28" t="str">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B21" s="16">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C21" s="17" t="str">
         <f>IF(_zhileng_day_hour!A16="","",_zhileng_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D21" s="28" t="str">
+      <c r="D21" s="17" t="str">
         <f>IF(_zhileng_day_hour!B16="","",_zhileng_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E21" s="28" t="str">
+      <c r="E21" s="17" t="str">
         <f>IF(_zhileng_day_hour!C16="","",_zhileng_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F21" s="28" t="str">
+      <c r="F21" s="17" t="str">
         <f>IF(_zhileng_day_hour!D16="","",_zhileng_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G21" s="28" t="str">
+      <c r="G21" s="17" t="str">
         <f>IF(_zhileng_day_hour!E16="","",_zhileng_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H21" s="28" t="str">
+      <c r="H21" s="17" t="str">
         <f>IF(_zhileng_day_hour!F16="","",_zhileng_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I21" s="28" t="str">
+      <c r="I21" s="17" t="str">
         <f>IF(_zhileng_day_hour!G16="","",_zhileng_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J21" s="28" t="str">
+      <c r="J21" s="17" t="str">
         <f>IF(_zhileng_day_hour!H16="","",_zhileng_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K21" s="28" t="str">
+      <c r="K21" s="17" t="str">
         <f>IF(_zhileng_day_hour!I16="","",_zhileng_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L21" s="28" t="str">
+      <c r="L21" s="17" t="str">
         <f>IF(_zhileng_day_hour!J16="","",_zhileng_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M21" s="28" t="str">
+      <c r="M21" s="17" t="str">
         <f>IF(_zhileng_day_hour!K16="","",_zhileng_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N21" s="28" t="str">
+      <c r="N21" s="17" t="str">
         <f>IF(_zhileng_day_hour!L16="","",_zhileng_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O21" s="28" t="str">
+      <c r="O21" s="17" t="str">
         <f>IF(_zhileng_day_hour!M16="","",_zhileng_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P21" s="28" t="str">
+      <c r="P21" s="17" t="str">
         <f>IF(_zhileng_day_hour!N16="","",_zhileng_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q21" s="28" t="str">
+      <c r="Q21" s="17" t="str">
         <f>IF(_zhileng_day_hour!O16="","",_zhileng_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="17" t="str">
         <f>IF(_zhileng_day_hour!P16="","",_zhileng_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S21" s="28" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q16="","",_zhileng_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T21" s="28" t="str">
+      <c r="T21" s="17" t="str">
         <f>IF(_zhileng_day_hour!R16="","",_zhileng_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U21" s="28" t="str">
+      <c r="U21" s="17" t="str">
         <f>IF(_zhileng_day_hour!S16="","",_zhileng_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V21" s="28" t="str">
+      <c r="V21" s="17" t="str">
         <f>IF(_zhileng_day_hour!T16="","",_zhileng_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W21" s="28" t="str">
+      <c r="W21" s="17" t="str">
         <f>IF(_zhileng_day_hour!U16="","",_zhileng_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X21" s="28" t="str">
+      <c r="X21" s="17" t="str">
         <f>IF(_zhileng_day_hour!V16="","",_zhileng_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y21" s="28" t="str">
+      <c r="Y21" s="17" t="str">
         <f>IF(_zhileng_day_hour!W16="","",_zhileng_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z21" s="28" t="str">
+      <c r="Z21" s="17" t="str">
         <f>IF(_zhileng_day_hour!X16="","",_zhileng_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA21" s="28" t="str">
+      <c r="AA21" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y16="","",_zhileng_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB21" s="28" t="str">
+      <c r="AB21" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z16="","",_zhileng_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC21" s="28" t="str">
+      <c r="AC21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA16="","",_zhileng_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD21" s="28" t="str">
+      <c r="AD21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB16="","",_zhileng_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE21" s="28" t="str">
+      <c r="AE21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC16="","",_zhileng_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF21" s="28" t="str">
+      <c r="AF21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD16="","",_zhileng_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG21" s="28" t="str">
+      <c r="AG21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE16="","",_zhileng_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH21" s="28" t="str">
+      <c r="AH21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF16="","",_zhileng_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI21" s="28" t="str">
+      <c r="AI21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG16="","",_zhileng_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ21" s="28" t="str">
+      <c r="AJ21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH16="","",_zhileng_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK21" s="28" t="str">
+      <c r="AK21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI16="","",_zhileng_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL21" s="28" t="str">
+      <c r="AL21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ16="","",_zhileng_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM21" s="28" t="str">
+      <c r="AM21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK16="","",_zhileng_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN21" s="28" t="str">
+      <c r="AN21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL16="","",_zhileng_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO21" s="28" t="str">
+      <c r="AO21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM16="","",_zhileng_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP21" s="28" t="str">
+      <c r="AP21" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN16="","",_zhileng_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ21" s="75" t="str">
+      <c r="AQ21" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO16="","",_zhileng_day_hour!AO16)</f>
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:43">
-      <c r="B22" s="27">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B22" s="16">
         <v>0.625</v>
       </c>
-      <c r="C22" s="28" t="str">
+      <c r="C22" s="17" t="str">
         <f>IF(_zhileng_day_hour!A17="","",_zhileng_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D22" s="28" t="str">
+      <c r="D22" s="17" t="str">
         <f>IF(_zhileng_day_hour!B17="","",_zhileng_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="17" t="str">
         <f>IF(_zhileng_day_hour!C17="","",_zhileng_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F22" s="28" t="str">
+      <c r="F22" s="17" t="str">
         <f>IF(_zhileng_day_hour!D17="","",_zhileng_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G22" s="28" t="str">
+      <c r="G22" s="17" t="str">
         <f>IF(_zhileng_day_hour!E17="","",_zhileng_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H22" s="28" t="str">
+      <c r="H22" s="17" t="str">
         <f>IF(_zhileng_day_hour!F17="","",_zhileng_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I22" s="28" t="str">
+      <c r="I22" s="17" t="str">
         <f>IF(_zhileng_day_hour!G17="","",_zhileng_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J22" s="28" t="str">
+      <c r="J22" s="17" t="str">
         <f>IF(_zhileng_day_hour!H17="","",_zhileng_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K22" s="28" t="str">
+      <c r="K22" s="17" t="str">
         <f>IF(_zhileng_day_hour!I17="","",_zhileng_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L22" s="28" t="str">
+      <c r="L22" s="17" t="str">
         <f>IF(_zhileng_day_hour!J17="","",_zhileng_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M22" s="28" t="str">
+      <c r="M22" s="17" t="str">
         <f>IF(_zhileng_day_hour!K17="","",_zhileng_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N22" s="28" t="str">
+      <c r="N22" s="17" t="str">
         <f>IF(_zhileng_day_hour!L17="","",_zhileng_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O22" s="28" t="str">
+      <c r="O22" s="17" t="str">
         <f>IF(_zhileng_day_hour!M17="","",_zhileng_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P22" s="28" t="str">
+      <c r="P22" s="17" t="str">
         <f>IF(_zhileng_day_hour!N17="","",_zhileng_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q22" s="28" t="str">
+      <c r="Q22" s="17" t="str">
         <f>IF(_zhileng_day_hour!O17="","",_zhileng_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="17" t="str">
         <f>IF(_zhileng_day_hour!P17="","",_zhileng_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S22" s="28" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q17="","",_zhileng_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T22" s="28" t="str">
+      <c r="T22" s="17" t="str">
         <f>IF(_zhileng_day_hour!R17="","",_zhileng_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U22" s="28" t="str">
+      <c r="U22" s="17" t="str">
         <f>IF(_zhileng_day_hour!S17="","",_zhileng_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V22" s="28" t="str">
+      <c r="V22" s="17" t="str">
         <f>IF(_zhileng_day_hour!T17="","",_zhileng_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W22" s="28" t="str">
+      <c r="W22" s="17" t="str">
         <f>IF(_zhileng_day_hour!U17="","",_zhileng_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X22" s="28" t="str">
+      <c r="X22" s="17" t="str">
         <f>IF(_zhileng_day_hour!V17="","",_zhileng_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y22" s="28" t="str">
+      <c r="Y22" s="17" t="str">
         <f>IF(_zhileng_day_hour!W17="","",_zhileng_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z22" s="28" t="str">
+      <c r="Z22" s="17" t="str">
         <f>IF(_zhileng_day_hour!X17="","",_zhileng_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA22" s="28" t="str">
+      <c r="AA22" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y17="","",_zhileng_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB22" s="28" t="str">
+      <c r="AB22" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z17="","",_zhileng_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC22" s="28" t="str">
+      <c r="AC22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA17="","",_zhileng_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD22" s="28" t="str">
+      <c r="AD22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB17="","",_zhileng_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE22" s="28" t="str">
+      <c r="AE22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC17="","",_zhileng_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF22" s="28" t="str">
+      <c r="AF22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD17="","",_zhileng_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG22" s="28" t="str">
+      <c r="AG22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE17="","",_zhileng_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH22" s="28" t="str">
+      <c r="AH22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF17="","",_zhileng_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI22" s="28" t="str">
+      <c r="AI22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG17="","",_zhileng_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ22" s="28" t="str">
+      <c r="AJ22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH17="","",_zhileng_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK22" s="28" t="str">
+      <c r="AK22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI17="","",_zhileng_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL22" s="28" t="str">
+      <c r="AL22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ17="","",_zhileng_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM22" s="28" t="str">
+      <c r="AM22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK17="","",_zhileng_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN22" s="28" t="str">
+      <c r="AN22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL17="","",_zhileng_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO22" s="28" t="str">
+      <c r="AO22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM17="","",_zhileng_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP22" s="28" t="str">
+      <c r="AP22" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN17="","",_zhileng_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ22" s="75" t="str">
+      <c r="AQ22" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO17="","",_zhileng_day_hour!AO17)</f>
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="2:43">
-      <c r="B23" s="27">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C23" s="28" t="str">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B23" s="16">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C23" s="17" t="str">
         <f>IF(_zhileng_day_hour!A18="","",_zhileng_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D23" s="28" t="str">
+      <c r="D23" s="17" t="str">
         <f>IF(_zhileng_day_hour!B18="","",_zhileng_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="17" t="str">
         <f>IF(_zhileng_day_hour!C18="","",_zhileng_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F23" s="28" t="str">
+      <c r="F23" s="17" t="str">
         <f>IF(_zhileng_day_hour!D18="","",_zhileng_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G23" s="28" t="str">
+      <c r="G23" s="17" t="str">
         <f>IF(_zhileng_day_hour!E18="","",_zhileng_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H23" s="28" t="str">
+      <c r="H23" s="17" t="str">
         <f>IF(_zhileng_day_hour!F18="","",_zhileng_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I23" s="28" t="str">
+      <c r="I23" s="17" t="str">
         <f>IF(_zhileng_day_hour!G18="","",_zhileng_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J23" s="28" t="str">
+      <c r="J23" s="17" t="str">
         <f>IF(_zhileng_day_hour!H18="","",_zhileng_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K23" s="28" t="str">
+      <c r="K23" s="17" t="str">
         <f>IF(_zhileng_day_hour!I18="","",_zhileng_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L23" s="28" t="str">
+      <c r="L23" s="17" t="str">
         <f>IF(_zhileng_day_hour!J18="","",_zhileng_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M23" s="28" t="str">
+      <c r="M23" s="17" t="str">
         <f>IF(_zhileng_day_hour!K18="","",_zhileng_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N23" s="28" t="str">
+      <c r="N23" s="17" t="str">
         <f>IF(_zhileng_day_hour!L18="","",_zhileng_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O23" s="28" t="str">
+      <c r="O23" s="17" t="str">
         <f>IF(_zhileng_day_hour!M18="","",_zhileng_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P23" s="28" t="str">
+      <c r="P23" s="17" t="str">
         <f>IF(_zhileng_day_hour!N18="","",_zhileng_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q23" s="28" t="str">
+      <c r="Q23" s="17" t="str">
         <f>IF(_zhileng_day_hour!O18="","",_zhileng_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="17" t="str">
         <f>IF(_zhileng_day_hour!P18="","",_zhileng_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S23" s="28" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q18="","",_zhileng_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T23" s="28" t="str">
+      <c r="T23" s="17" t="str">
         <f>IF(_zhileng_day_hour!R18="","",_zhileng_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U23" s="28" t="str">
+      <c r="U23" s="17" t="str">
         <f>IF(_zhileng_day_hour!S18="","",_zhileng_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V23" s="28" t="str">
+      <c r="V23" s="17" t="str">
         <f>IF(_zhileng_day_hour!T18="","",_zhileng_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W23" s="28" t="str">
+      <c r="W23" s="17" t="str">
         <f>IF(_zhileng_day_hour!U18="","",_zhileng_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X23" s="28" t="str">
+      <c r="X23" s="17" t="str">
         <f>IF(_zhileng_day_hour!V18="","",_zhileng_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y23" s="28" t="str">
+      <c r="Y23" s="17" t="str">
         <f>IF(_zhileng_day_hour!W18="","",_zhileng_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z23" s="28" t="str">
+      <c r="Z23" s="17" t="str">
         <f>IF(_zhileng_day_hour!X18="","",_zhileng_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA23" s="28" t="str">
+      <c r="AA23" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y18="","",_zhileng_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB23" s="28" t="str">
+      <c r="AB23" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z18="","",_zhileng_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC23" s="28" t="str">
+      <c r="AC23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA18="","",_zhileng_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD23" s="28" t="str">
+      <c r="AD23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB18="","",_zhileng_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE23" s="28" t="str">
+      <c r="AE23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC18="","",_zhileng_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF23" s="28" t="str">
+      <c r="AF23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD18="","",_zhileng_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG23" s="28" t="str">
+      <c r="AG23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE18="","",_zhileng_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH23" s="28" t="str">
+      <c r="AH23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF18="","",_zhileng_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI23" s="28" t="str">
+      <c r="AI23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG18="","",_zhileng_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ23" s="28" t="str">
+      <c r="AJ23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH18="","",_zhileng_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK23" s="28" t="str">
+      <c r="AK23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI18="","",_zhileng_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL23" s="28" t="str">
+      <c r="AL23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ18="","",_zhileng_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM23" s="28" t="str">
+      <c r="AM23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK18="","",_zhileng_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN23" s="28" t="str">
+      <c r="AN23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL18="","",_zhileng_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO23" s="28" t="str">
+      <c r="AO23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM18="","",_zhileng_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP23" s="28" t="str">
+      <c r="AP23" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN18="","",_zhileng_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ23" s="75" t="str">
+      <c r="AQ23" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO18="","",_zhileng_day_hour!AO18)</f>
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="2:43">
-      <c r="B24" s="27">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C24" s="28" t="str">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B24" s="16">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C24" s="17" t="str">
         <f>IF(_zhileng_day_hour!A19="","",_zhileng_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D24" s="28" t="str">
+      <c r="D24" s="17" t="str">
         <f>IF(_zhileng_day_hour!B19="","",_zhileng_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="17" t="str">
         <f>IF(_zhileng_day_hour!C19="","",_zhileng_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F24" s="28" t="str">
+      <c r="F24" s="17" t="str">
         <f>IF(_zhileng_day_hour!D19="","",_zhileng_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G24" s="28" t="str">
+      <c r="G24" s="17" t="str">
         <f>IF(_zhileng_day_hour!E19="","",_zhileng_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H24" s="28" t="str">
+      <c r="H24" s="17" t="str">
         <f>IF(_zhileng_day_hour!F19="","",_zhileng_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I24" s="28" t="str">
+      <c r="I24" s="17" t="str">
         <f>IF(_zhileng_day_hour!G19="","",_zhileng_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J24" s="28" t="str">
+      <c r="J24" s="17" t="str">
         <f>IF(_zhileng_day_hour!H19="","",_zhileng_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K24" s="28" t="str">
+      <c r="K24" s="17" t="str">
         <f>IF(_zhileng_day_hour!I19="","",_zhileng_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L24" s="28" t="str">
+      <c r="L24" s="17" t="str">
         <f>IF(_zhileng_day_hour!J19="","",_zhileng_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M24" s="28" t="str">
+      <c r="M24" s="17" t="str">
         <f>IF(_zhileng_day_hour!K19="","",_zhileng_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N24" s="28" t="str">
+      <c r="N24" s="17" t="str">
         <f>IF(_zhileng_day_hour!L19="","",_zhileng_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O24" s="28" t="str">
+      <c r="O24" s="17" t="str">
         <f>IF(_zhileng_day_hour!M19="","",_zhileng_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="17" t="str">
         <f>IF(_zhileng_day_hour!N19="","",_zhileng_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="17" t="str">
         <f>IF(_zhileng_day_hour!O19="","",_zhileng_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="17" t="str">
         <f>IF(_zhileng_day_hour!P19="","",_zhileng_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S24" s="28" t="str">
+      <c r="S24" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q19="","",_zhileng_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T24" s="28" t="str">
+      <c r="T24" s="17" t="str">
         <f>IF(_zhileng_day_hour!R19="","",_zhileng_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U24" s="28" t="str">
+      <c r="U24" s="17" t="str">
         <f>IF(_zhileng_day_hour!S19="","",_zhileng_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V24" s="28" t="str">
+      <c r="V24" s="17" t="str">
         <f>IF(_zhileng_day_hour!T19="","",_zhileng_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W24" s="28" t="str">
+      <c r="W24" s="17" t="str">
         <f>IF(_zhileng_day_hour!U19="","",_zhileng_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X24" s="28" t="str">
+      <c r="X24" s="17" t="str">
         <f>IF(_zhileng_day_hour!V19="","",_zhileng_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y24" s="28" t="str">
+      <c r="Y24" s="17" t="str">
         <f>IF(_zhileng_day_hour!W19="","",_zhileng_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z24" s="28" t="str">
+      <c r="Z24" s="17" t="str">
         <f>IF(_zhileng_day_hour!X19="","",_zhileng_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA24" s="28" t="str">
+      <c r="AA24" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y19="","",_zhileng_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB24" s="28" t="str">
+      <c r="AB24" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z19="","",_zhileng_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC24" s="28" t="str">
+      <c r="AC24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA19="","",_zhileng_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD24" s="28" t="str">
+      <c r="AD24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB19="","",_zhileng_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE24" s="28" t="str">
+      <c r="AE24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC19="","",_zhileng_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF24" s="28" t="str">
+      <c r="AF24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD19="","",_zhileng_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG24" s="28" t="str">
+      <c r="AG24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE19="","",_zhileng_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH24" s="28" t="str">
+      <c r="AH24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF19="","",_zhileng_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI24" s="28" t="str">
+      <c r="AI24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG19="","",_zhileng_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ24" s="28" t="str">
+      <c r="AJ24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH19="","",_zhileng_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK24" s="28" t="str">
+      <c r="AK24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI19="","",_zhileng_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL24" s="28" t="str">
+      <c r="AL24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ19="","",_zhileng_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM24" s="28" t="str">
+      <c r="AM24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK19="","",_zhileng_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN24" s="28" t="str">
+      <c r="AN24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL19="","",_zhileng_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO24" s="28" t="str">
+      <c r="AO24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM19="","",_zhileng_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP24" s="28" t="str">
+      <c r="AP24" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN19="","",_zhileng_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ24" s="75" t="str">
+      <c r="AQ24" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO19="","",_zhileng_day_hour!AO19)</f>
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="2:43">
-      <c r="B25" s="27">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B25" s="16">
         <v>0.75</v>
       </c>
-      <c r="C25" s="28" t="str">
+      <c r="C25" s="17" t="str">
         <f>IF(_zhileng_day_hour!A20="","",_zhileng_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D25" s="28" t="str">
+      <c r="D25" s="17" t="str">
         <f>IF(_zhileng_day_hour!B20="","",_zhileng_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="17" t="str">
         <f>IF(_zhileng_day_hour!C20="","",_zhileng_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F25" s="28" t="str">
+      <c r="F25" s="17" t="str">
         <f>IF(_zhileng_day_hour!D20="","",_zhileng_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G25" s="28" t="str">
+      <c r="G25" s="17" t="str">
         <f>IF(_zhileng_day_hour!E20="","",_zhileng_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H25" s="28" t="str">
+      <c r="H25" s="17" t="str">
         <f>IF(_zhileng_day_hour!F20="","",_zhileng_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I25" s="28" t="str">
+      <c r="I25" s="17" t="str">
         <f>IF(_zhileng_day_hour!G20="","",_zhileng_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J25" s="28" t="str">
+      <c r="J25" s="17" t="str">
         <f>IF(_zhileng_day_hour!H20="","",_zhileng_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K25" s="28" t="str">
+      <c r="K25" s="17" t="str">
         <f>IF(_zhileng_day_hour!I20="","",_zhileng_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L25" s="28" t="str">
+      <c r="L25" s="17" t="str">
         <f>IF(_zhileng_day_hour!J20="","",_zhileng_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M25" s="28" t="str">
+      <c r="M25" s="17" t="str">
         <f>IF(_zhileng_day_hour!K20="","",_zhileng_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N25" s="28" t="str">
+      <c r="N25" s="17" t="str">
         <f>IF(_zhileng_day_hour!L20="","",_zhileng_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O25" s="28" t="str">
+      <c r="O25" s="17" t="str">
         <f>IF(_zhileng_day_hour!M20="","",_zhileng_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P25" s="28" t="str">
+      <c r="P25" s="17" t="str">
         <f>IF(_zhileng_day_hour!N20="","",_zhileng_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q25" s="28" t="str">
+      <c r="Q25" s="17" t="str">
         <f>IF(_zhileng_day_hour!O20="","",_zhileng_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R25" s="17" t="str">
         <f>IF(_zhileng_day_hour!P20="","",_zhileng_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S25" s="28" t="str">
+      <c r="S25" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q20="","",_zhileng_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T25" s="28" t="str">
+      <c r="T25" s="17" t="str">
         <f>IF(_zhileng_day_hour!R20="","",_zhileng_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U25" s="28" t="str">
+      <c r="U25" s="17" t="str">
         <f>IF(_zhileng_day_hour!S20="","",_zhileng_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V25" s="28" t="str">
+      <c r="V25" s="17" t="str">
         <f>IF(_zhileng_day_hour!T20="","",_zhileng_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W25" s="28" t="str">
+      <c r="W25" s="17" t="str">
         <f>IF(_zhileng_day_hour!U20="","",_zhileng_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X25" s="28" t="str">
+      <c r="X25" s="17" t="str">
         <f>IF(_zhileng_day_hour!V20="","",_zhileng_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y25" s="28" t="str">
+      <c r="Y25" s="17" t="str">
         <f>IF(_zhileng_day_hour!W20="","",_zhileng_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z25" s="28" t="str">
+      <c r="Z25" s="17" t="str">
         <f>IF(_zhileng_day_hour!X20="","",_zhileng_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA25" s="28" t="str">
+      <c r="AA25" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y20="","",_zhileng_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB25" s="28" t="str">
+      <c r="AB25" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z20="","",_zhileng_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC25" s="28" t="str">
+      <c r="AC25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA20="","",_zhileng_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD25" s="28" t="str">
+      <c r="AD25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB20="","",_zhileng_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE25" s="28" t="str">
+      <c r="AE25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC20="","",_zhileng_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF25" s="28" t="str">
+      <c r="AF25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD20="","",_zhileng_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG25" s="28" t="str">
+      <c r="AG25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE20="","",_zhileng_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH25" s="28" t="str">
+      <c r="AH25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF20="","",_zhileng_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI25" s="28" t="str">
+      <c r="AI25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG20="","",_zhileng_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ25" s="28" t="str">
+      <c r="AJ25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH20="","",_zhileng_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK25" s="28" t="str">
+      <c r="AK25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI20="","",_zhileng_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL25" s="28" t="str">
+      <c r="AL25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ20="","",_zhileng_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM25" s="28" t="str">
+      <c r="AM25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK20="","",_zhileng_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN25" s="28" t="str">
+      <c r="AN25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL20="","",_zhileng_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO25" s="28" t="str">
+      <c r="AO25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM20="","",_zhileng_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP25" s="28" t="str">
+      <c r="AP25" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN20="","",_zhileng_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ25" s="75" t="str">
+      <c r="AQ25" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO20="","",_zhileng_day_hour!AO20)</f>
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="2:43">
-      <c r="B26" s="27">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C26" s="28" t="str">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B26" s="16">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C26" s="17" t="str">
         <f>IF(_zhileng_day_hour!A21="","",_zhileng_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D26" s="28" t="str">
+      <c r="D26" s="17" t="str">
         <f>IF(_zhileng_day_hour!B21="","",_zhileng_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="17" t="str">
         <f>IF(_zhileng_day_hour!C21="","",_zhileng_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F26" s="28" t="str">
+      <c r="F26" s="17" t="str">
         <f>IF(_zhileng_day_hour!D21="","",_zhileng_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G26" s="28" t="str">
+      <c r="G26" s="17" t="str">
         <f>IF(_zhileng_day_hour!E21="","",_zhileng_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H26" s="28" t="str">
+      <c r="H26" s="17" t="str">
         <f>IF(_zhileng_day_hour!F21="","",_zhileng_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I26" s="28" t="str">
+      <c r="I26" s="17" t="str">
         <f>IF(_zhileng_day_hour!G21="","",_zhileng_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J26" s="28" t="str">
+      <c r="J26" s="17" t="str">
         <f>IF(_zhileng_day_hour!H21="","",_zhileng_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K26" s="28" t="str">
+      <c r="K26" s="17" t="str">
         <f>IF(_zhileng_day_hour!I21="","",_zhileng_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L26" s="28" t="str">
+      <c r="L26" s="17" t="str">
         <f>IF(_zhileng_day_hour!J21="","",_zhileng_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M26" s="28" t="str">
+      <c r="M26" s="17" t="str">
         <f>IF(_zhileng_day_hour!K21="","",_zhileng_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N26" s="28" t="str">
+      <c r="N26" s="17" t="str">
         <f>IF(_zhileng_day_hour!L21="","",_zhileng_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O26" s="28" t="str">
+      <c r="O26" s="17" t="str">
         <f>IF(_zhileng_day_hour!M21="","",_zhileng_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P26" s="28" t="str">
+      <c r="P26" s="17" t="str">
         <f>IF(_zhileng_day_hour!N21="","",_zhileng_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q26" s="28" t="str">
+      <c r="Q26" s="17" t="str">
         <f>IF(_zhileng_day_hour!O21="","",_zhileng_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R26" s="17" t="str">
         <f>IF(_zhileng_day_hour!P21="","",_zhileng_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S26" s="28" t="str">
+      <c r="S26" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q21="","",_zhileng_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T26" s="28" t="str">
+      <c r="T26" s="17" t="str">
         <f>IF(_zhileng_day_hour!R21="","",_zhileng_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U26" s="28" t="str">
+      <c r="U26" s="17" t="str">
         <f>IF(_zhileng_day_hour!S21="","",_zhileng_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V26" s="28" t="str">
+      <c r="V26" s="17" t="str">
         <f>IF(_zhileng_day_hour!T21="","",_zhileng_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W26" s="28" t="str">
+      <c r="W26" s="17" t="str">
         <f>IF(_zhileng_day_hour!U21="","",_zhileng_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X26" s="28" t="str">
+      <c r="X26" s="17" t="str">
         <f>IF(_zhileng_day_hour!V21="","",_zhileng_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y26" s="28" t="str">
+      <c r="Y26" s="17" t="str">
         <f>IF(_zhileng_day_hour!W21="","",_zhileng_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z26" s="28" t="str">
+      <c r="Z26" s="17" t="str">
         <f>IF(_zhileng_day_hour!X21="","",_zhileng_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA26" s="28" t="str">
+      <c r="AA26" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y21="","",_zhileng_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB26" s="28" t="str">
+      <c r="AB26" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z21="","",_zhileng_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC26" s="28" t="str">
+      <c r="AC26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA21="","",_zhileng_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD26" s="28" t="str">
+      <c r="AD26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB21="","",_zhileng_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE26" s="28" t="str">
+      <c r="AE26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC21="","",_zhileng_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF26" s="28" t="str">
+      <c r="AF26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD21="","",_zhileng_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG26" s="28" t="str">
+      <c r="AG26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE21="","",_zhileng_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH26" s="28" t="str">
+      <c r="AH26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF21="","",_zhileng_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI26" s="28" t="str">
+      <c r="AI26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG21="","",_zhileng_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ26" s="28" t="str">
+      <c r="AJ26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH21="","",_zhileng_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK26" s="28" t="str">
+      <c r="AK26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI21="","",_zhileng_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL26" s="28" t="str">
+      <c r="AL26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ21="","",_zhileng_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM26" s="28" t="str">
+      <c r="AM26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK21="","",_zhileng_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN26" s="28" t="str">
+      <c r="AN26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL21="","",_zhileng_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO26" s="28" t="str">
+      <c r="AO26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM21="","",_zhileng_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP26" s="28" t="str">
+      <c r="AP26" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN21="","",_zhileng_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ26" s="75" t="str">
+      <c r="AQ26" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO21="","",_zhileng_day_hour!AO21)</f>
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="2:43">
-      <c r="B27" s="27">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C27" s="28" t="str">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B27" s="16">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C27" s="17" t="str">
         <f>IF(_zhileng_day_hour!A22="","",_zhileng_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D27" s="28" t="str">
+      <c r="D27" s="17" t="str">
         <f>IF(_zhileng_day_hour!B22="","",_zhileng_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="17" t="str">
         <f>IF(_zhileng_day_hour!C22="","",_zhileng_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F27" s="28" t="str">
+      <c r="F27" s="17" t="str">
         <f>IF(_zhileng_day_hour!D22="","",_zhileng_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G27" s="28" t="str">
+      <c r="G27" s="17" t="str">
         <f>IF(_zhileng_day_hour!E22="","",_zhileng_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H27" s="28" t="str">
+      <c r="H27" s="17" t="str">
         <f>IF(_zhileng_day_hour!F22="","",_zhileng_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I27" s="28" t="str">
+      <c r="I27" s="17" t="str">
         <f>IF(_zhileng_day_hour!G22="","",_zhileng_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J27" s="28" t="str">
+      <c r="J27" s="17" t="str">
         <f>IF(_zhileng_day_hour!H22="","",_zhileng_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K27" s="28" t="str">
+      <c r="K27" s="17" t="str">
         <f>IF(_zhileng_day_hour!I22="","",_zhileng_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L27" s="28" t="str">
+      <c r="L27" s="17" t="str">
         <f>IF(_zhileng_day_hour!J22="","",_zhileng_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M27" s="28" t="str">
+      <c r="M27" s="17" t="str">
         <f>IF(_zhileng_day_hour!K22="","",_zhileng_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N27" s="28" t="str">
+      <c r="N27" s="17" t="str">
         <f>IF(_zhileng_day_hour!L22="","",_zhileng_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O27" s="28" t="str">
+      <c r="O27" s="17" t="str">
         <f>IF(_zhileng_day_hour!M22="","",_zhileng_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P27" s="28" t="str">
+      <c r="P27" s="17" t="str">
         <f>IF(_zhileng_day_hour!N22="","",_zhileng_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q27" s="28" t="str">
+      <c r="Q27" s="17" t="str">
         <f>IF(_zhileng_day_hour!O22="","",_zhileng_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R27" s="17" t="str">
         <f>IF(_zhileng_day_hour!P22="","",_zhileng_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S27" s="28" t="str">
+      <c r="S27" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q22="","",_zhileng_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T27" s="28" t="str">
+      <c r="T27" s="17" t="str">
         <f>IF(_zhileng_day_hour!R22="","",_zhileng_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U27" s="28" t="str">
+      <c r="U27" s="17" t="str">
         <f>IF(_zhileng_day_hour!S22="","",_zhileng_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V27" s="28" t="str">
+      <c r="V27" s="17" t="str">
         <f>IF(_zhileng_day_hour!T22="","",_zhileng_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W27" s="28" t="str">
+      <c r="W27" s="17" t="str">
         <f>IF(_zhileng_day_hour!U22="","",_zhileng_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X27" s="28" t="str">
+      <c r="X27" s="17" t="str">
         <f>IF(_zhileng_day_hour!V22="","",_zhileng_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y27" s="28" t="str">
+      <c r="Y27" s="17" t="str">
         <f>IF(_zhileng_day_hour!W22="","",_zhileng_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z27" s="28" t="str">
+      <c r="Z27" s="17" t="str">
         <f>IF(_zhileng_day_hour!X22="","",_zhileng_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA27" s="28" t="str">
+      <c r="AA27" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y22="","",_zhileng_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB27" s="28" t="str">
+      <c r="AB27" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z22="","",_zhileng_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC27" s="28" t="str">
+      <c r="AC27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA22="","",_zhileng_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD27" s="28" t="str">
+      <c r="AD27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB22="","",_zhileng_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE27" s="28" t="str">
+      <c r="AE27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC22="","",_zhileng_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF27" s="28" t="str">
+      <c r="AF27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD22="","",_zhileng_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG27" s="28" t="str">
+      <c r="AG27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE22="","",_zhileng_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH27" s="28" t="str">
+      <c r="AH27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF22="","",_zhileng_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI27" s="28" t="str">
+      <c r="AI27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG22="","",_zhileng_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ27" s="28" t="str">
+      <c r="AJ27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH22="","",_zhileng_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK27" s="28" t="str">
+      <c r="AK27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI22="","",_zhileng_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL27" s="28" t="str">
+      <c r="AL27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ22="","",_zhileng_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM27" s="28" t="str">
+      <c r="AM27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK22="","",_zhileng_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN27" s="28" t="str">
+      <c r="AN27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL22="","",_zhileng_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO27" s="28" t="str">
+      <c r="AO27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM22="","",_zhileng_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP27" s="28" t="str">
+      <c r="AP27" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN22="","",_zhileng_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ27" s="75" t="str">
+      <c r="AQ27" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO22="","",_zhileng_day_hour!AO22)</f>
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="2:43">
-      <c r="B28" s="27">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B28" s="16">
         <v>0.875</v>
       </c>
-      <c r="C28" s="28" t="str">
+      <c r="C28" s="17" t="str">
         <f>IF(_zhileng_day_hour!A23="","",_zhileng_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D28" s="28" t="str">
+      <c r="D28" s="17" t="str">
         <f>IF(_zhileng_day_hour!B23="","",_zhileng_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="17" t="str">
         <f>IF(_zhileng_day_hour!C23="","",_zhileng_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F28" s="28" t="str">
+      <c r="F28" s="17" t="str">
         <f>IF(_zhileng_day_hour!D23="","",_zhileng_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="17" t="str">
         <f>IF(_zhileng_day_hour!E23="","",_zhileng_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H28" s="28" t="str">
+      <c r="H28" s="17" t="str">
         <f>IF(_zhileng_day_hour!F23="","",_zhileng_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I28" s="28" t="str">
+      <c r="I28" s="17" t="str">
         <f>IF(_zhileng_day_hour!G23="","",_zhileng_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J28" s="28" t="str">
+      <c r="J28" s="17" t="str">
         <f>IF(_zhileng_day_hour!H23="","",_zhileng_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K28" s="28" t="str">
+      <c r="K28" s="17" t="str">
         <f>IF(_zhileng_day_hour!I23="","",_zhileng_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L28" s="28" t="str">
+      <c r="L28" s="17" t="str">
         <f>IF(_zhileng_day_hour!J23="","",_zhileng_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M28" s="28" t="str">
+      <c r="M28" s="17" t="str">
         <f>IF(_zhileng_day_hour!K23="","",_zhileng_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N28" s="28" t="str">
+      <c r="N28" s="17" t="str">
         <f>IF(_zhileng_day_hour!L23="","",_zhileng_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O28" s="28" t="str">
+      <c r="O28" s="17" t="str">
         <f>IF(_zhileng_day_hour!M23="","",_zhileng_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P28" s="28" t="str">
+      <c r="P28" s="17" t="str">
         <f>IF(_zhileng_day_hour!N23="","",_zhileng_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="17" t="str">
         <f>IF(_zhileng_day_hour!O23="","",_zhileng_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R28" s="28" t="str">
+      <c r="R28" s="17" t="str">
         <f>IF(_zhileng_day_hour!P23="","",_zhileng_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S28" s="28" t="str">
+      <c r="S28" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q23="","",_zhileng_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T28" s="28" t="str">
+      <c r="T28" s="17" t="str">
         <f>IF(_zhileng_day_hour!R23="","",_zhileng_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U28" s="28" t="str">
+      <c r="U28" s="17" t="str">
         <f>IF(_zhileng_day_hour!S23="","",_zhileng_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V28" s="28" t="str">
+      <c r="V28" s="17" t="str">
         <f>IF(_zhileng_day_hour!T23="","",_zhileng_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W28" s="28" t="str">
+      <c r="W28" s="17" t="str">
         <f>IF(_zhileng_day_hour!U23="","",_zhileng_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X28" s="28" t="str">
+      <c r="X28" s="17" t="str">
         <f>IF(_zhileng_day_hour!V23="","",_zhileng_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y28" s="28" t="str">
+      <c r="Y28" s="17" t="str">
         <f>IF(_zhileng_day_hour!W23="","",_zhileng_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z28" s="28" t="str">
+      <c r="Z28" s="17" t="str">
         <f>IF(_zhileng_day_hour!X23="","",_zhileng_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA28" s="28" t="str">
+      <c r="AA28" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y23="","",_zhileng_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB28" s="28" t="str">
+      <c r="AB28" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z23="","",_zhileng_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC28" s="28" t="str">
+      <c r="AC28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA23="","",_zhileng_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD28" s="28" t="str">
+      <c r="AD28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB23="","",_zhileng_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE28" s="28" t="str">
+      <c r="AE28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC23="","",_zhileng_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF28" s="28" t="str">
+      <c r="AF28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD23="","",_zhileng_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG28" s="28" t="str">
+      <c r="AG28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE23="","",_zhileng_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH28" s="28" t="str">
+      <c r="AH28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF23="","",_zhileng_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI28" s="28" t="str">
+      <c r="AI28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG23="","",_zhileng_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ28" s="28" t="str">
+      <c r="AJ28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH23="","",_zhileng_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK28" s="28" t="str">
+      <c r="AK28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI23="","",_zhileng_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL28" s="28" t="str">
+      <c r="AL28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ23="","",_zhileng_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM28" s="28" t="str">
+      <c r="AM28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK23="","",_zhileng_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN28" s="28" t="str">
+      <c r="AN28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL23="","",_zhileng_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO28" s="28" t="str">
+      <c r="AO28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM23="","",_zhileng_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP28" s="28" t="str">
+      <c r="AP28" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN23="","",_zhileng_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ28" s="75" t="str">
+      <c r="AQ28" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO23="","",_zhileng_day_hour!AO23)</f>
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="2:43">
-      <c r="B29" s="27">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C29" s="28" t="str">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B29" s="16">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C29" s="17" t="str">
         <f>IF(_zhileng_day_hour!A24="","",_zhileng_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D29" s="28" t="str">
+      <c r="D29" s="17" t="str">
         <f>IF(_zhileng_day_hour!B24="","",_zhileng_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="17" t="str">
         <f>IF(_zhileng_day_hour!C24="","",_zhileng_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F29" s="28" t="str">
+      <c r="F29" s="17" t="str">
         <f>IF(_zhileng_day_hour!D24="","",_zhileng_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G29" s="28" t="str">
+      <c r="G29" s="17" t="str">
         <f>IF(_zhileng_day_hour!E24="","",_zhileng_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H29" s="28" t="str">
+      <c r="H29" s="17" t="str">
         <f>IF(_zhileng_day_hour!F24="","",_zhileng_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I29" s="28" t="str">
+      <c r="I29" s="17" t="str">
         <f>IF(_zhileng_day_hour!G24="","",_zhileng_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J29" s="28" t="str">
+      <c r="J29" s="17" t="str">
         <f>IF(_zhileng_day_hour!H24="","",_zhileng_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K29" s="28" t="str">
+      <c r="K29" s="17" t="str">
         <f>IF(_zhileng_day_hour!I24="","",_zhileng_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L29" s="28" t="str">
+      <c r="L29" s="17" t="str">
         <f>IF(_zhileng_day_hour!J24="","",_zhileng_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M29" s="28" t="str">
+      <c r="M29" s="17" t="str">
         <f>IF(_zhileng_day_hour!K24="","",_zhileng_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N29" s="28" t="str">
+      <c r="N29" s="17" t="str">
         <f>IF(_zhileng_day_hour!L24="","",_zhileng_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O29" s="28" t="str">
+      <c r="O29" s="17" t="str">
         <f>IF(_zhileng_day_hour!M24="","",_zhileng_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P29" s="28" t="str">
+      <c r="P29" s="17" t="str">
         <f>IF(_zhileng_day_hour!N24="","",_zhileng_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q29" s="28" t="str">
+      <c r="Q29" s="17" t="str">
         <f>IF(_zhileng_day_hour!O24="","",_zhileng_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R29" s="28" t="str">
+      <c r="R29" s="17" t="str">
         <f>IF(_zhileng_day_hour!P24="","",_zhileng_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S29" s="28" t="str">
+      <c r="S29" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q24="","",_zhileng_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T29" s="28" t="str">
+      <c r="T29" s="17" t="str">
         <f>IF(_zhileng_day_hour!R24="","",_zhileng_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U29" s="28" t="str">
+      <c r="U29" s="17" t="str">
         <f>IF(_zhileng_day_hour!S24="","",_zhileng_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V29" s="28" t="str">
+      <c r="V29" s="17" t="str">
         <f>IF(_zhileng_day_hour!T24="","",_zhileng_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W29" s="28" t="str">
+      <c r="W29" s="17" t="str">
         <f>IF(_zhileng_day_hour!U24="","",_zhileng_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X29" s="28" t="str">
+      <c r="X29" s="17" t="str">
         <f>IF(_zhileng_day_hour!V24="","",_zhileng_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y29" s="28" t="str">
+      <c r="Y29" s="17" t="str">
         <f>IF(_zhileng_day_hour!W24="","",_zhileng_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z29" s="28" t="str">
+      <c r="Z29" s="17" t="str">
         <f>IF(_zhileng_day_hour!X24="","",_zhileng_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA29" s="28" t="str">
+      <c r="AA29" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y24="","",_zhileng_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB29" s="28" t="str">
+      <c r="AB29" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z24="","",_zhileng_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC29" s="28" t="str">
+      <c r="AC29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA24="","",_zhileng_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD29" s="28" t="str">
+      <c r="AD29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB24="","",_zhileng_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE29" s="28" t="str">
+      <c r="AE29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC24="","",_zhileng_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF29" s="28" t="str">
+      <c r="AF29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD24="","",_zhileng_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG29" s="28" t="str">
+      <c r="AG29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE24="","",_zhileng_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH29" s="28" t="str">
+      <c r="AH29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF24="","",_zhileng_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI29" s="28" t="str">
+      <c r="AI29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG24="","",_zhileng_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ29" s="28" t="str">
+      <c r="AJ29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH24="","",_zhileng_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK29" s="28" t="str">
+      <c r="AK29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI24="","",_zhileng_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL29" s="28" t="str">
+      <c r="AL29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ24="","",_zhileng_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM29" s="28" t="str">
+      <c r="AM29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK24="","",_zhileng_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN29" s="28" t="str">
+      <c r="AN29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL24="","",_zhileng_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO29" s="28" t="str">
+      <c r="AO29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM24="","",_zhileng_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP29" s="28" t="str">
+      <c r="AP29" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN24="","",_zhileng_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ29" s="75" t="str">
+      <c r="AQ29" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO24="","",_zhileng_day_hour!AO24)</f>
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="2:43">
-      <c r="B30" s="27">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C30" s="28" t="str">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B30" s="16">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C30" s="17" t="str">
         <f>IF(_zhileng_day_hour!A25="","",_zhileng_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D30" s="28" t="str">
+      <c r="D30" s="17" t="str">
         <f>IF(_zhileng_day_hour!B25="","",_zhileng_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E30" s="28" t="str">
+      <c r="E30" s="17" t="str">
         <f>IF(_zhileng_day_hour!C25="","",_zhileng_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F30" s="28" t="str">
+      <c r="F30" s="17" t="str">
         <f>IF(_zhileng_day_hour!D25="","",_zhileng_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G30" s="28" t="str">
+      <c r="G30" s="17" t="str">
         <f>IF(_zhileng_day_hour!E25="","",_zhileng_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H30" s="28" t="str">
+      <c r="H30" s="17" t="str">
         <f>IF(_zhileng_day_hour!F25="","",_zhileng_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I30" s="28" t="str">
+      <c r="I30" s="17" t="str">
         <f>IF(_zhileng_day_hour!G25="","",_zhileng_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J30" s="28" t="str">
+      <c r="J30" s="17" t="str">
         <f>IF(_zhileng_day_hour!H25="","",_zhileng_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K30" s="28" t="str">
+      <c r="K30" s="17" t="str">
         <f>IF(_zhileng_day_hour!I25="","",_zhileng_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L30" s="28" t="str">
+      <c r="L30" s="17" t="str">
         <f>IF(_zhileng_day_hour!J25="","",_zhileng_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M30" s="28" t="str">
+      <c r="M30" s="17" t="str">
         <f>IF(_zhileng_day_hour!K25="","",_zhileng_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N30" s="28" t="str">
+      <c r="N30" s="17" t="str">
         <f>IF(_zhileng_day_hour!L25="","",_zhileng_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O30" s="28" t="str">
+      <c r="O30" s="17" t="str">
         <f>IF(_zhileng_day_hour!M25="","",_zhileng_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P30" s="28" t="str">
+      <c r="P30" s="17" t="str">
         <f>IF(_zhileng_day_hour!N25="","",_zhileng_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q30" s="28" t="str">
+      <c r="Q30" s="17" t="str">
         <f>IF(_zhileng_day_hour!O25="","",_zhileng_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R30" s="28" t="str">
+      <c r="R30" s="17" t="str">
         <f>IF(_zhileng_day_hour!P25="","",_zhileng_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S30" s="28" t="str">
+      <c r="S30" s="17" t="str">
         <f>IF(_zhileng_day_hour!Q25="","",_zhileng_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T30" s="28" t="str">
+      <c r="T30" s="17" t="str">
         <f>IF(_zhileng_day_hour!R25="","",_zhileng_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U30" s="28" t="str">
+      <c r="U30" s="17" t="str">
         <f>IF(_zhileng_day_hour!S25="","",_zhileng_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V30" s="28" t="str">
+      <c r="V30" s="17" t="str">
         <f>IF(_zhileng_day_hour!T25="","",_zhileng_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W30" s="28" t="str">
+      <c r="W30" s="17" t="str">
         <f>IF(_zhileng_day_hour!U25="","",_zhileng_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X30" s="28" t="str">
+      <c r="X30" s="17" t="str">
         <f>IF(_zhileng_day_hour!V25="","",_zhileng_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y30" s="28" t="str">
+      <c r="Y30" s="17" t="str">
         <f>IF(_zhileng_day_hour!W25="","",_zhileng_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z30" s="28" t="str">
+      <c r="Z30" s="17" t="str">
         <f>IF(_zhileng_day_hour!X25="","",_zhileng_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA30" s="28" t="str">
+      <c r="AA30" s="17" t="str">
         <f>IF(_zhileng_day_hour!Y25="","",_zhileng_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB30" s="28" t="str">
+      <c r="AB30" s="17" t="str">
         <f>IF(_zhileng_day_hour!Z25="","",_zhileng_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC30" s="28" t="str">
+      <c r="AC30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AA25="","",_zhileng_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD30" s="28" t="str">
+      <c r="AD30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AB25="","",_zhileng_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE30" s="28" t="str">
+      <c r="AE30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AC25="","",_zhileng_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF30" s="28" t="str">
+      <c r="AF30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AD25="","",_zhileng_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG30" s="28" t="str">
+      <c r="AG30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AE25="","",_zhileng_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH30" s="28" t="str">
+      <c r="AH30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AF25="","",_zhileng_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI30" s="28" t="str">
+      <c r="AI30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AG25="","",_zhileng_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ30" s="28" t="str">
+      <c r="AJ30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AH25="","",_zhileng_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK30" s="28" t="str">
+      <c r="AK30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AI25="","",_zhileng_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL30" s="28" t="str">
+      <c r="AL30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AJ25="","",_zhileng_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM30" s="28" t="str">
+      <c r="AM30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AK25="","",_zhileng_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN30" s="28" t="str">
+      <c r="AN30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AL25="","",_zhileng_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO30" s="28" t="str">
+      <c r="AO30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AM25="","",_zhileng_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP30" s="28" t="str">
+      <c r="AP30" s="17" t="str">
         <f>IF(_zhileng_day_hour!AN25="","",_zhileng_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ30" s="75" t="str">
+      <c r="AQ30" s="29" t="str">
         <f>IF(_zhileng_day_hour!AO25="","",_zhileng_day_hour!AO25)</f>
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="2:43">
-      <c r="B31" s="29" t="s">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="75"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="29"/>
     </row>
-    <row r="32" customFormat="1" spans="2:43">
-      <c r="B32" s="29" t="s">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="75"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="29"/>
     </row>
-    <row r="33" customFormat="1" spans="2:43">
-      <c r="B33" s="29" t="s">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B33" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="75"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="29"/>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="2:43">
-      <c r="B34" s="30" t="s">
+    <row r="34" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B34" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="75"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="29"/>
     </row>
-    <row r="35" customFormat="1" ht="91.5" customHeight="1" spans="2:43">
-      <c r="B35" s="32" t="s">
+    <row r="35" spans="2:43" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="32" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="32" t="s">
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="69"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="69"/>
-      <c r="AQ35" s="76"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+      <c r="AQ35" s="30"/>
     </row>
-    <row r="36" customFormat="1" ht="16.5" spans="2:43">
-      <c r="B36" s="34" t="s">
+    <row r="36" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="34" t="s">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="34" t="s">
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="70"/>
-      <c r="AJ36" s="70"/>
-      <c r="AK36" s="70"/>
-      <c r="AL36" s="70"/>
-      <c r="AM36" s="70"/>
-      <c r="AN36" s="70"/>
-      <c r="AO36" s="70"/>
-      <c r="AP36" s="70"/>
-      <c r="AQ36" s="77"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="AF3:AQ3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="M35:W35"/>
-    <mergeCell ref="X35:AH35"/>
+    <mergeCell ref="AR3:AR5"/>
     <mergeCell ref="B36:L36"/>
     <mergeCell ref="M36:W36"/>
     <mergeCell ref="X36:AH36"/>
@@ -7432,6 +6828,11 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="M35:W35"/>
+    <mergeCell ref="X35:AH35"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
@@ -7443,27 +6844,37 @@
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC3:AC5"/>
     <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="AF3:AQ3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="45" spans="1:41">
+    <row r="1" spans="1:41" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -7589,23 +7000,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2.制冷循环水（日）" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>6-7#  焦炉制冷循环水操作记录</t>
   </si>
@@ -26,7 +26,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
@@ -34,7 +34,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -50,7 +50,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产水 泵压力</t>
@@ -59,7 +58,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> MPa</t>
     </r>
@@ -91,7 +90,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>煤气净化循环水泵频率</t>
@@ -101,7 +99,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Hz</t>
     </r>
@@ -132,7 +130,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>去废水站流量</t>
@@ -141,7 +138,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -150,7 +147,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -158,7 +155,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -169,7 +166,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制冷循环水泵频率</t>
@@ -179,7 +175,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Hz</t>
     </r>
@@ -196,7 +192,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>低温水泵频率</t>
@@ -206,7 +201,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Hz</t>
     </r>
@@ -226,7 +221,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1#</t>
     </r>
@@ -234,7 +229,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>机组</t>
@@ -245,7 +239,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2#机组</t>
     </r>
@@ -255,7 +249,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3#机组</t>
     </r>
@@ -265,7 +259,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>4#</t>
     </r>
@@ -273,7 +267,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>机组</t>
@@ -290,7 +283,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷却水流量</t>
@@ -299,7 +291,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -308,7 +300,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -316,7 +308,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -326,7 +318,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>低温水流量</t>
@@ -335,7 +326,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -344,7 +335,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -352,7 +343,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -500,7 +491,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -509,7 +500,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -518,7 +508,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -528,7 +518,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -536,7 +526,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -546,7 +535,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -555,7 +543,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -565,7 +553,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -575,7 +562,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -584,7 +570,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -594,7 +580,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -603,7 +589,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -612,7 +597,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -621,7 +606,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -631,8 +615,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,25 +633,23 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -669,7 +657,6 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -677,45 +664,42 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -723,66 +707,388 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1032,6 +1338,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1288,14 +1603,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1330,193 +1887,237 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1527,7 +2128,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1541,14 +2142,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13652500" y="6861175"/>
+          <a:off x="13652500" y="6899275"/>
           <a:ext cx="4658995" cy="144145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1975,19 +2576,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="8.625"/>
     <col min="15" max="15" width="8.625"/>
@@ -1998,350 +2599,350 @@
     <col min="41" max="43" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="32" t="s">
+    <row r="1" ht="38.45" customHeight="1" spans="2:43">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
     </row>
-    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
+    <row r="2" ht="19.5" spans="2:43">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="78">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="36">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="33" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
     </row>
-    <row r="3" spans="1:44" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57" t="s">
+    <row r="3" ht="14.1" customHeight="1" spans="1:44">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="40" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="74" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="76" t="s">
+      <c r="AD3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="76" t="s">
+      <c r="AE3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="77"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="71"/>
     </row>
-    <row r="4" spans="1:44" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="43" t="s">
+    <row r="4" ht="29.1" customHeight="1" spans="1:44">
+      <c r="A4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="65" t="s">
+      <c r="O4" s="43"/>
+      <c r="P4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="70" t="s">
+      <c r="V4" s="43"/>
+      <c r="W4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="71" t="s">
+      <c r="X4" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="71" t="s">
+      <c r="Y4" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="62" t="s">
+      <c r="Z4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="62" t="s">
+      <c r="AA4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="72" t="s">
+      <c r="AB4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="46" t="s">
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="46" t="s">
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="46" t="s">
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="46" t="s">
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="77"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="71"/>
     </row>
-    <row r="5" spans="1:44" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="14" t="s">
+    <row r="5" ht="29.1" customHeight="1" spans="1:44">
+      <c r="A5" s="15"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="22" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="23" t="s">
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="65"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="24" t="s">
+      <c r="W5" s="44"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AG5" s="24" t="s">
+      <c r="AG5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AH5" s="24" t="s">
+      <c r="AH5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="24" t="s">
+      <c r="AI5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="24" t="s">
+      <c r="AJ5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="24" t="s">
+      <c r="AK5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="24" t="s">
+      <c r="AL5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AM5" s="24" t="s">
+      <c r="AM5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AN5" s="24" t="s">
+      <c r="AN5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AO5" s="24" t="s">
+      <c r="AO5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="24" t="s">
+      <c r="AP5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="27" t="s">
+      <c r="AQ5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="77"/>
+      <c r="AR5" s="71"/>
     </row>
-    <row r="6" spans="1:44" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" ht="45.6" customHeight="1" spans="1:44">
+      <c r="A6" s="15"/>
+      <c r="B6" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2467,4351 +3068,4367 @@
       <c r="AQ6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AR6" s="28"/>
+      <c r="AR6" s="74"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B7" s="16">
+    <row r="7" spans="2:43">
+      <c r="B7" s="27">
         <v>0</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="28" t="str">
         <f>IF(_zhileng_day_hour!A2="","",_zhileng_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="28" t="str">
         <f>IF(_zhileng_day_hour!B2="","",_zhileng_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="28" t="str">
         <f>IF(_zhileng_day_hour!C2="","",_zhileng_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="28" t="str">
         <f>IF(_zhileng_day_hour!D2="","",_zhileng_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="28" t="str">
         <f>IF(_zhileng_day_hour!E2="","",_zhileng_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H7" s="17" t="str">
+      <c r="H7" s="28" t="str">
         <f>IF(_zhileng_day_hour!F2="","",_zhileng_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I7" s="17" t="str">
+      <c r="I7" s="28" t="str">
         <f>IF(_zhileng_day_hour!G2="","",_zhileng_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J7" s="17" t="str">
+      <c r="J7" s="28" t="str">
         <f>IF(_zhileng_day_hour!H2="","",_zhileng_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K7" s="17" t="str">
+      <c r="K7" s="28" t="str">
         <f>IF(_zhileng_day_hour!I2="","",_zhileng_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="28" t="str">
         <f>IF(_zhileng_day_hour!J2="","",_zhileng_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M7" s="17" t="str">
+      <c r="M7" s="28" t="str">
         <f>IF(_zhileng_day_hour!K2="","",_zhileng_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="28" t="str">
         <f>IF(_zhileng_day_hour!L2="","",_zhileng_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O7" s="17" t="str">
+      <c r="O7" s="28" t="str">
         <f>IF(_zhileng_day_hour!M2="","",_zhileng_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P7" s="17" t="str">
+      <c r="P7" s="28" t="str">
         <f>IF(_zhileng_day_hour!N2="","",_zhileng_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q7" s="17" t="str">
+      <c r="Q7" s="28" t="str">
         <f>IF(_zhileng_day_hour!O2="","",_zhileng_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R7" s="17" t="str">
+      <c r="R7" s="28" t="str">
         <f>IF(_zhileng_day_hour!P2="","",_zhileng_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S7" s="17" t="str">
+      <c r="S7" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q2="","",_zhileng_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T7" s="17" t="str">
+      <c r="T7" s="28" t="str">
         <f>IF(_zhileng_day_hour!R2="","",_zhileng_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U7" s="17" t="str">
+      <c r="U7" s="28" t="str">
         <f>IF(_zhileng_day_hour!S2="","",_zhileng_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V7" s="17" t="str">
+      <c r="V7" s="28" t="str">
         <f>IF(_zhileng_day_hour!T2="","",_zhileng_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W7" s="17" t="str">
+      <c r="W7" s="28" t="str">
         <f>IF(_zhileng_day_hour!U2="","",_zhileng_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X7" s="17" t="str">
+      <c r="X7" s="28" t="str">
         <f>IF(_zhileng_day_hour!V2="","",_zhileng_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y7" s="17" t="str">
+      <c r="Y7" s="28" t="str">
         <f>IF(_zhileng_day_hour!W2="","",_zhileng_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z7" s="17" t="str">
+      <c r="Z7" s="28" t="str">
         <f>IF(_zhileng_day_hour!X2="","",_zhileng_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA7" s="17" t="str">
+      <c r="AA7" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y2="","",_zhileng_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB7" s="17" t="str">
+      <c r="AB7" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z2="","",_zhileng_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC7" s="17" t="str">
+      <c r="AC7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA2="","",_zhileng_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD7" s="17" t="str">
+      <c r="AD7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB2="","",_zhileng_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE7" s="17" t="str">
+      <c r="AE7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC2="","",_zhileng_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF7" s="17" t="str">
+      <c r="AF7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD2="","",_zhileng_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG7" s="17" t="str">
+      <c r="AG7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE2="","",_zhileng_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH7" s="17" t="str">
+      <c r="AH7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF2="","",_zhileng_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI7" s="17" t="str">
+      <c r="AI7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG2="","",_zhileng_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ7" s="17" t="str">
+      <c r="AJ7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH2="","",_zhileng_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK7" s="17" t="str">
+      <c r="AK7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI2="","",_zhileng_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL7" s="17" t="str">
+      <c r="AL7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ2="","",_zhileng_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM7" s="17" t="str">
+      <c r="AM7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK2="","",_zhileng_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN7" s="17" t="str">
+      <c r="AN7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL2="","",_zhileng_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO7" s="17" t="str">
+      <c r="AO7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM2="","",_zhileng_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP7" s="17" t="str">
+      <c r="AP7" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN2="","",_zhileng_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ7" s="29" t="str">
+      <c r="AQ7" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO2="","",_zhileng_day_hour!AO2)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B8" s="16">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C8" s="17" t="str">
+    <row r="8" spans="2:43">
+      <c r="B8" s="27">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C8" s="28" t="str">
         <f>IF(_zhileng_day_hour!A3="","",_zhileng_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="28" t="str">
         <f>IF(_zhileng_day_hour!B3="","",_zhileng_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="28" t="str">
         <f>IF(_zhileng_day_hour!C3="","",_zhileng_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="28" t="str">
         <f>IF(_zhileng_day_hour!D3="","",_zhileng_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="28" t="str">
         <f>IF(_zhileng_day_hour!E3="","",_zhileng_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H8" s="17" t="str">
+      <c r="H8" s="28" t="str">
         <f>IF(_zhileng_day_hour!F3="","",_zhileng_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I8" s="17" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(_zhileng_day_hour!G3="","",_zhileng_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J8" s="17" t="str">
+      <c r="J8" s="28" t="str">
         <f>IF(_zhileng_day_hour!H3="","",_zhileng_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="28" t="str">
         <f>IF(_zhileng_day_hour!I3="","",_zhileng_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="28" t="str">
         <f>IF(_zhileng_day_hour!J3="","",_zhileng_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="28" t="str">
         <f>IF(_zhileng_day_hour!K3="","",_zhileng_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="28" t="str">
         <f>IF(_zhileng_day_hour!L3="","",_zhileng_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="28" t="str">
         <f>IF(_zhileng_day_hour!M3="","",_zhileng_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="28" t="str">
         <f>IF(_zhileng_day_hour!N3="","",_zhileng_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="28" t="str">
         <f>IF(_zhileng_day_hour!O3="","",_zhileng_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="28" t="str">
         <f>IF(_zhileng_day_hour!P3="","",_zhileng_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="S8" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q3="","",_zhileng_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="T8" s="28" t="str">
         <f>IF(_zhileng_day_hour!R3="","",_zhileng_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U8" s="28" t="str">
         <f>IF(_zhileng_day_hour!S3="","",_zhileng_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V8" s="28" t="str">
         <f>IF(_zhileng_day_hour!T3="","",_zhileng_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W8" s="28" t="str">
         <f>IF(_zhileng_day_hour!U3="","",_zhileng_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X8" s="28" t="str">
         <f>IF(_zhileng_day_hour!V3="","",_zhileng_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y8" s="17" t="str">
+      <c r="Y8" s="28" t="str">
         <f>IF(_zhileng_day_hour!W3="","",_zhileng_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="28" t="str">
         <f>IF(_zhileng_day_hour!X3="","",_zhileng_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA8" s="17" t="str">
+      <c r="AA8" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y3="","",_zhileng_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB8" s="17" t="str">
+      <c r="AB8" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z3="","",_zhileng_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC8" s="17" t="str">
+      <c r="AC8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA3="","",_zhileng_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB3="","",_zhileng_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC3="","",_zhileng_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD3="","",_zhileng_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE3="","",_zhileng_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH8" s="17" t="str">
+      <c r="AH8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF3="","",_zhileng_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI8" s="17" t="str">
+      <c r="AI8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG3="","",_zhileng_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ8" s="17" t="str">
+      <c r="AJ8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH3="","",_zhileng_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK8" s="17" t="str">
+      <c r="AK8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI3="","",_zhileng_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL8" s="17" t="str">
+      <c r="AL8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ3="","",_zhileng_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM8" s="17" t="str">
+      <c r="AM8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK3="","",_zhileng_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN8" s="17" t="str">
+      <c r="AN8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL3="","",_zhileng_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO8" s="17" t="str">
+      <c r="AO8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM3="","",_zhileng_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP8" s="17" t="str">
+      <c r="AP8" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN3="","",_zhileng_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ8" s="29" t="str">
+      <c r="AQ8" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO3="","",_zhileng_day_hour!AO3)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B9" s="16">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C9" s="17" t="str">
+    <row r="9" spans="2:43">
+      <c r="B9" s="27">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C9" s="28" t="str">
         <f>IF(_zhileng_day_hour!A4="","",_zhileng_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="28" t="str">
         <f>IF(_zhileng_day_hour!B4="","",_zhileng_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="28" t="str">
         <f>IF(_zhileng_day_hour!C4="","",_zhileng_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="28" t="str">
         <f>IF(_zhileng_day_hour!D4="","",_zhileng_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G9" s="28" t="str">
         <f>IF(_zhileng_day_hour!E4="","",_zhileng_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H9" s="17" t="str">
+      <c r="H9" s="28" t="str">
         <f>IF(_zhileng_day_hour!F4="","",_zhileng_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I9" s="17" t="str">
+      <c r="I9" s="28" t="str">
         <f>IF(_zhileng_day_hour!G4="","",_zhileng_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J9" s="17" t="str">
+      <c r="J9" s="28" t="str">
         <f>IF(_zhileng_day_hour!H4="","",_zhileng_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K9" s="28" t="str">
         <f>IF(_zhileng_day_hour!I4="","",_zhileng_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="28" t="str">
         <f>IF(_zhileng_day_hour!J4="","",_zhileng_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M9" s="28" t="str">
         <f>IF(_zhileng_day_hour!K4="","",_zhileng_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="28" t="str">
         <f>IF(_zhileng_day_hour!L4="","",_zhileng_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="28" t="str">
         <f>IF(_zhileng_day_hour!M4="","",_zhileng_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P9" s="17" t="str">
+      <c r="P9" s="28" t="str">
         <f>IF(_zhileng_day_hour!N4="","",_zhileng_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q9" s="17" t="str">
+      <c r="Q9" s="28" t="str">
         <f>IF(_zhileng_day_hour!O4="","",_zhileng_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R9" s="28" t="str">
         <f>IF(_zhileng_day_hour!P4="","",_zhileng_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S9" s="17" t="str">
+      <c r="S9" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q4="","",_zhileng_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T9" s="17" t="str">
+      <c r="T9" s="28" t="str">
         <f>IF(_zhileng_day_hour!R4="","",_zhileng_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U9" s="17" t="str">
+      <c r="U9" s="28" t="str">
         <f>IF(_zhileng_day_hour!S4="","",_zhileng_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V9" s="17" t="str">
+      <c r="V9" s="28" t="str">
         <f>IF(_zhileng_day_hour!T4="","",_zhileng_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W9" s="17" t="str">
+      <c r="W9" s="28" t="str">
         <f>IF(_zhileng_day_hour!U4="","",_zhileng_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X9" s="17" t="str">
+      <c r="X9" s="28" t="str">
         <f>IF(_zhileng_day_hour!V4="","",_zhileng_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y9" s="17" t="str">
+      <c r="Y9" s="28" t="str">
         <f>IF(_zhileng_day_hour!W4="","",_zhileng_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z9" s="17" t="str">
+      <c r="Z9" s="28" t="str">
         <f>IF(_zhileng_day_hour!X4="","",_zhileng_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA9" s="17" t="str">
+      <c r="AA9" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y4="","",_zhileng_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB9" s="17" t="str">
+      <c r="AB9" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z4="","",_zhileng_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC9" s="17" t="str">
+      <c r="AC9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA4="","",_zhileng_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD9" s="17" t="str">
+      <c r="AD9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB4="","",_zhileng_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE9" s="17" t="str">
+      <c r="AE9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC4="","",_zhileng_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD4="","",_zhileng_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG9" s="17" t="str">
+      <c r="AG9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE4="","",_zhileng_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH9" s="17" t="str">
+      <c r="AH9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF4="","",_zhileng_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI9" s="17" t="str">
+      <c r="AI9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG4="","",_zhileng_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ9" s="17" t="str">
+      <c r="AJ9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH4="","",_zhileng_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK9" s="17" t="str">
+      <c r="AK9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI4="","",_zhileng_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL9" s="17" t="str">
+      <c r="AL9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ4="","",_zhileng_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM9" s="17" t="str">
+      <c r="AM9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK4="","",_zhileng_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN9" s="17" t="str">
+      <c r="AN9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL4="","",_zhileng_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO9" s="17" t="str">
+      <c r="AO9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM4="","",_zhileng_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP9" s="17" t="str">
+      <c r="AP9" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN4="","",_zhileng_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ9" s="29" t="str">
+      <c r="AQ9" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO4="","",_zhileng_day_hour!AO4)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B10" s="16">
+    <row r="10" spans="2:43">
+      <c r="B10" s="27">
         <v>0.125</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="28" t="str">
         <f>IF(_zhileng_day_hour!A5="","",_zhileng_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="28" t="str">
         <f>IF(_zhileng_day_hour!B5="","",_zhileng_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="28" t="str">
         <f>IF(_zhileng_day_hour!C5="","",_zhileng_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="28" t="str">
         <f>IF(_zhileng_day_hour!D5="","",_zhileng_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="28" t="str">
         <f>IF(_zhileng_day_hour!E5="","",_zhileng_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H10" s="17" t="str">
+      <c r="H10" s="28" t="str">
         <f>IF(_zhileng_day_hour!F5="","",_zhileng_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I10" s="17" t="str">
+      <c r="I10" s="28" t="str">
         <f>IF(_zhileng_day_hour!G5="","",_zhileng_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J10" s="17" t="str">
+      <c r="J10" s="28" t="str">
         <f>IF(_zhileng_day_hour!H5="","",_zhileng_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K10" s="28" t="str">
         <f>IF(_zhileng_day_hour!I5="","",_zhileng_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="28" t="str">
         <f>IF(_zhileng_day_hour!J5="","",_zhileng_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="28" t="str">
         <f>IF(_zhileng_day_hour!K5="","",_zhileng_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="28" t="str">
         <f>IF(_zhileng_day_hour!L5="","",_zhileng_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="28" t="str">
         <f>IF(_zhileng_day_hour!M5="","",_zhileng_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P10" s="17" t="str">
+      <c r="P10" s="28" t="str">
         <f>IF(_zhileng_day_hour!N5="","",_zhileng_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q10" s="17" t="str">
+      <c r="Q10" s="28" t="str">
         <f>IF(_zhileng_day_hour!O5="","",_zhileng_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R10" s="28" t="str">
         <f>IF(_zhileng_day_hour!P5="","",_zhileng_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S10" s="17" t="str">
+      <c r="S10" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q5="","",_zhileng_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T10" s="17" t="str">
+      <c r="T10" s="28" t="str">
         <f>IF(_zhileng_day_hour!R5="","",_zhileng_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U10" s="17" t="str">
+      <c r="U10" s="28" t="str">
         <f>IF(_zhileng_day_hour!S5="","",_zhileng_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V10" s="17" t="str">
+      <c r="V10" s="28" t="str">
         <f>IF(_zhileng_day_hour!T5="","",_zhileng_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W10" s="17" t="str">
+      <c r="W10" s="28" t="str">
         <f>IF(_zhileng_day_hour!U5="","",_zhileng_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X10" s="17" t="str">
+      <c r="X10" s="28" t="str">
         <f>IF(_zhileng_day_hour!V5="","",_zhileng_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y10" s="17" t="str">
+      <c r="Y10" s="28" t="str">
         <f>IF(_zhileng_day_hour!W5="","",_zhileng_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z10" s="17" t="str">
+      <c r="Z10" s="28" t="str">
         <f>IF(_zhileng_day_hour!X5="","",_zhileng_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA10" s="17" t="str">
+      <c r="AA10" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y5="","",_zhileng_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB10" s="17" t="str">
+      <c r="AB10" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z5="","",_zhileng_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC10" s="17" t="str">
+      <c r="AC10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA5="","",_zhileng_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD10" s="17" t="str">
+      <c r="AD10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB5="","",_zhileng_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE10" s="17" t="str">
+      <c r="AE10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC5="","",_zhileng_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD5="","",_zhileng_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG10" s="17" t="str">
+      <c r="AG10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE5="","",_zhileng_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH10" s="17" t="str">
+      <c r="AH10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF5="","",_zhileng_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI10" s="17" t="str">
+      <c r="AI10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG5="","",_zhileng_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ10" s="17" t="str">
+      <c r="AJ10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH5="","",_zhileng_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK10" s="17" t="str">
+      <c r="AK10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI5="","",_zhileng_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL10" s="17" t="str">
+      <c r="AL10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ5="","",_zhileng_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM10" s="17" t="str">
+      <c r="AM10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK5="","",_zhileng_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN10" s="17" t="str">
+      <c r="AN10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL5="","",_zhileng_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO10" s="17" t="str">
+      <c r="AO10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM5="","",_zhileng_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP10" s="17" t="str">
+      <c r="AP10" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN5="","",_zhileng_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ10" s="29" t="str">
+      <c r="AQ10" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO5="","",_zhileng_day_hour!AO5)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B11" s="16">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C11" s="17" t="str">
+    <row r="11" spans="2:43">
+      <c r="B11" s="27">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C11" s="28" t="str">
         <f>IF(_zhileng_day_hour!A6="","",_zhileng_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="28" t="str">
         <f>IF(_zhileng_day_hour!B6="","",_zhileng_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="28" t="str">
         <f>IF(_zhileng_day_hour!C6="","",_zhileng_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="28" t="str">
         <f>IF(_zhileng_day_hour!D6="","",_zhileng_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="28" t="str">
         <f>IF(_zhileng_day_hour!E6="","",_zhileng_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H11" s="17" t="str">
+      <c r="H11" s="28" t="str">
         <f>IF(_zhileng_day_hour!F6="","",_zhileng_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I11" s="17" t="str">
+      <c r="I11" s="28" t="str">
         <f>IF(_zhileng_day_hour!G6="","",_zhileng_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J11" s="17" t="str">
+      <c r="J11" s="28" t="str">
         <f>IF(_zhileng_day_hour!H6="","",_zhileng_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K11" s="28" t="str">
         <f>IF(_zhileng_day_hour!I6="","",_zhileng_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="28" t="str">
         <f>IF(_zhileng_day_hour!J6="","",_zhileng_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="28" t="str">
         <f>IF(_zhileng_day_hour!K6="","",_zhileng_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="28" t="str">
         <f>IF(_zhileng_day_hour!L6="","",_zhileng_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="28" t="str">
         <f>IF(_zhileng_day_hour!M6="","",_zhileng_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="28" t="str">
         <f>IF(_zhileng_day_hour!N6="","",_zhileng_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q11" s="28" t="str">
         <f>IF(_zhileng_day_hour!O6="","",_zhileng_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R11" s="28" t="str">
         <f>IF(_zhileng_day_hour!P6="","",_zhileng_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S11" s="17" t="str">
+      <c r="S11" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q6="","",_zhileng_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T11" s="17" t="str">
+      <c r="T11" s="28" t="str">
         <f>IF(_zhileng_day_hour!R6="","",_zhileng_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U11" s="17" t="str">
+      <c r="U11" s="28" t="str">
         <f>IF(_zhileng_day_hour!S6="","",_zhileng_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="V11" s="28" t="str">
         <f>IF(_zhileng_day_hour!T6="","",_zhileng_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W11" s="17" t="str">
+      <c r="W11" s="28" t="str">
         <f>IF(_zhileng_day_hour!U6="","",_zhileng_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X11" s="17" t="str">
+      <c r="X11" s="28" t="str">
         <f>IF(_zhileng_day_hour!V6="","",_zhileng_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y11" s="17" t="str">
+      <c r="Y11" s="28" t="str">
         <f>IF(_zhileng_day_hour!W6="","",_zhileng_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z11" s="17" t="str">
+      <c r="Z11" s="28" t="str">
         <f>IF(_zhileng_day_hour!X6="","",_zhileng_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA11" s="17" t="str">
+      <c r="AA11" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y6="","",_zhileng_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB11" s="17" t="str">
+      <c r="AB11" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z6="","",_zhileng_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC11" s="17" t="str">
+      <c r="AC11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA6="","",_zhileng_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD11" s="17" t="str">
+      <c r="AD11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB6="","",_zhileng_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE11" s="17" t="str">
+      <c r="AE11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC6="","",_zhileng_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF11" s="17" t="str">
+      <c r="AF11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD6="","",_zhileng_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG11" s="17" t="str">
+      <c r="AG11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE6="","",_zhileng_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH11" s="17" t="str">
+      <c r="AH11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF6="","",_zhileng_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI11" s="17" t="str">
+      <c r="AI11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG6="","",_zhileng_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ11" s="17" t="str">
+      <c r="AJ11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH6="","",_zhileng_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK11" s="17" t="str">
+      <c r="AK11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI6="","",_zhileng_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL11" s="17" t="str">
+      <c r="AL11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ6="","",_zhileng_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM11" s="17" t="str">
+      <c r="AM11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK6="","",_zhileng_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN11" s="17" t="str">
+      <c r="AN11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL6="","",_zhileng_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO11" s="17" t="str">
+      <c r="AO11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM6="","",_zhileng_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP11" s="17" t="str">
+      <c r="AP11" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN6="","",_zhileng_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ11" s="29" t="str">
+      <c r="AQ11" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO6="","",_zhileng_day_hour!AO6)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B12" s="16">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C12" s="17" t="str">
+    <row r="12" spans="2:43">
+      <c r="B12" s="27">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C12" s="28" t="str">
         <f>IF(_zhileng_day_hour!A7="","",_zhileng_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="28" t="str">
         <f>IF(_zhileng_day_hour!B7="","",_zhileng_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="28" t="str">
         <f>IF(_zhileng_day_hour!C7="","",_zhileng_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="28" t="str">
         <f>IF(_zhileng_day_hour!D7="","",_zhileng_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G12" s="17" t="str">
+      <c r="G12" s="28" t="str">
         <f>IF(_zhileng_day_hour!E7="","",_zhileng_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H12" s="17" t="str">
+      <c r="H12" s="28" t="str">
         <f>IF(_zhileng_day_hour!F7="","",_zhileng_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I12" s="28" t="str">
         <f>IF(_zhileng_day_hour!G7="","",_zhileng_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J12" s="17" t="str">
+      <c r="J12" s="28" t="str">
         <f>IF(_zhileng_day_hour!H7="","",_zhileng_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K12" s="28" t="str">
         <f>IF(_zhileng_day_hour!I7="","",_zhileng_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L12" s="28" t="str">
         <f>IF(_zhileng_day_hour!J7="","",_zhileng_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M12" s="17" t="str">
+      <c r="M12" s="28" t="str">
         <f>IF(_zhileng_day_hour!K7="","",_zhileng_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="28" t="str">
         <f>IF(_zhileng_day_hour!L7="","",_zhileng_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="28" t="str">
         <f>IF(_zhileng_day_hour!M7="","",_zhileng_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="P12" s="28" t="str">
         <f>IF(_zhileng_day_hour!N7="","",_zhileng_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q12" s="17" t="str">
+      <c r="Q12" s="28" t="str">
         <f>IF(_zhileng_day_hour!O7="","",_zhileng_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="R12" s="28" t="str">
         <f>IF(_zhileng_day_hour!P7="","",_zhileng_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S12" s="17" t="str">
+      <c r="S12" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q7="","",_zhileng_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T12" s="17" t="str">
+      <c r="T12" s="28" t="str">
         <f>IF(_zhileng_day_hour!R7="","",_zhileng_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U12" s="17" t="str">
+      <c r="U12" s="28" t="str">
         <f>IF(_zhileng_day_hour!S7="","",_zhileng_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V12" s="17" t="str">
+      <c r="V12" s="28" t="str">
         <f>IF(_zhileng_day_hour!T7="","",_zhileng_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W12" s="17" t="str">
+      <c r="W12" s="28" t="str">
         <f>IF(_zhileng_day_hour!U7="","",_zhileng_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="X12" s="28" t="str">
         <f>IF(_zhileng_day_hour!V7="","",_zhileng_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y12" s="17" t="str">
+      <c r="Y12" s="28" t="str">
         <f>IF(_zhileng_day_hour!W7="","",_zhileng_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z12" s="17" t="str">
+      <c r="Z12" s="28" t="str">
         <f>IF(_zhileng_day_hour!X7="","",_zhileng_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA12" s="17" t="str">
+      <c r="AA12" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y7="","",_zhileng_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB12" s="17" t="str">
+      <c r="AB12" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z7="","",_zhileng_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC12" s="17" t="str">
+      <c r="AC12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA7="","",_zhileng_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AD12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB7="","",_zhileng_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE12" s="17" t="str">
+      <c r="AE12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC7="","",_zhileng_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF12" s="17" t="str">
+      <c r="AF12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD7="","",_zhileng_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG12" s="17" t="str">
+      <c r="AG12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE7="","",_zhileng_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH12" s="17" t="str">
+      <c r="AH12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF7="","",_zhileng_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI12" s="17" t="str">
+      <c r="AI12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG7="","",_zhileng_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ12" s="17" t="str">
+      <c r="AJ12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH7="","",_zhileng_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK12" s="17" t="str">
+      <c r="AK12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI7="","",_zhileng_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL12" s="17" t="str">
+      <c r="AL12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ7="","",_zhileng_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM12" s="17" t="str">
+      <c r="AM12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK7="","",_zhileng_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN12" s="17" t="str">
+      <c r="AN12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL7="","",_zhileng_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO12" s="17" t="str">
+      <c r="AO12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM7="","",_zhileng_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP12" s="17" t="str">
+      <c r="AP12" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN7="","",_zhileng_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ12" s="29" t="str">
+      <c r="AQ12" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO7="","",_zhileng_day_hour!AO7)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B13" s="16">
+    <row r="13" spans="2:43">
+      <c r="B13" s="27">
         <v>0.25</v>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_zhileng_day_hour!A8="","",_zhileng_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_zhileng_day_hour!B8="","",_zhileng_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_zhileng_day_hour!C8="","",_zhileng_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_zhileng_day_hour!D8="","",_zhileng_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G13" s="17" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_zhileng_day_hour!E8="","",_zhileng_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H13" s="17" t="str">
+      <c r="H13" s="28" t="str">
         <f>IF(_zhileng_day_hour!F8="","",_zhileng_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I13" s="17" t="str">
+      <c r="I13" s="28" t="str">
         <f>IF(_zhileng_day_hour!G8="","",_zhileng_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J13" s="17" t="str">
+      <c r="J13" s="28" t="str">
         <f>IF(_zhileng_day_hour!H8="","",_zhileng_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="28" t="str">
         <f>IF(_zhileng_day_hour!I8="","",_zhileng_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="28" t="str">
         <f>IF(_zhileng_day_hour!J8="","",_zhileng_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M13" s="28" t="str">
         <f>IF(_zhileng_day_hour!K8="","",_zhileng_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="28" t="str">
         <f>IF(_zhileng_day_hour!L8="","",_zhileng_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="28" t="str">
         <f>IF(_zhileng_day_hour!M8="","",_zhileng_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P13" s="17" t="str">
+      <c r="P13" s="28" t="str">
         <f>IF(_zhileng_day_hour!N8="","",_zhileng_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q13" s="17" t="str">
+      <c r="Q13" s="28" t="str">
         <f>IF(_zhileng_day_hour!O8="","",_zhileng_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R13" s="17" t="str">
+      <c r="R13" s="28" t="str">
         <f>IF(_zhileng_day_hour!P8="","",_zhileng_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S13" s="17" t="str">
+      <c r="S13" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q8="","",_zhileng_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T13" s="17" t="str">
+      <c r="T13" s="28" t="str">
         <f>IF(_zhileng_day_hour!R8="","",_zhileng_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U13" s="17" t="str">
+      <c r="U13" s="28" t="str">
         <f>IF(_zhileng_day_hour!S8="","",_zhileng_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V13" s="17" t="str">
+      <c r="V13" s="28" t="str">
         <f>IF(_zhileng_day_hour!T8="","",_zhileng_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W13" s="17" t="str">
+      <c r="W13" s="28" t="str">
         <f>IF(_zhileng_day_hour!U8="","",_zhileng_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X13" s="17" t="str">
+      <c r="X13" s="28" t="str">
         <f>IF(_zhileng_day_hour!V8="","",_zhileng_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y13" s="17" t="str">
+      <c r="Y13" s="28" t="str">
         <f>IF(_zhileng_day_hour!W8="","",_zhileng_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z13" s="17" t="str">
+      <c r="Z13" s="28" t="str">
         <f>IF(_zhileng_day_hour!X8="","",_zhileng_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA13" s="17" t="str">
+      <c r="AA13" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y8="","",_zhileng_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB13" s="17" t="str">
+      <c r="AB13" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z8="","",_zhileng_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC13" s="17" t="str">
+      <c r="AC13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA8="","",_zhileng_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD13" s="17" t="str">
+      <c r="AD13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB8="","",_zhileng_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE13" s="17" t="str">
+      <c r="AE13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC8="","",_zhileng_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF13" s="17" t="str">
+      <c r="AF13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD8="","",_zhileng_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG13" s="17" t="str">
+      <c r="AG13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE8="","",_zhileng_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH13" s="17" t="str">
+      <c r="AH13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF8="","",_zhileng_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI13" s="17" t="str">
+      <c r="AI13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG8="","",_zhileng_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ13" s="17" t="str">
+      <c r="AJ13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH8="","",_zhileng_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK13" s="17" t="str">
+      <c r="AK13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI8="","",_zhileng_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL13" s="17" t="str">
+      <c r="AL13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ8="","",_zhileng_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM13" s="17" t="str">
+      <c r="AM13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK8="","",_zhileng_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN13" s="17" t="str">
+      <c r="AN13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL8="","",_zhileng_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO13" s="17" t="str">
+      <c r="AO13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM8="","",_zhileng_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP13" s="17" t="str">
+      <c r="AP13" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN8="","",_zhileng_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ13" s="29" t="str">
+      <c r="AQ13" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO8="","",_zhileng_day_hour!AO8)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B14" s="16">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C14" s="17" t="str">
+    <row r="14" spans="2:43">
+      <c r="B14" s="27">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C14" s="28" t="str">
         <f>IF(_zhileng_day_hour!A9="","",_zhileng_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="28" t="str">
         <f>IF(_zhileng_day_hour!B9="","",_zhileng_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="28" t="str">
         <f>IF(_zhileng_day_hour!C9="","",_zhileng_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="28" t="str">
         <f>IF(_zhileng_day_hour!D9="","",_zhileng_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G14" s="17" t="str">
+      <c r="G14" s="28" t="str">
         <f>IF(_zhileng_day_hour!E9="","",_zhileng_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H14" s="17" t="str">
+      <c r="H14" s="28" t="str">
         <f>IF(_zhileng_day_hour!F9="","",_zhileng_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(_zhileng_day_hour!G9="","",_zhileng_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J14" s="17" t="str">
+      <c r="J14" s="28" t="str">
         <f>IF(_zhileng_day_hour!H9="","",_zhileng_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="28" t="str">
         <f>IF(_zhileng_day_hour!I9="","",_zhileng_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="28" t="str">
         <f>IF(_zhileng_day_hour!J9="","",_zhileng_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="28" t="str">
         <f>IF(_zhileng_day_hour!K9="","",_zhileng_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="28" t="str">
         <f>IF(_zhileng_day_hour!L9="","",_zhileng_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="28" t="str">
         <f>IF(_zhileng_day_hour!M9="","",_zhileng_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="28" t="str">
         <f>IF(_zhileng_day_hour!N9="","",_zhileng_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q14" s="28" t="str">
         <f>IF(_zhileng_day_hour!O9="","",_zhileng_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R14" s="28" t="str">
         <f>IF(_zhileng_day_hour!P9="","",_zhileng_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="S14" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q9="","",_zhileng_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T14" s="28" t="str">
         <f>IF(_zhileng_day_hour!R9="","",_zhileng_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U14" s="28" t="str">
         <f>IF(_zhileng_day_hour!S9="","",_zhileng_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V14" s="28" t="str">
         <f>IF(_zhileng_day_hour!T9="","",_zhileng_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W14" s="28" t="str">
         <f>IF(_zhileng_day_hour!U9="","",_zhileng_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="28" t="str">
         <f>IF(_zhileng_day_hour!V9="","",_zhileng_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y14" s="17" t="str">
+      <c r="Y14" s="28" t="str">
         <f>IF(_zhileng_day_hour!W9="","",_zhileng_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z14" s="28" t="str">
         <f>IF(_zhileng_day_hour!X9="","",_zhileng_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA14" s="17" t="str">
+      <c r="AA14" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y9="","",_zhileng_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB14" s="17" t="str">
+      <c r="AB14" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z9="","",_zhileng_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC14" s="17" t="str">
+      <c r="AC14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA9="","",_zhileng_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB9="","",_zhileng_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC9="","",_zhileng_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD9="","",_zhileng_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE9="","",_zhileng_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH14" s="17" t="str">
+      <c r="AH14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF9="","",_zhileng_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI14" s="17" t="str">
+      <c r="AI14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG9="","",_zhileng_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ14" s="17" t="str">
+      <c r="AJ14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH9="","",_zhileng_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK14" s="17" t="str">
+      <c r="AK14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI9="","",_zhileng_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL14" s="17" t="str">
+      <c r="AL14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ9="","",_zhileng_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM14" s="17" t="str">
+      <c r="AM14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK9="","",_zhileng_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN14" s="17" t="str">
+      <c r="AN14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL9="","",_zhileng_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO14" s="17" t="str">
+      <c r="AO14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM9="","",_zhileng_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP14" s="17" t="str">
+      <c r="AP14" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN9="","",_zhileng_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ14" s="29" t="str">
+      <c r="AQ14" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO9="","",_zhileng_day_hour!AO9)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B15" s="16">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C15" s="17" t="str">
+    <row r="15" spans="2:43">
+      <c r="B15" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C15" s="28" t="str">
         <f>IF(_zhileng_day_hour!A10="","",_zhileng_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="28" t="str">
         <f>IF(_zhileng_day_hour!B10="","",_zhileng_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="28" t="str">
         <f>IF(_zhileng_day_hour!C10="","",_zhileng_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="28" t="str">
         <f>IF(_zhileng_day_hour!D10="","",_zhileng_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G15" s="17" t="str">
+      <c r="G15" s="28" t="str">
         <f>IF(_zhileng_day_hour!E10="","",_zhileng_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H15" s="17" t="str">
+      <c r="H15" s="28" t="str">
         <f>IF(_zhileng_day_hour!F10="","",_zhileng_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I15" s="17" t="str">
+      <c r="I15" s="28" t="str">
         <f>IF(_zhileng_day_hour!G10="","",_zhileng_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J15" s="17" t="str">
+      <c r="J15" s="28" t="str">
         <f>IF(_zhileng_day_hour!H10="","",_zhileng_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K15" s="28" t="str">
         <f>IF(_zhileng_day_hour!I10="","",_zhileng_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="28" t="str">
         <f>IF(_zhileng_day_hour!J10="","",_zhileng_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M15" s="17" t="str">
+      <c r="M15" s="28" t="str">
         <f>IF(_zhileng_day_hour!K10="","",_zhileng_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="28" t="str">
         <f>IF(_zhileng_day_hour!L10="","",_zhileng_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="28" t="str">
         <f>IF(_zhileng_day_hour!M10="","",_zhileng_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="str">
+      <c r="P15" s="28" t="str">
         <f>IF(_zhileng_day_hour!N10="","",_zhileng_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q15" s="17" t="str">
+      <c r="Q15" s="28" t="str">
         <f>IF(_zhileng_day_hour!O10="","",_zhileng_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R15" s="17" t="str">
+      <c r="R15" s="28" t="str">
         <f>IF(_zhileng_day_hour!P10="","",_zhileng_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="str">
+      <c r="S15" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q10="","",_zhileng_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T15" s="17" t="str">
+      <c r="T15" s="28" t="str">
         <f>IF(_zhileng_day_hour!R10="","",_zhileng_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U15" s="17" t="str">
+      <c r="U15" s="28" t="str">
         <f>IF(_zhileng_day_hour!S10="","",_zhileng_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V15" s="17" t="str">
+      <c r="V15" s="28" t="str">
         <f>IF(_zhileng_day_hour!T10="","",_zhileng_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W15" s="17" t="str">
+      <c r="W15" s="28" t="str">
         <f>IF(_zhileng_day_hour!U10="","",_zhileng_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X15" s="17" t="str">
+      <c r="X15" s="28" t="str">
         <f>IF(_zhileng_day_hour!V10="","",_zhileng_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y15" s="17" t="str">
+      <c r="Y15" s="28" t="str">
         <f>IF(_zhileng_day_hour!W10="","",_zhileng_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z15" s="17" t="str">
+      <c r="Z15" s="28" t="str">
         <f>IF(_zhileng_day_hour!X10="","",_zhileng_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA15" s="17" t="str">
+      <c r="AA15" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y10="","",_zhileng_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB15" s="17" t="str">
+      <c r="AB15" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z10="","",_zhileng_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC15" s="17" t="str">
+      <c r="AC15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA10="","",_zhileng_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD15" s="17" t="str">
+      <c r="AD15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB10="","",_zhileng_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE15" s="17" t="str">
+      <c r="AE15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC10="","",_zhileng_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF15" s="17" t="str">
+      <c r="AF15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD10="","",_zhileng_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG15" s="17" t="str">
+      <c r="AG15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE10="","",_zhileng_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH15" s="17" t="str">
+      <c r="AH15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF10="","",_zhileng_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI15" s="17" t="str">
+      <c r="AI15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG10="","",_zhileng_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ15" s="17" t="str">
+      <c r="AJ15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH10="","",_zhileng_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK15" s="17" t="str">
+      <c r="AK15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI10="","",_zhileng_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL15" s="17" t="str">
+      <c r="AL15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ10="","",_zhileng_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM15" s="17" t="str">
+      <c r="AM15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK10="","",_zhileng_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN15" s="17" t="str">
+      <c r="AN15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL10="","",_zhileng_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO15" s="17" t="str">
+      <c r="AO15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM10="","",_zhileng_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP15" s="17" t="str">
+      <c r="AP15" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN10="","",_zhileng_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ15" s="29" t="str">
+      <c r="AQ15" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO10="","",_zhileng_day_hour!AO10)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B16" s="16">
+    <row r="16" spans="2:43">
+      <c r="B16" s="27">
         <v>0.375</v>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="28" t="str">
         <f>IF(_zhileng_day_hour!A11="","",_zhileng_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="28" t="str">
         <f>IF(_zhileng_day_hour!B11="","",_zhileng_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="28" t="str">
         <f>IF(_zhileng_day_hour!C11="","",_zhileng_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F16" s="28" t="str">
         <f>IF(_zhileng_day_hour!D11="","",_zhileng_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G16" s="17" t="str">
+      <c r="G16" s="28" t="str">
         <f>IF(_zhileng_day_hour!E11="","",_zhileng_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H16" s="17" t="str">
+      <c r="H16" s="28" t="str">
         <f>IF(_zhileng_day_hour!F11="","",_zhileng_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I16" s="17" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(_zhileng_day_hour!G11="","",_zhileng_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J16" s="17" t="str">
+      <c r="J16" s="28" t="str">
         <f>IF(_zhileng_day_hour!H11="","",_zhileng_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K16" s="28" t="str">
         <f>IF(_zhileng_day_hour!I11="","",_zhileng_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="28" t="str">
         <f>IF(_zhileng_day_hour!J11="","",_zhileng_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M16" s="17" t="str">
+      <c r="M16" s="28" t="str">
         <f>IF(_zhileng_day_hour!K11="","",_zhileng_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="28" t="str">
         <f>IF(_zhileng_day_hour!L11="","",_zhileng_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="28" t="str">
         <f>IF(_zhileng_day_hour!M11="","",_zhileng_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="str">
+      <c r="P16" s="28" t="str">
         <f>IF(_zhileng_day_hour!N11="","",_zhileng_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q16" s="17" t="str">
+      <c r="Q16" s="28" t="str">
         <f>IF(_zhileng_day_hour!O11="","",_zhileng_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R16" s="17" t="str">
+      <c r="R16" s="28" t="str">
         <f>IF(_zhileng_day_hour!P11="","",_zhileng_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q11="","",_zhileng_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T16" s="17" t="str">
+      <c r="T16" s="28" t="str">
         <f>IF(_zhileng_day_hour!R11="","",_zhileng_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U16" s="17" t="str">
+      <c r="U16" s="28" t="str">
         <f>IF(_zhileng_day_hour!S11="","",_zhileng_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="V16" s="28" t="str">
         <f>IF(_zhileng_day_hour!T11="","",_zhileng_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W16" s="17" t="str">
+      <c r="W16" s="28" t="str">
         <f>IF(_zhileng_day_hour!U11="","",_zhileng_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X16" s="17" t="str">
+      <c r="X16" s="28" t="str">
         <f>IF(_zhileng_day_hour!V11="","",_zhileng_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y16" s="17" t="str">
+      <c r="Y16" s="28" t="str">
         <f>IF(_zhileng_day_hour!W11="","",_zhileng_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z16" s="17" t="str">
+      <c r="Z16" s="28" t="str">
         <f>IF(_zhileng_day_hour!X11="","",_zhileng_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA16" s="17" t="str">
+      <c r="AA16" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y11="","",_zhileng_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB16" s="17" t="str">
+      <c r="AB16" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z11="","",_zhileng_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC16" s="17" t="str">
+      <c r="AC16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA11="","",_zhileng_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD16" s="17" t="str">
+      <c r="AD16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB11="","",_zhileng_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE16" s="17" t="str">
+      <c r="AE16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC11="","",_zhileng_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF16" s="17" t="str">
+      <c r="AF16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD11="","",_zhileng_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG16" s="17" t="str">
+      <c r="AG16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE11="","",_zhileng_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH16" s="17" t="str">
+      <c r="AH16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF11="","",_zhileng_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI16" s="17" t="str">
+      <c r="AI16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG11="","",_zhileng_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ16" s="17" t="str">
+      <c r="AJ16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH11="","",_zhileng_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK16" s="17" t="str">
+      <c r="AK16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI11="","",_zhileng_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL16" s="17" t="str">
+      <c r="AL16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ11="","",_zhileng_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM16" s="17" t="str">
+      <c r="AM16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK11="","",_zhileng_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN16" s="17" t="str">
+      <c r="AN16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL11="","",_zhileng_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO16" s="17" t="str">
+      <c r="AO16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM11="","",_zhileng_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP16" s="17" t="str">
+      <c r="AP16" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN11="","",_zhileng_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ16" s="29" t="str">
+      <c r="AQ16" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO11="","",_zhileng_day_hour!AO11)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B17" s="16">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="C17" s="17" t="str">
+    <row r="17" spans="2:43">
+      <c r="B17" s="27">
+        <v>0.416666666666666</v>
+      </c>
+      <c r="C17" s="28" t="str">
         <f>IF(_zhileng_day_hour!A12="","",_zhileng_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="28" t="str">
         <f>IF(_zhileng_day_hour!B12="","",_zhileng_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="28" t="str">
         <f>IF(_zhileng_day_hour!C12="","",_zhileng_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F17" s="17" t="str">
+      <c r="F17" s="28" t="str">
         <f>IF(_zhileng_day_hour!D12="","",_zhileng_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G17" s="17" t="str">
+      <c r="G17" s="28" t="str">
         <f>IF(_zhileng_day_hour!E12="","",_zhileng_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H17" s="17" t="str">
+      <c r="H17" s="28" t="str">
         <f>IF(_zhileng_day_hour!F12="","",_zhileng_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I17" s="17" t="str">
+      <c r="I17" s="28" t="str">
         <f>IF(_zhileng_day_hour!G12="","",_zhileng_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J17" s="17" t="str">
+      <c r="J17" s="28" t="str">
         <f>IF(_zhileng_day_hour!H12="","",_zhileng_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K17" s="28" t="str">
         <f>IF(_zhileng_day_hour!I12="","",_zhileng_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L17" s="28" t="str">
         <f>IF(_zhileng_day_hour!J12="","",_zhileng_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M17" s="17" t="str">
+      <c r="M17" s="28" t="str">
         <f>IF(_zhileng_day_hour!K12="","",_zhileng_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="28" t="str">
         <f>IF(_zhileng_day_hour!L12="","",_zhileng_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="28" t="str">
         <f>IF(_zhileng_day_hour!M12="","",_zhileng_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="str">
+      <c r="P17" s="28" t="str">
         <f>IF(_zhileng_day_hour!N12="","",_zhileng_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q17" s="17" t="str">
+      <c r="Q17" s="28" t="str">
         <f>IF(_zhileng_day_hour!O12="","",_zhileng_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R17" s="17" t="str">
+      <c r="R17" s="28" t="str">
         <f>IF(_zhileng_day_hour!P12="","",_zhileng_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="str">
+      <c r="S17" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q12="","",_zhileng_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T17" s="17" t="str">
+      <c r="T17" s="28" t="str">
         <f>IF(_zhileng_day_hour!R12="","",_zhileng_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U17" s="17" t="str">
+      <c r="U17" s="28" t="str">
         <f>IF(_zhileng_day_hour!S12="","",_zhileng_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V17" s="17" t="str">
+      <c r="V17" s="28" t="str">
         <f>IF(_zhileng_day_hour!T12="","",_zhileng_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W17" s="17" t="str">
+      <c r="W17" s="28" t="str">
         <f>IF(_zhileng_day_hour!U12="","",_zhileng_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X17" s="17" t="str">
+      <c r="X17" s="28" t="str">
         <f>IF(_zhileng_day_hour!V12="","",_zhileng_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y17" s="17" t="str">
+      <c r="Y17" s="28" t="str">
         <f>IF(_zhileng_day_hour!W12="","",_zhileng_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z17" s="17" t="str">
+      <c r="Z17" s="28" t="str">
         <f>IF(_zhileng_day_hour!X12="","",_zhileng_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA17" s="17" t="str">
+      <c r="AA17" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y12="","",_zhileng_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB17" s="17" t="str">
+      <c r="AB17" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z12="","",_zhileng_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC17" s="17" t="str">
+      <c r="AC17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA12="","",_zhileng_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD17" s="17" t="str">
+      <c r="AD17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB12="","",_zhileng_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE17" s="17" t="str">
+      <c r="AE17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC12="","",_zhileng_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF17" s="17" t="str">
+      <c r="AF17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD12="","",_zhileng_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG17" s="17" t="str">
+      <c r="AG17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE12="","",_zhileng_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH17" s="17" t="str">
+      <c r="AH17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF12="","",_zhileng_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI17" s="17" t="str">
+      <c r="AI17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG12="","",_zhileng_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ17" s="17" t="str">
+      <c r="AJ17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH12="","",_zhileng_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK17" s="17" t="str">
+      <c r="AK17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI12="","",_zhileng_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL17" s="17" t="str">
+      <c r="AL17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ12="","",_zhileng_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM17" s="17" t="str">
+      <c r="AM17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK12="","",_zhileng_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN17" s="17" t="str">
+      <c r="AN17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL12="","",_zhileng_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO17" s="17" t="str">
+      <c r="AO17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM12="","",_zhileng_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP17" s="17" t="str">
+      <c r="AP17" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN12="","",_zhileng_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ17" s="29" t="str">
+      <c r="AQ17" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO12="","",_zhileng_day_hour!AO12)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B18" s="16">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C18" s="17" t="str">
+    <row r="18" spans="2:43">
+      <c r="B18" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C18" s="28" t="str">
         <f>IF(_zhileng_day_hour!A13="","",_zhileng_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="28" t="str">
         <f>IF(_zhileng_day_hour!B13="","",_zhileng_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="28" t="str">
         <f>IF(_zhileng_day_hour!C13="","",_zhileng_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F18" s="28" t="str">
         <f>IF(_zhileng_day_hour!D13="","",_zhileng_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G18" s="17" t="str">
+      <c r="G18" s="28" t="str">
         <f>IF(_zhileng_day_hour!E13="","",_zhileng_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H18" s="17" t="str">
+      <c r="H18" s="28" t="str">
         <f>IF(_zhileng_day_hour!F13="","",_zhileng_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I18" s="28" t="str">
         <f>IF(_zhileng_day_hour!G13="","",_zhileng_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J18" s="28" t="str">
         <f>IF(_zhileng_day_hour!H13="","",_zhileng_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K18" s="28" t="str">
         <f>IF(_zhileng_day_hour!I13="","",_zhileng_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="28" t="str">
         <f>IF(_zhileng_day_hour!J13="","",_zhileng_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M18" s="28" t="str">
         <f>IF(_zhileng_day_hour!K13="","",_zhileng_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="28" t="str">
         <f>IF(_zhileng_day_hour!L13="","",_zhileng_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="28" t="str">
         <f>IF(_zhileng_day_hour!M13="","",_zhileng_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" s="28" t="str">
         <f>IF(_zhileng_day_hour!N13="","",_zhileng_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q18" s="17" t="str">
+      <c r="Q18" s="28" t="str">
         <f>IF(_zhileng_day_hour!O13="","",_zhileng_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R18" s="17" t="str">
+      <c r="R18" s="28" t="str">
         <f>IF(_zhileng_day_hour!P13="","",_zhileng_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q13="","",_zhileng_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T18" s="17" t="str">
+      <c r="T18" s="28" t="str">
         <f>IF(_zhileng_day_hour!R13="","",_zhileng_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U18" s="17" t="str">
+      <c r="U18" s="28" t="str">
         <f>IF(_zhileng_day_hour!S13="","",_zhileng_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="V18" s="28" t="str">
         <f>IF(_zhileng_day_hour!T13="","",_zhileng_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W18" s="17" t="str">
+      <c r="W18" s="28" t="str">
         <f>IF(_zhileng_day_hour!U13="","",_zhileng_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="X18" s="28" t="str">
         <f>IF(_zhileng_day_hour!V13="","",_zhileng_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y18" s="17" t="str">
+      <c r="Y18" s="28" t="str">
         <f>IF(_zhileng_day_hour!W13="","",_zhileng_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z18" s="17" t="str">
+      <c r="Z18" s="28" t="str">
         <f>IF(_zhileng_day_hour!X13="","",_zhileng_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA18" s="17" t="str">
+      <c r="AA18" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y13="","",_zhileng_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB18" s="17" t="str">
+      <c r="AB18" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z13="","",_zhileng_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC18" s="17" t="str">
+      <c r="AC18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA13="","",_zhileng_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB13="","",_zhileng_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC13="","",_zhileng_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD13="","",_zhileng_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG18" s="17" t="str">
+      <c r="AG18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE13="","",_zhileng_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH18" s="17" t="str">
+      <c r="AH18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF13="","",_zhileng_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI18" s="17" t="str">
+      <c r="AI18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG13="","",_zhileng_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ18" s="17" t="str">
+      <c r="AJ18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH13="","",_zhileng_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK18" s="17" t="str">
+      <c r="AK18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI13="","",_zhileng_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL18" s="17" t="str">
+      <c r="AL18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ13="","",_zhileng_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM18" s="17" t="str">
+      <c r="AM18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK13="","",_zhileng_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN18" s="17" t="str">
+      <c r="AN18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL13="","",_zhileng_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO18" s="17" t="str">
+      <c r="AO18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM13="","",_zhileng_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP18" s="17" t="str">
+      <c r="AP18" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN13="","",_zhileng_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ18" s="29" t="str">
+      <c r="AQ18" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO13="","",_zhileng_day_hour!AO13)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B19" s="16">
+    <row r="19" spans="2:43">
+      <c r="B19" s="27">
         <v>0.5</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="28" t="str">
         <f>IF(_zhileng_day_hour!A14="","",_zhileng_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="28" t="str">
         <f>IF(_zhileng_day_hour!B14="","",_zhileng_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="28" t="str">
         <f>IF(_zhileng_day_hour!C14="","",_zhileng_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F19" s="17" t="str">
+      <c r="F19" s="28" t="str">
         <f>IF(_zhileng_day_hour!D14="","",_zhileng_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G19" s="17" t="str">
+      <c r="G19" s="28" t="str">
         <f>IF(_zhileng_day_hour!E14="","",_zhileng_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H19" s="17" t="str">
+      <c r="H19" s="28" t="str">
         <f>IF(_zhileng_day_hour!F14="","",_zhileng_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I19" s="17" t="str">
+      <c r="I19" s="28" t="str">
         <f>IF(_zhileng_day_hour!G14="","",_zhileng_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J19" s="17" t="str">
+      <c r="J19" s="28" t="str">
         <f>IF(_zhileng_day_hour!H14="","",_zhileng_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K19" s="17" t="str">
+      <c r="K19" s="28" t="str">
         <f>IF(_zhileng_day_hour!I14="","",_zhileng_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L19" s="28" t="str">
         <f>IF(_zhileng_day_hour!J14="","",_zhileng_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M19" s="17" t="str">
+      <c r="M19" s="28" t="str">
         <f>IF(_zhileng_day_hour!K14="","",_zhileng_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N19" s="17" t="str">
+      <c r="N19" s="28" t="str">
         <f>IF(_zhileng_day_hour!L14="","",_zhileng_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O19" s="28" t="str">
         <f>IF(_zhileng_day_hour!M14="","",_zhileng_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="str">
+      <c r="P19" s="28" t="str">
         <f>IF(_zhileng_day_hour!N14="","",_zhileng_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q19" s="17" t="str">
+      <c r="Q19" s="28" t="str">
         <f>IF(_zhileng_day_hour!O14="","",_zhileng_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R19" s="17" t="str">
+      <c r="R19" s="28" t="str">
         <f>IF(_zhileng_day_hour!P14="","",_zhileng_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S19" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q14="","",_zhileng_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T19" s="17" t="str">
+      <c r="T19" s="28" t="str">
         <f>IF(_zhileng_day_hour!R14="","",_zhileng_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U19" s="17" t="str">
+      <c r="U19" s="28" t="str">
         <f>IF(_zhileng_day_hour!S14="","",_zhileng_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V19" s="17" t="str">
+      <c r="V19" s="28" t="str">
         <f>IF(_zhileng_day_hour!T14="","",_zhileng_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W19" s="17" t="str">
+      <c r="W19" s="28" t="str">
         <f>IF(_zhileng_day_hour!U14="","",_zhileng_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X19" s="17" t="str">
+      <c r="X19" s="28" t="str">
         <f>IF(_zhileng_day_hour!V14="","",_zhileng_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y19" s="17" t="str">
+      <c r="Y19" s="28" t="str">
         <f>IF(_zhileng_day_hour!W14="","",_zhileng_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z19" s="17" t="str">
+      <c r="Z19" s="28" t="str">
         <f>IF(_zhileng_day_hour!X14="","",_zhileng_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA19" s="17" t="str">
+      <c r="AA19" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y14="","",_zhileng_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB19" s="17" t="str">
+      <c r="AB19" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z14="","",_zhileng_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC19" s="17" t="str">
+      <c r="AC19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA14="","",_zhileng_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD19" s="17" t="str">
+      <c r="AD19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB14="","",_zhileng_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE19" s="17" t="str">
+      <c r="AE19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC14="","",_zhileng_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF19" s="17" t="str">
+      <c r="AF19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD14="","",_zhileng_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG19" s="17" t="str">
+      <c r="AG19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE14="","",_zhileng_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH19" s="17" t="str">
+      <c r="AH19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF14="","",_zhileng_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI19" s="17" t="str">
+      <c r="AI19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG14="","",_zhileng_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ19" s="17" t="str">
+      <c r="AJ19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH14="","",_zhileng_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK19" s="17" t="str">
+      <c r="AK19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI14="","",_zhileng_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL19" s="17" t="str">
+      <c r="AL19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ14="","",_zhileng_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM19" s="17" t="str">
+      <c r="AM19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK14="","",_zhileng_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN19" s="17" t="str">
+      <c r="AN19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL14="","",_zhileng_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO19" s="17" t="str">
+      <c r="AO19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM14="","",_zhileng_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP19" s="17" t="str">
+      <c r="AP19" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN14="","",_zhileng_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ19" s="29" t="str">
+      <c r="AQ19" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO14="","",_zhileng_day_hour!AO14)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B20" s="16">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C20" s="17" t="str">
+    <row r="20" spans="2:43">
+      <c r="B20" s="27">
+        <v>0.541666666666666</v>
+      </c>
+      <c r="C20" s="28" t="str">
         <f>IF(_zhileng_day_hour!A15="","",_zhileng_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="28" t="str">
         <f>IF(_zhileng_day_hour!B15="","",_zhileng_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="28" t="str">
         <f>IF(_zhileng_day_hour!C15="","",_zhileng_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F20" s="17" t="str">
+      <c r="F20" s="28" t="str">
         <f>IF(_zhileng_day_hour!D15="","",_zhileng_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G20" s="17" t="str">
+      <c r="G20" s="28" t="str">
         <f>IF(_zhileng_day_hour!E15="","",_zhileng_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H20" s="17" t="str">
+      <c r="H20" s="28" t="str">
         <f>IF(_zhileng_day_hour!F15="","",_zhileng_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I20" s="17" t="str">
+      <c r="I20" s="28" t="str">
         <f>IF(_zhileng_day_hour!G15="","",_zhileng_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J20" s="17" t="str">
+      <c r="J20" s="28" t="str">
         <f>IF(_zhileng_day_hour!H15="","",_zhileng_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K20" s="17" t="str">
+      <c r="K20" s="28" t="str">
         <f>IF(_zhileng_day_hour!I15="","",_zhileng_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L20" s="28" t="str">
         <f>IF(_zhileng_day_hour!J15="","",_zhileng_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M20" s="17" t="str">
+      <c r="M20" s="28" t="str">
         <f>IF(_zhileng_day_hour!K15="","",_zhileng_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N20" s="17" t="str">
+      <c r="N20" s="28" t="str">
         <f>IF(_zhileng_day_hour!L15="","",_zhileng_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="28" t="str">
         <f>IF(_zhileng_day_hour!M15="","",_zhileng_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P20" s="17" t="str">
+      <c r="P20" s="28" t="str">
         <f>IF(_zhileng_day_hour!N15="","",_zhileng_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q20" s="17" t="str">
+      <c r="Q20" s="28" t="str">
         <f>IF(_zhileng_day_hour!O15="","",_zhileng_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R20" s="17" t="str">
+      <c r="R20" s="28" t="str">
         <f>IF(_zhileng_day_hour!P15="","",_zhileng_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="str">
+      <c r="S20" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q15="","",_zhileng_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T20" s="17" t="str">
+      <c r="T20" s="28" t="str">
         <f>IF(_zhileng_day_hour!R15="","",_zhileng_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U20" s="17" t="str">
+      <c r="U20" s="28" t="str">
         <f>IF(_zhileng_day_hour!S15="","",_zhileng_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V20" s="17" t="str">
+      <c r="V20" s="28" t="str">
         <f>IF(_zhileng_day_hour!T15="","",_zhileng_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W20" s="17" t="str">
+      <c r="W20" s="28" t="str">
         <f>IF(_zhileng_day_hour!U15="","",_zhileng_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X20" s="17" t="str">
+      <c r="X20" s="28" t="str">
         <f>IF(_zhileng_day_hour!V15="","",_zhileng_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y20" s="17" t="str">
+      <c r="Y20" s="28" t="str">
         <f>IF(_zhileng_day_hour!W15="","",_zhileng_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z20" s="17" t="str">
+      <c r="Z20" s="28" t="str">
         <f>IF(_zhileng_day_hour!X15="","",_zhileng_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA20" s="17" t="str">
+      <c r="AA20" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y15="","",_zhileng_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB20" s="17" t="str">
+      <c r="AB20" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z15="","",_zhileng_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC20" s="17" t="str">
+      <c r="AC20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA15="","",_zhileng_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD20" s="17" t="str">
+      <c r="AD20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB15="","",_zhileng_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE20" s="17" t="str">
+      <c r="AE20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC15="","",_zhileng_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF20" s="17" t="str">
+      <c r="AF20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD15="","",_zhileng_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG20" s="17" t="str">
+      <c r="AG20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE15="","",_zhileng_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH20" s="17" t="str">
+      <c r="AH20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF15="","",_zhileng_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI20" s="17" t="str">
+      <c r="AI20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG15="","",_zhileng_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ20" s="17" t="str">
+      <c r="AJ20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH15="","",_zhileng_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK20" s="17" t="str">
+      <c r="AK20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI15="","",_zhileng_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL20" s="17" t="str">
+      <c r="AL20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ15="","",_zhileng_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM20" s="17" t="str">
+      <c r="AM20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK15="","",_zhileng_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN20" s="17" t="str">
+      <c r="AN20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL15="","",_zhileng_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO20" s="17" t="str">
+      <c r="AO20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM15="","",_zhileng_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP20" s="17" t="str">
+      <c r="AP20" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN15="","",_zhileng_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ20" s="29" t="str">
+      <c r="AQ20" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO15="","",_zhileng_day_hour!AO15)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B21" s="16">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C21" s="17" t="str">
+    <row r="21" spans="2:43">
+      <c r="B21" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C21" s="28" t="str">
         <f>IF(_zhileng_day_hour!A16="","",_zhileng_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="28" t="str">
         <f>IF(_zhileng_day_hour!B16="","",_zhileng_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="28" t="str">
         <f>IF(_zhileng_day_hour!C16="","",_zhileng_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F21" s="28" t="str">
         <f>IF(_zhileng_day_hour!D16="","",_zhileng_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G21" s="17" t="str">
+      <c r="G21" s="28" t="str">
         <f>IF(_zhileng_day_hour!E16="","",_zhileng_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H21" s="17" t="str">
+      <c r="H21" s="28" t="str">
         <f>IF(_zhileng_day_hour!F16="","",_zhileng_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I21" s="17" t="str">
+      <c r="I21" s="28" t="str">
         <f>IF(_zhileng_day_hour!G16="","",_zhileng_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J21" s="17" t="str">
+      <c r="J21" s="28" t="str">
         <f>IF(_zhileng_day_hour!H16="","",_zhileng_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K21" s="17" t="str">
+      <c r="K21" s="28" t="str">
         <f>IF(_zhileng_day_hour!I16="","",_zhileng_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L21" s="17" t="str">
+      <c r="L21" s="28" t="str">
         <f>IF(_zhileng_day_hour!J16="","",_zhileng_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M21" s="17" t="str">
+      <c r="M21" s="28" t="str">
         <f>IF(_zhileng_day_hour!K16="","",_zhileng_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N21" s="17" t="str">
+      <c r="N21" s="28" t="str">
         <f>IF(_zhileng_day_hour!L16="","",_zhileng_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O21" s="28" t="str">
         <f>IF(_zhileng_day_hour!M16="","",_zhileng_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P21" s="17" t="str">
+      <c r="P21" s="28" t="str">
         <f>IF(_zhileng_day_hour!N16="","",_zhileng_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q21" s="17" t="str">
+      <c r="Q21" s="28" t="str">
         <f>IF(_zhileng_day_hour!O16="","",_zhileng_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R21" s="17" t="str">
+      <c r="R21" s="28" t="str">
         <f>IF(_zhileng_day_hour!P16="","",_zhileng_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="str">
+      <c r="S21" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q16="","",_zhileng_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T21" s="17" t="str">
+      <c r="T21" s="28" t="str">
         <f>IF(_zhileng_day_hour!R16="","",_zhileng_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U21" s="17" t="str">
+      <c r="U21" s="28" t="str">
         <f>IF(_zhileng_day_hour!S16="","",_zhileng_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V21" s="17" t="str">
+      <c r="V21" s="28" t="str">
         <f>IF(_zhileng_day_hour!T16="","",_zhileng_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W21" s="17" t="str">
+      <c r="W21" s="28" t="str">
         <f>IF(_zhileng_day_hour!U16="","",_zhileng_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X21" s="17" t="str">
+      <c r="X21" s="28" t="str">
         <f>IF(_zhileng_day_hour!V16="","",_zhileng_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y21" s="17" t="str">
+      <c r="Y21" s="28" t="str">
         <f>IF(_zhileng_day_hour!W16="","",_zhileng_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z21" s="17" t="str">
+      <c r="Z21" s="28" t="str">
         <f>IF(_zhileng_day_hour!X16="","",_zhileng_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA21" s="17" t="str">
+      <c r="AA21" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y16="","",_zhileng_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB21" s="17" t="str">
+      <c r="AB21" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z16="","",_zhileng_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC21" s="17" t="str">
+      <c r="AC21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA16="","",_zhileng_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD21" s="17" t="str">
+      <c r="AD21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB16="","",_zhileng_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE21" s="17" t="str">
+      <c r="AE21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC16="","",_zhileng_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AF21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD16="","",_zhileng_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG21" s="17" t="str">
+      <c r="AG21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE16="","",_zhileng_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH21" s="17" t="str">
+      <c r="AH21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF16="","",_zhileng_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI21" s="17" t="str">
+      <c r="AI21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG16="","",_zhileng_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ21" s="17" t="str">
+      <c r="AJ21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH16="","",_zhileng_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK21" s="17" t="str">
+      <c r="AK21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI16="","",_zhileng_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL21" s="17" t="str">
+      <c r="AL21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ16="","",_zhileng_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM21" s="17" t="str">
+      <c r="AM21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK16="","",_zhileng_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN21" s="17" t="str">
+      <c r="AN21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL16="","",_zhileng_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO21" s="17" t="str">
+      <c r="AO21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM16="","",_zhileng_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP21" s="17" t="str">
+      <c r="AP21" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN16="","",_zhileng_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ21" s="29" t="str">
+      <c r="AQ21" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO16="","",_zhileng_day_hour!AO16)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B22" s="16">
+    <row r="22" spans="2:43">
+      <c r="B22" s="27">
         <v>0.625</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="28" t="str">
         <f>IF(_zhileng_day_hour!A17="","",_zhileng_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="28" t="str">
         <f>IF(_zhileng_day_hour!B17="","",_zhileng_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="28" t="str">
         <f>IF(_zhileng_day_hour!C17="","",_zhileng_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F22" s="28" t="str">
         <f>IF(_zhileng_day_hour!D17="","",_zhileng_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G22" s="17" t="str">
+      <c r="G22" s="28" t="str">
         <f>IF(_zhileng_day_hour!E17="","",_zhileng_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H22" s="17" t="str">
+      <c r="H22" s="28" t="str">
         <f>IF(_zhileng_day_hour!F17="","",_zhileng_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I22" s="17" t="str">
+      <c r="I22" s="28" t="str">
         <f>IF(_zhileng_day_hour!G17="","",_zhileng_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J22" s="17" t="str">
+      <c r="J22" s="28" t="str">
         <f>IF(_zhileng_day_hour!H17="","",_zhileng_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K22" s="17" t="str">
+      <c r="K22" s="28" t="str">
         <f>IF(_zhileng_day_hour!I17="","",_zhileng_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L22" s="17" t="str">
+      <c r="L22" s="28" t="str">
         <f>IF(_zhileng_day_hour!J17="","",_zhileng_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M22" s="17" t="str">
+      <c r="M22" s="28" t="str">
         <f>IF(_zhileng_day_hour!K17="","",_zhileng_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N22" s="17" t="str">
+      <c r="N22" s="28" t="str">
         <f>IF(_zhileng_day_hour!L17="","",_zhileng_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O22" s="17" t="str">
+      <c r="O22" s="28" t="str">
         <f>IF(_zhileng_day_hour!M17="","",_zhileng_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P22" s="17" t="str">
+      <c r="P22" s="28" t="str">
         <f>IF(_zhileng_day_hour!N17="","",_zhileng_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q22" s="17" t="str">
+      <c r="Q22" s="28" t="str">
         <f>IF(_zhileng_day_hour!O17="","",_zhileng_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R22" s="17" t="str">
+      <c r="R22" s="28" t="str">
         <f>IF(_zhileng_day_hour!P17="","",_zhileng_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S22" s="17" t="str">
+      <c r="S22" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q17="","",_zhileng_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T22" s="17" t="str">
+      <c r="T22" s="28" t="str">
         <f>IF(_zhileng_day_hour!R17="","",_zhileng_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U22" s="17" t="str">
+      <c r="U22" s="28" t="str">
         <f>IF(_zhileng_day_hour!S17="","",_zhileng_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V22" s="17" t="str">
+      <c r="V22" s="28" t="str">
         <f>IF(_zhileng_day_hour!T17="","",_zhileng_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W22" s="17" t="str">
+      <c r="W22" s="28" t="str">
         <f>IF(_zhileng_day_hour!U17="","",_zhileng_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X22" s="17" t="str">
+      <c r="X22" s="28" t="str">
         <f>IF(_zhileng_day_hour!V17="","",_zhileng_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y22" s="17" t="str">
+      <c r="Y22" s="28" t="str">
         <f>IF(_zhileng_day_hour!W17="","",_zhileng_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z22" s="17" t="str">
+      <c r="Z22" s="28" t="str">
         <f>IF(_zhileng_day_hour!X17="","",_zhileng_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA22" s="17" t="str">
+      <c r="AA22" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y17="","",_zhileng_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB22" s="17" t="str">
+      <c r="AB22" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z17="","",_zhileng_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC22" s="17" t="str">
+      <c r="AC22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA17="","",_zhileng_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD22" s="17" t="str">
+      <c r="AD22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB17="","",_zhileng_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE22" s="17" t="str">
+      <c r="AE22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC17="","",_zhileng_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD17="","",_zhileng_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG22" s="17" t="str">
+      <c r="AG22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE17="","",_zhileng_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH22" s="17" t="str">
+      <c r="AH22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF17="","",_zhileng_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI22" s="17" t="str">
+      <c r="AI22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG17="","",_zhileng_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ22" s="17" t="str">
+      <c r="AJ22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH17="","",_zhileng_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK22" s="17" t="str">
+      <c r="AK22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI17="","",_zhileng_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL22" s="17" t="str">
+      <c r="AL22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ17="","",_zhileng_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM22" s="17" t="str">
+      <c r="AM22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK17="","",_zhileng_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN22" s="17" t="str">
+      <c r="AN22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL17="","",_zhileng_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO22" s="17" t="str">
+      <c r="AO22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM17="","",_zhileng_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP22" s="17" t="str">
+      <c r="AP22" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN17="","",_zhileng_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ22" s="29" t="str">
+      <c r="AQ22" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO17="","",_zhileng_day_hour!AO17)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B23" s="16">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C23" s="17" t="str">
+    <row r="23" spans="2:43">
+      <c r="B23" s="27">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C23" s="28" t="str">
         <f>IF(_zhileng_day_hour!A18="","",_zhileng_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="28" t="str">
         <f>IF(_zhileng_day_hour!B18="","",_zhileng_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="28" t="str">
         <f>IF(_zhileng_day_hour!C18="","",_zhileng_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F23" s="17" t="str">
+      <c r="F23" s="28" t="str">
         <f>IF(_zhileng_day_hour!D18="","",_zhileng_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G23" s="17" t="str">
+      <c r="G23" s="28" t="str">
         <f>IF(_zhileng_day_hour!E18="","",_zhileng_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H23" s="17" t="str">
+      <c r="H23" s="28" t="str">
         <f>IF(_zhileng_day_hour!F18="","",_zhileng_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I23" s="17" t="str">
+      <c r="I23" s="28" t="str">
         <f>IF(_zhileng_day_hour!G18="","",_zhileng_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J23" s="17" t="str">
+      <c r="J23" s="28" t="str">
         <f>IF(_zhileng_day_hour!H18="","",_zhileng_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K23" s="17" t="str">
+      <c r="K23" s="28" t="str">
         <f>IF(_zhileng_day_hour!I18="","",_zhileng_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L23" s="17" t="str">
+      <c r="L23" s="28" t="str">
         <f>IF(_zhileng_day_hour!J18="","",_zhileng_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M23" s="17" t="str">
+      <c r="M23" s="28" t="str">
         <f>IF(_zhileng_day_hour!K18="","",_zhileng_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N23" s="17" t="str">
+      <c r="N23" s="28" t="str">
         <f>IF(_zhileng_day_hour!L18="","",_zhileng_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O23" s="17" t="str">
+      <c r="O23" s="28" t="str">
         <f>IF(_zhileng_day_hour!M18="","",_zhileng_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P23" s="17" t="str">
+      <c r="P23" s="28" t="str">
         <f>IF(_zhileng_day_hour!N18="","",_zhileng_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q23" s="17" t="str">
+      <c r="Q23" s="28" t="str">
         <f>IF(_zhileng_day_hour!O18="","",_zhileng_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R23" s="17" t="str">
+      <c r="R23" s="28" t="str">
         <f>IF(_zhileng_day_hour!P18="","",_zhileng_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S23" s="17" t="str">
+      <c r="S23" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q18="","",_zhileng_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T23" s="17" t="str">
+      <c r="T23" s="28" t="str">
         <f>IF(_zhileng_day_hour!R18="","",_zhileng_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U23" s="17" t="str">
+      <c r="U23" s="28" t="str">
         <f>IF(_zhileng_day_hour!S18="","",_zhileng_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V23" s="17" t="str">
+      <c r="V23" s="28" t="str">
         <f>IF(_zhileng_day_hour!T18="","",_zhileng_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W23" s="17" t="str">
+      <c r="W23" s="28" t="str">
         <f>IF(_zhileng_day_hour!U18="","",_zhileng_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X23" s="17" t="str">
+      <c r="X23" s="28" t="str">
         <f>IF(_zhileng_day_hour!V18="","",_zhileng_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y23" s="17" t="str">
+      <c r="Y23" s="28" t="str">
         <f>IF(_zhileng_day_hour!W18="","",_zhileng_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z23" s="17" t="str">
+      <c r="Z23" s="28" t="str">
         <f>IF(_zhileng_day_hour!X18="","",_zhileng_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA23" s="17" t="str">
+      <c r="AA23" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y18="","",_zhileng_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB23" s="17" t="str">
+      <c r="AB23" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z18="","",_zhileng_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC23" s="17" t="str">
+      <c r="AC23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA18="","",_zhileng_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD23" s="17" t="str">
+      <c r="AD23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB18="","",_zhileng_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE23" s="17" t="str">
+      <c r="AE23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC18="","",_zhileng_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF23" s="17" t="str">
+      <c r="AF23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD18="","",_zhileng_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG23" s="17" t="str">
+      <c r="AG23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE18="","",_zhileng_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH23" s="17" t="str">
+      <c r="AH23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF18="","",_zhileng_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI23" s="17" t="str">
+      <c r="AI23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG18="","",_zhileng_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ23" s="17" t="str">
+      <c r="AJ23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH18="","",_zhileng_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK23" s="17" t="str">
+      <c r="AK23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI18="","",_zhileng_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL23" s="17" t="str">
+      <c r="AL23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ18="","",_zhileng_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM23" s="17" t="str">
+      <c r="AM23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK18="","",_zhileng_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN23" s="17" t="str">
+      <c r="AN23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL18="","",_zhileng_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO23" s="17" t="str">
+      <c r="AO23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM18="","",_zhileng_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP23" s="17" t="str">
+      <c r="AP23" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN18="","",_zhileng_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ23" s="29" t="str">
+      <c r="AQ23" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO18="","",_zhileng_day_hour!AO18)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B24" s="16">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C24" s="17" t="str">
+    <row r="24" spans="2:43">
+      <c r="B24" s="27">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C24" s="28" t="str">
         <f>IF(_zhileng_day_hour!A19="","",_zhileng_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="28" t="str">
         <f>IF(_zhileng_day_hour!B19="","",_zhileng_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="28" t="str">
         <f>IF(_zhileng_day_hour!C19="","",_zhileng_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F24" s="17" t="str">
+      <c r="F24" s="28" t="str">
         <f>IF(_zhileng_day_hour!D19="","",_zhileng_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G24" s="17" t="str">
+      <c r="G24" s="28" t="str">
         <f>IF(_zhileng_day_hour!E19="","",_zhileng_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H24" s="17" t="str">
+      <c r="H24" s="28" t="str">
         <f>IF(_zhileng_day_hour!F19="","",_zhileng_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I24" s="17" t="str">
+      <c r="I24" s="28" t="str">
         <f>IF(_zhileng_day_hour!G19="","",_zhileng_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J24" s="17" t="str">
+      <c r="J24" s="28" t="str">
         <f>IF(_zhileng_day_hour!H19="","",_zhileng_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K24" s="17" t="str">
+      <c r="K24" s="28" t="str">
         <f>IF(_zhileng_day_hour!I19="","",_zhileng_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L24" s="17" t="str">
+      <c r="L24" s="28" t="str">
         <f>IF(_zhileng_day_hour!J19="","",_zhileng_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M24" s="17" t="str">
+      <c r="M24" s="28" t="str">
         <f>IF(_zhileng_day_hour!K19="","",_zhileng_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N24" s="17" t="str">
+      <c r="N24" s="28" t="str">
         <f>IF(_zhileng_day_hour!L19="","",_zhileng_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O24" s="17" t="str">
+      <c r="O24" s="28" t="str">
         <f>IF(_zhileng_day_hour!M19="","",_zhileng_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P24" s="17" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_zhileng_day_hour!N19="","",_zhileng_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q24" s="17" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_zhileng_day_hour!O19="","",_zhileng_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R24" s="17" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_zhileng_day_hour!P19="","",_zhileng_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S24" s="17" t="str">
+      <c r="S24" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q19="","",_zhileng_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T24" s="17" t="str">
+      <c r="T24" s="28" t="str">
         <f>IF(_zhileng_day_hour!R19="","",_zhileng_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U24" s="17" t="str">
+      <c r="U24" s="28" t="str">
         <f>IF(_zhileng_day_hour!S19="","",_zhileng_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V24" s="17" t="str">
+      <c r="V24" s="28" t="str">
         <f>IF(_zhileng_day_hour!T19="","",_zhileng_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W24" s="17" t="str">
+      <c r="W24" s="28" t="str">
         <f>IF(_zhileng_day_hour!U19="","",_zhileng_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X24" s="17" t="str">
+      <c r="X24" s="28" t="str">
         <f>IF(_zhileng_day_hour!V19="","",_zhileng_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y24" s="17" t="str">
+      <c r="Y24" s="28" t="str">
         <f>IF(_zhileng_day_hour!W19="","",_zhileng_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z24" s="17" t="str">
+      <c r="Z24" s="28" t="str">
         <f>IF(_zhileng_day_hour!X19="","",_zhileng_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA24" s="17" t="str">
+      <c r="AA24" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y19="","",_zhileng_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB24" s="17" t="str">
+      <c r="AB24" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z19="","",_zhileng_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC24" s="17" t="str">
+      <c r="AC24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA19="","",_zhileng_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD24" s="17" t="str">
+      <c r="AD24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB19="","",_zhileng_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE24" s="17" t="str">
+      <c r="AE24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC19="","",_zhileng_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF24" s="17" t="str">
+      <c r="AF24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD19="","",_zhileng_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG24" s="17" t="str">
+      <c r="AG24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE19="","",_zhileng_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH24" s="17" t="str">
+      <c r="AH24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF19="","",_zhileng_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI24" s="17" t="str">
+      <c r="AI24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG19="","",_zhileng_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ24" s="17" t="str">
+      <c r="AJ24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH19="","",_zhileng_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK24" s="17" t="str">
+      <c r="AK24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI19="","",_zhileng_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL24" s="17" t="str">
+      <c r="AL24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ19="","",_zhileng_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM24" s="17" t="str">
+      <c r="AM24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK19="","",_zhileng_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN24" s="17" t="str">
+      <c r="AN24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL19="","",_zhileng_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO24" s="17" t="str">
+      <c r="AO24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM19="","",_zhileng_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP24" s="17" t="str">
+      <c r="AP24" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN19="","",_zhileng_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ24" s="29" t="str">
+      <c r="AQ24" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO19="","",_zhileng_day_hour!AO19)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B25" s="16">
+    <row r="25" spans="2:43">
+      <c r="B25" s="27">
         <v>0.75</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="28" t="str">
         <f>IF(_zhileng_day_hour!A20="","",_zhileng_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="28" t="str">
         <f>IF(_zhileng_day_hour!B20="","",_zhileng_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E25" s="28" t="str">
         <f>IF(_zhileng_day_hour!C20="","",_zhileng_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="F25" s="28" t="str">
         <f>IF(_zhileng_day_hour!D20="","",_zhileng_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G25" s="17" t="str">
+      <c r="G25" s="28" t="str">
         <f>IF(_zhileng_day_hour!E20="","",_zhileng_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H25" s="17" t="str">
+      <c r="H25" s="28" t="str">
         <f>IF(_zhileng_day_hour!F20="","",_zhileng_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I25" s="17" t="str">
+      <c r="I25" s="28" t="str">
         <f>IF(_zhileng_day_hour!G20="","",_zhileng_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J25" s="17" t="str">
+      <c r="J25" s="28" t="str">
         <f>IF(_zhileng_day_hour!H20="","",_zhileng_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K25" s="17" t="str">
+      <c r="K25" s="28" t="str">
         <f>IF(_zhileng_day_hour!I20="","",_zhileng_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L25" s="28" t="str">
         <f>IF(_zhileng_day_hour!J20="","",_zhileng_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M25" s="17" t="str">
+      <c r="M25" s="28" t="str">
         <f>IF(_zhileng_day_hour!K20="","",_zhileng_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N25" s="17" t="str">
+      <c r="N25" s="28" t="str">
         <f>IF(_zhileng_day_hour!L20="","",_zhileng_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O25" s="17" t="str">
+      <c r="O25" s="28" t="str">
         <f>IF(_zhileng_day_hour!M20="","",_zhileng_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P25" s="17" t="str">
+      <c r="P25" s="28" t="str">
         <f>IF(_zhileng_day_hour!N20="","",_zhileng_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q25" s="17" t="str">
+      <c r="Q25" s="28" t="str">
         <f>IF(_zhileng_day_hour!O20="","",_zhileng_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R25" s="17" t="str">
+      <c r="R25" s="28" t="str">
         <f>IF(_zhileng_day_hour!P20="","",_zhileng_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S25" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q20="","",_zhileng_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T25" s="17" t="str">
+      <c r="T25" s="28" t="str">
         <f>IF(_zhileng_day_hour!R20="","",_zhileng_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U25" s="17" t="str">
+      <c r="U25" s="28" t="str">
         <f>IF(_zhileng_day_hour!S20="","",_zhileng_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V25" s="17" t="str">
+      <c r="V25" s="28" t="str">
         <f>IF(_zhileng_day_hour!T20="","",_zhileng_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W25" s="17" t="str">
+      <c r="W25" s="28" t="str">
         <f>IF(_zhileng_day_hour!U20="","",_zhileng_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X25" s="17" t="str">
+      <c r="X25" s="28" t="str">
         <f>IF(_zhileng_day_hour!V20="","",_zhileng_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y25" s="17" t="str">
+      <c r="Y25" s="28" t="str">
         <f>IF(_zhileng_day_hour!W20="","",_zhileng_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z25" s="17" t="str">
+      <c r="Z25" s="28" t="str">
         <f>IF(_zhileng_day_hour!X20="","",_zhileng_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA25" s="17" t="str">
+      <c r="AA25" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y20="","",_zhileng_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB25" s="17" t="str">
+      <c r="AB25" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z20="","",_zhileng_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC25" s="17" t="str">
+      <c r="AC25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA20="","",_zhileng_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB20="","",_zhileng_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC20="","",_zhileng_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD20="","",_zhileng_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG25" s="17" t="str">
+      <c r="AG25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE20="","",_zhileng_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH25" s="17" t="str">
+      <c r="AH25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF20="","",_zhileng_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI25" s="17" t="str">
+      <c r="AI25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG20="","",_zhileng_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ25" s="17" t="str">
+      <c r="AJ25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH20="","",_zhileng_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK25" s="17" t="str">
+      <c r="AK25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI20="","",_zhileng_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL25" s="17" t="str">
+      <c r="AL25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ20="","",_zhileng_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM25" s="17" t="str">
+      <c r="AM25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK20="","",_zhileng_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN25" s="17" t="str">
+      <c r="AN25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL20="","",_zhileng_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO25" s="17" t="str">
+      <c r="AO25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM20="","",_zhileng_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP25" s="17" t="str">
+      <c r="AP25" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN20="","",_zhileng_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ25" s="29" t="str">
+      <c r="AQ25" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO20="","",_zhileng_day_hour!AO20)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B26" s="16">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C26" s="17" t="str">
+    <row r="26" spans="2:43">
+      <c r="B26" s="27">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C26" s="28" t="str">
         <f>IF(_zhileng_day_hour!A21="","",_zhileng_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="28" t="str">
         <f>IF(_zhileng_day_hour!B21="","",_zhileng_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E26" s="28" t="str">
         <f>IF(_zhileng_day_hour!C21="","",_zhileng_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F26" s="17" t="str">
+      <c r="F26" s="28" t="str">
         <f>IF(_zhileng_day_hour!D21="","",_zhileng_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G26" s="17" t="str">
+      <c r="G26" s="28" t="str">
         <f>IF(_zhileng_day_hour!E21="","",_zhileng_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="28" t="str">
         <f>IF(_zhileng_day_hour!F21="","",_zhileng_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I26" s="17" t="str">
+      <c r="I26" s="28" t="str">
         <f>IF(_zhileng_day_hour!G21="","",_zhileng_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J26" s="17" t="str">
+      <c r="J26" s="28" t="str">
         <f>IF(_zhileng_day_hour!H21="","",_zhileng_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K26" s="17" t="str">
+      <c r="K26" s="28" t="str">
         <f>IF(_zhileng_day_hour!I21="","",_zhileng_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="28" t="str">
         <f>IF(_zhileng_day_hour!J21="","",_zhileng_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M26" s="17" t="str">
+      <c r="M26" s="28" t="str">
         <f>IF(_zhileng_day_hour!K21="","",_zhileng_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N26" s="17" t="str">
+      <c r="N26" s="28" t="str">
         <f>IF(_zhileng_day_hour!L21="","",_zhileng_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="O26" s="28" t="str">
         <f>IF(_zhileng_day_hour!M21="","",_zhileng_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P26" s="17" t="str">
+      <c r="P26" s="28" t="str">
         <f>IF(_zhileng_day_hour!N21="","",_zhileng_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q26" s="17" t="str">
+      <c r="Q26" s="28" t="str">
         <f>IF(_zhileng_day_hour!O21="","",_zhileng_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R26" s="17" t="str">
+      <c r="R26" s="28" t="str">
         <f>IF(_zhileng_day_hour!P21="","",_zhileng_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S26" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q21="","",_zhileng_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T26" s="17" t="str">
+      <c r="T26" s="28" t="str">
         <f>IF(_zhileng_day_hour!R21="","",_zhileng_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U26" s="17" t="str">
+      <c r="U26" s="28" t="str">
         <f>IF(_zhileng_day_hour!S21="","",_zhileng_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V26" s="17" t="str">
+      <c r="V26" s="28" t="str">
         <f>IF(_zhileng_day_hour!T21="","",_zhileng_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W26" s="17" t="str">
+      <c r="W26" s="28" t="str">
         <f>IF(_zhileng_day_hour!U21="","",_zhileng_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X26" s="17" t="str">
+      <c r="X26" s="28" t="str">
         <f>IF(_zhileng_day_hour!V21="","",_zhileng_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y26" s="17" t="str">
+      <c r="Y26" s="28" t="str">
         <f>IF(_zhileng_day_hour!W21="","",_zhileng_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z26" s="17" t="str">
+      <c r="Z26" s="28" t="str">
         <f>IF(_zhileng_day_hour!X21="","",_zhileng_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA26" s="17" t="str">
+      <c r="AA26" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y21="","",_zhileng_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB26" s="17" t="str">
+      <c r="AB26" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z21="","",_zhileng_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC26" s="17" t="str">
+      <c r="AC26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA21="","",_zhileng_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD26" s="17" t="str">
+      <c r="AD26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB21="","",_zhileng_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE26" s="17" t="str">
+      <c r="AE26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC21="","",_zhileng_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF26" s="17" t="str">
+      <c r="AF26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD21="","",_zhileng_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG26" s="17" t="str">
+      <c r="AG26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE21="","",_zhileng_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH26" s="17" t="str">
+      <c r="AH26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF21="","",_zhileng_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI26" s="17" t="str">
+      <c r="AI26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG21="","",_zhileng_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ26" s="17" t="str">
+      <c r="AJ26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH21="","",_zhileng_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK26" s="17" t="str">
+      <c r="AK26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI21="","",_zhileng_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL26" s="17" t="str">
+      <c r="AL26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ21="","",_zhileng_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM26" s="17" t="str">
+      <c r="AM26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK21="","",_zhileng_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN26" s="17" t="str">
+      <c r="AN26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL21="","",_zhileng_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO26" s="17" t="str">
+      <c r="AO26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM21="","",_zhileng_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP26" s="17" t="str">
+      <c r="AP26" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN21="","",_zhileng_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ26" s="29" t="str">
+      <c r="AQ26" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO21="","",_zhileng_day_hour!AO21)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B27" s="16">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C27" s="17" t="str">
+    <row r="27" spans="2:43">
+      <c r="B27" s="27">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C27" s="28" t="str">
         <f>IF(_zhileng_day_hour!A22="","",_zhileng_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="28" t="str">
         <f>IF(_zhileng_day_hour!B22="","",_zhileng_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E27" s="28" t="str">
         <f>IF(_zhileng_day_hour!C22="","",_zhileng_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F27" s="17" t="str">
+      <c r="F27" s="28" t="str">
         <f>IF(_zhileng_day_hour!D22="","",_zhileng_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G27" s="17" t="str">
+      <c r="G27" s="28" t="str">
         <f>IF(_zhileng_day_hour!E22="","",_zhileng_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="28" t="str">
         <f>IF(_zhileng_day_hour!F22="","",_zhileng_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I27" s="17" t="str">
+      <c r="I27" s="28" t="str">
         <f>IF(_zhileng_day_hour!G22="","",_zhileng_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J27" s="17" t="str">
+      <c r="J27" s="28" t="str">
         <f>IF(_zhileng_day_hour!H22="","",_zhileng_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K27" s="17" t="str">
+      <c r="K27" s="28" t="str">
         <f>IF(_zhileng_day_hour!I22="","",_zhileng_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="28" t="str">
         <f>IF(_zhileng_day_hour!J22="","",_zhileng_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M27" s="17" t="str">
+      <c r="M27" s="28" t="str">
         <f>IF(_zhileng_day_hour!K22="","",_zhileng_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N27" s="17" t="str">
+      <c r="N27" s="28" t="str">
         <f>IF(_zhileng_day_hour!L22="","",_zhileng_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O27" s="17" t="str">
+      <c r="O27" s="28" t="str">
         <f>IF(_zhileng_day_hour!M22="","",_zhileng_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P27" s="17" t="str">
+      <c r="P27" s="28" t="str">
         <f>IF(_zhileng_day_hour!N22="","",_zhileng_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q27" s="17" t="str">
+      <c r="Q27" s="28" t="str">
         <f>IF(_zhileng_day_hour!O22="","",_zhileng_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R27" s="17" t="str">
+      <c r="R27" s="28" t="str">
         <f>IF(_zhileng_day_hour!P22="","",_zhileng_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S27" s="17" t="str">
+      <c r="S27" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q22="","",_zhileng_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T27" s="17" t="str">
+      <c r="T27" s="28" t="str">
         <f>IF(_zhileng_day_hour!R22="","",_zhileng_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U27" s="17" t="str">
+      <c r="U27" s="28" t="str">
         <f>IF(_zhileng_day_hour!S22="","",_zhileng_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V27" s="17" t="str">
+      <c r="V27" s="28" t="str">
         <f>IF(_zhileng_day_hour!T22="","",_zhileng_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W27" s="17" t="str">
+      <c r="W27" s="28" t="str">
         <f>IF(_zhileng_day_hour!U22="","",_zhileng_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X27" s="17" t="str">
+      <c r="X27" s="28" t="str">
         <f>IF(_zhileng_day_hour!V22="","",_zhileng_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y27" s="17" t="str">
+      <c r="Y27" s="28" t="str">
         <f>IF(_zhileng_day_hour!W22="","",_zhileng_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z27" s="17" t="str">
+      <c r="Z27" s="28" t="str">
         <f>IF(_zhileng_day_hour!X22="","",_zhileng_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA27" s="17" t="str">
+      <c r="AA27" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y22="","",_zhileng_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB27" s="17" t="str">
+      <c r="AB27" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z22="","",_zhileng_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC27" s="17" t="str">
+      <c r="AC27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA22="","",_zhileng_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD27" s="17" t="str">
+      <c r="AD27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB22="","",_zhileng_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE27" s="17" t="str">
+      <c r="AE27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC22="","",_zhileng_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF27" s="17" t="str">
+      <c r="AF27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD22="","",_zhileng_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG27" s="17" t="str">
+      <c r="AG27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE22="","",_zhileng_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH27" s="17" t="str">
+      <c r="AH27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF22="","",_zhileng_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI27" s="17" t="str">
+      <c r="AI27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG22="","",_zhileng_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ27" s="17" t="str">
+      <c r="AJ27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH22="","",_zhileng_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK27" s="17" t="str">
+      <c r="AK27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI22="","",_zhileng_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL27" s="17" t="str">
+      <c r="AL27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ22="","",_zhileng_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM27" s="17" t="str">
+      <c r="AM27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK22="","",_zhileng_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN27" s="17" t="str">
+      <c r="AN27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL22="","",_zhileng_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO27" s="17" t="str">
+      <c r="AO27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM22="","",_zhileng_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP27" s="17" t="str">
+      <c r="AP27" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN22="","",_zhileng_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ27" s="29" t="str">
+      <c r="AQ27" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO22="","",_zhileng_day_hour!AO22)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B28" s="16">
+    <row r="28" spans="2:43">
+      <c r="B28" s="27">
         <v>0.875</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="28" t="str">
         <f>IF(_zhileng_day_hour!A23="","",_zhileng_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="28" t="str">
         <f>IF(_zhileng_day_hour!B23="","",_zhileng_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="28" t="str">
         <f>IF(_zhileng_day_hour!C23="","",_zhileng_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F28" s="17" t="str">
+      <c r="F28" s="28" t="str">
         <f>IF(_zhileng_day_hour!D23="","",_zhileng_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G28" s="17" t="str">
+      <c r="G28" s="28" t="str">
         <f>IF(_zhileng_day_hour!E23="","",_zhileng_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H28" s="17" t="str">
+      <c r="H28" s="28" t="str">
         <f>IF(_zhileng_day_hour!F23="","",_zhileng_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I28" s="17" t="str">
+      <c r="I28" s="28" t="str">
         <f>IF(_zhileng_day_hour!G23="","",_zhileng_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J28" s="17" t="str">
+      <c r="J28" s="28" t="str">
         <f>IF(_zhileng_day_hour!H23="","",_zhileng_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K28" s="17" t="str">
+      <c r="K28" s="28" t="str">
         <f>IF(_zhileng_day_hour!I23="","",_zhileng_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="28" t="str">
         <f>IF(_zhileng_day_hour!J23="","",_zhileng_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M28" s="17" t="str">
+      <c r="M28" s="28" t="str">
         <f>IF(_zhileng_day_hour!K23="","",_zhileng_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N28" s="17" t="str">
+      <c r="N28" s="28" t="str">
         <f>IF(_zhileng_day_hour!L23="","",_zhileng_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O28" s="17" t="str">
+      <c r="O28" s="28" t="str">
         <f>IF(_zhileng_day_hour!M23="","",_zhileng_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P28" s="17" t="str">
+      <c r="P28" s="28" t="str">
         <f>IF(_zhileng_day_hour!N23="","",_zhileng_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q28" s="17" t="str">
+      <c r="Q28" s="28" t="str">
         <f>IF(_zhileng_day_hour!O23="","",_zhileng_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R28" s="17" t="str">
+      <c r="R28" s="28" t="str">
         <f>IF(_zhileng_day_hour!P23="","",_zhileng_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S28" s="17" t="str">
+      <c r="S28" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q23="","",_zhileng_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T28" s="17" t="str">
+      <c r="T28" s="28" t="str">
         <f>IF(_zhileng_day_hour!R23="","",_zhileng_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U28" s="17" t="str">
+      <c r="U28" s="28" t="str">
         <f>IF(_zhileng_day_hour!S23="","",_zhileng_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V28" s="17" t="str">
+      <c r="V28" s="28" t="str">
         <f>IF(_zhileng_day_hour!T23="","",_zhileng_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W28" s="17" t="str">
+      <c r="W28" s="28" t="str">
         <f>IF(_zhileng_day_hour!U23="","",_zhileng_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X28" s="17" t="str">
+      <c r="X28" s="28" t="str">
         <f>IF(_zhileng_day_hour!V23="","",_zhileng_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y28" s="17" t="str">
+      <c r="Y28" s="28" t="str">
         <f>IF(_zhileng_day_hour!W23="","",_zhileng_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z28" s="17" t="str">
+      <c r="Z28" s="28" t="str">
         <f>IF(_zhileng_day_hour!X23="","",_zhileng_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA28" s="17" t="str">
+      <c r="AA28" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y23="","",_zhileng_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB28" s="17" t="str">
+      <c r="AB28" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z23="","",_zhileng_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC28" s="17" t="str">
+      <c r="AC28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA23="","",_zhileng_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD28" s="17" t="str">
+      <c r="AD28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB23="","",_zhileng_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE28" s="17" t="str">
+      <c r="AE28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC23="","",_zhileng_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF28" s="17" t="str">
+      <c r="AF28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD23="","",_zhileng_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG28" s="17" t="str">
+      <c r="AG28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE23="","",_zhileng_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH28" s="17" t="str">
+      <c r="AH28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF23="","",_zhileng_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI28" s="17" t="str">
+      <c r="AI28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG23="","",_zhileng_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ28" s="17" t="str">
+      <c r="AJ28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH23="","",_zhileng_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK28" s="17" t="str">
+      <c r="AK28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI23="","",_zhileng_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL28" s="17" t="str">
+      <c r="AL28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ23="","",_zhileng_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM28" s="17" t="str">
+      <c r="AM28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK23="","",_zhileng_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN28" s="17" t="str">
+      <c r="AN28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL23="","",_zhileng_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO28" s="17" t="str">
+      <c r="AO28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM23="","",_zhileng_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP28" s="17" t="str">
+      <c r="AP28" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN23="","",_zhileng_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ28" s="29" t="str">
+      <c r="AQ28" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO23="","",_zhileng_day_hour!AO23)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B29" s="16">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C29" s="17" t="str">
+    <row r="29" spans="2:43">
+      <c r="B29" s="27">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C29" s="28" t="str">
         <f>IF(_zhileng_day_hour!A24="","",_zhileng_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="28" t="str">
         <f>IF(_zhileng_day_hour!B24="","",_zhileng_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E29" s="17" t="str">
+      <c r="E29" s="28" t="str">
         <f>IF(_zhileng_day_hour!C24="","",_zhileng_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F29" s="17" t="str">
+      <c r="F29" s="28" t="str">
         <f>IF(_zhileng_day_hour!D24="","",_zhileng_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G29" s="17" t="str">
+      <c r="G29" s="28" t="str">
         <f>IF(_zhileng_day_hour!E24="","",_zhileng_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H29" s="17" t="str">
+      <c r="H29" s="28" t="str">
         <f>IF(_zhileng_day_hour!F24="","",_zhileng_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I29" s="17" t="str">
+      <c r="I29" s="28" t="str">
         <f>IF(_zhileng_day_hour!G24="","",_zhileng_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J29" s="17" t="str">
+      <c r="J29" s="28" t="str">
         <f>IF(_zhileng_day_hour!H24="","",_zhileng_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K29" s="17" t="str">
+      <c r="K29" s="28" t="str">
         <f>IF(_zhileng_day_hour!I24="","",_zhileng_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L29" s="17" t="str">
+      <c r="L29" s="28" t="str">
         <f>IF(_zhileng_day_hour!J24="","",_zhileng_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M29" s="17" t="str">
+      <c r="M29" s="28" t="str">
         <f>IF(_zhileng_day_hour!K24="","",_zhileng_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N29" s="17" t="str">
+      <c r="N29" s="28" t="str">
         <f>IF(_zhileng_day_hour!L24="","",_zhileng_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O29" s="17" t="str">
+      <c r="O29" s="28" t="str">
         <f>IF(_zhileng_day_hour!M24="","",_zhileng_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P29" s="17" t="str">
+      <c r="P29" s="28" t="str">
         <f>IF(_zhileng_day_hour!N24="","",_zhileng_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q29" s="17" t="str">
+      <c r="Q29" s="28" t="str">
         <f>IF(_zhileng_day_hour!O24="","",_zhileng_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R29" s="17" t="str">
+      <c r="R29" s="28" t="str">
         <f>IF(_zhileng_day_hour!P24="","",_zhileng_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S29" s="17" t="str">
+      <c r="S29" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q24="","",_zhileng_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T29" s="17" t="str">
+      <c r="T29" s="28" t="str">
         <f>IF(_zhileng_day_hour!R24="","",_zhileng_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U29" s="17" t="str">
+      <c r="U29" s="28" t="str">
         <f>IF(_zhileng_day_hour!S24="","",_zhileng_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V29" s="17" t="str">
+      <c r="V29" s="28" t="str">
         <f>IF(_zhileng_day_hour!T24="","",_zhileng_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W29" s="17" t="str">
+      <c r="W29" s="28" t="str">
         <f>IF(_zhileng_day_hour!U24="","",_zhileng_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X29" s="17" t="str">
+      <c r="X29" s="28" t="str">
         <f>IF(_zhileng_day_hour!V24="","",_zhileng_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y29" s="17" t="str">
+      <c r="Y29" s="28" t="str">
         <f>IF(_zhileng_day_hour!W24="","",_zhileng_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z29" s="17" t="str">
+      <c r="Z29" s="28" t="str">
         <f>IF(_zhileng_day_hour!X24="","",_zhileng_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA29" s="17" t="str">
+      <c r="AA29" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y24="","",_zhileng_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB29" s="17" t="str">
+      <c r="AB29" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z24="","",_zhileng_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC29" s="17" t="str">
+      <c r="AC29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA24="","",_zhileng_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD29" s="17" t="str">
+      <c r="AD29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB24="","",_zhileng_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE29" s="17" t="str">
+      <c r="AE29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC24="","",_zhileng_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF29" s="17" t="str">
+      <c r="AF29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD24="","",_zhileng_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG29" s="17" t="str">
+      <c r="AG29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE24="","",_zhileng_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH29" s="17" t="str">
+      <c r="AH29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF24="","",_zhileng_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI29" s="17" t="str">
+      <c r="AI29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG24="","",_zhileng_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ29" s="17" t="str">
+      <c r="AJ29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH24="","",_zhileng_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK29" s="17" t="str">
+      <c r="AK29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI24="","",_zhileng_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL29" s="17" t="str">
+      <c r="AL29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ24="","",_zhileng_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM29" s="17" t="str">
+      <c r="AM29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK24="","",_zhileng_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN29" s="17" t="str">
+      <c r="AN29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL24="","",_zhileng_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO29" s="17" t="str">
+      <c r="AO29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM24="","",_zhileng_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP29" s="17" t="str">
+      <c r="AP29" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN24="","",_zhileng_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ29" s="29" t="str">
+      <c r="AQ29" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO24="","",_zhileng_day_hour!AO24)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B30" s="16">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C30" s="17" t="str">
+    <row r="30" spans="2:43">
+      <c r="B30" s="27">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C30" s="28" t="str">
         <f>IF(_zhileng_day_hour!A25="","",_zhileng_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="28" t="str">
         <f>IF(_zhileng_day_hour!B25="","",_zhileng_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="28" t="str">
         <f>IF(_zhileng_day_hour!C25="","",_zhileng_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F30" s="17" t="str">
+      <c r="F30" s="28" t="str">
         <f>IF(_zhileng_day_hour!D25="","",_zhileng_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G30" s="17" t="str">
+      <c r="G30" s="28" t="str">
         <f>IF(_zhileng_day_hour!E25="","",_zhileng_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H30" s="17" t="str">
+      <c r="H30" s="28" t="str">
         <f>IF(_zhileng_day_hour!F25="","",_zhileng_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I30" s="17" t="str">
+      <c r="I30" s="28" t="str">
         <f>IF(_zhileng_day_hour!G25="","",_zhileng_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J30" s="17" t="str">
+      <c r="J30" s="28" t="str">
         <f>IF(_zhileng_day_hour!H25="","",_zhileng_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K30" s="17" t="str">
+      <c r="K30" s="28" t="str">
         <f>IF(_zhileng_day_hour!I25="","",_zhileng_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L30" s="17" t="str">
+      <c r="L30" s="28" t="str">
         <f>IF(_zhileng_day_hour!J25="","",_zhileng_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M30" s="17" t="str">
+      <c r="M30" s="28" t="str">
         <f>IF(_zhileng_day_hour!K25="","",_zhileng_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N30" s="17" t="str">
+      <c r="N30" s="28" t="str">
         <f>IF(_zhileng_day_hour!L25="","",_zhileng_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O30" s="17" t="str">
+      <c r="O30" s="28" t="str">
         <f>IF(_zhileng_day_hour!M25="","",_zhileng_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P30" s="17" t="str">
+      <c r="P30" s="28" t="str">
         <f>IF(_zhileng_day_hour!N25="","",_zhileng_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q30" s="17" t="str">
+      <c r="Q30" s="28" t="str">
         <f>IF(_zhileng_day_hour!O25="","",_zhileng_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R30" s="17" t="str">
+      <c r="R30" s="28" t="str">
         <f>IF(_zhileng_day_hour!P25="","",_zhileng_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S30" s="17" t="str">
+      <c r="S30" s="28" t="str">
         <f>IF(_zhileng_day_hour!Q25="","",_zhileng_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T30" s="17" t="str">
+      <c r="T30" s="28" t="str">
         <f>IF(_zhileng_day_hour!R25="","",_zhileng_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U30" s="17" t="str">
+      <c r="U30" s="28" t="str">
         <f>IF(_zhileng_day_hour!S25="","",_zhileng_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V30" s="17" t="str">
+      <c r="V30" s="28" t="str">
         <f>IF(_zhileng_day_hour!T25="","",_zhileng_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W30" s="17" t="str">
+      <c r="W30" s="28" t="str">
         <f>IF(_zhileng_day_hour!U25="","",_zhileng_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X30" s="17" t="str">
+      <c r="X30" s="28" t="str">
         <f>IF(_zhileng_day_hour!V25="","",_zhileng_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y30" s="17" t="str">
+      <c r="Y30" s="28" t="str">
         <f>IF(_zhileng_day_hour!W25="","",_zhileng_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z30" s="17" t="str">
+      <c r="Z30" s="28" t="str">
         <f>IF(_zhileng_day_hour!X25="","",_zhileng_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA30" s="17" t="str">
+      <c r="AA30" s="28" t="str">
         <f>IF(_zhileng_day_hour!Y25="","",_zhileng_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB30" s="17" t="str">
+      <c r="AB30" s="28" t="str">
         <f>IF(_zhileng_day_hour!Z25="","",_zhileng_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC30" s="17" t="str">
+      <c r="AC30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AA25="","",_zhileng_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD30" s="17" t="str">
+      <c r="AD30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AB25="","",_zhileng_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE30" s="17" t="str">
+      <c r="AE30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AC25="","",_zhileng_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF30" s="17" t="str">
+      <c r="AF30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AD25="","",_zhileng_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG30" s="17" t="str">
+      <c r="AG30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AE25="","",_zhileng_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH30" s="17" t="str">
+      <c r="AH30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AF25="","",_zhileng_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI30" s="17" t="str">
+      <c r="AI30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AG25="","",_zhileng_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ30" s="17" t="str">
+      <c r="AJ30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AH25="","",_zhileng_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK30" s="17" t="str">
+      <c r="AK30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AI25="","",_zhileng_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL30" s="17" t="str">
+      <c r="AL30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AJ25="","",_zhileng_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM30" s="17" t="str">
+      <c r="AM30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AK25="","",_zhileng_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN30" s="17" t="str">
+      <c r="AN30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AL25="","",_zhileng_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO30" s="17" t="str">
+      <c r="AO30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AM25="","",_zhileng_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP30" s="17" t="str">
+      <c r="AP30" s="28" t="str">
         <f>IF(_zhileng_day_hour!AN25="","",_zhileng_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ30" s="29" t="str">
+      <c r="AQ30" s="75" t="str">
         <f>IF(_zhileng_day_hour!AO25="","",_zhileng_day_hour!AO25)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="2:43">
+      <c r="B31" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
-      <c r="AO31" s="17"/>
-      <c r="AP31" s="17"/>
-      <c r="AQ31" s="29"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="75"/>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="2:43">
+      <c r="B32" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="29"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="75"/>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B33" s="18" t="s">
+    <row r="33" spans="2:43">
+      <c r="B33" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="29"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="75"/>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B34" s="19" t="s">
+    <row r="34" ht="14.25" spans="2:43">
+      <c r="B34" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="29"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="75"/>
     </row>
-    <row r="35" spans="2:43" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="50" t="s">
+    <row r="35" ht="91.5" customHeight="1" spans="2:43">
+      <c r="B35" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="50" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="50" t="s">
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="25"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="25"/>
-      <c r="AP35" s="25"/>
-      <c r="AQ35" s="30"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="69"/>
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="69"/>
+      <c r="AN35" s="69"/>
+      <c r="AO35" s="69"/>
+      <c r="AP35" s="69"/>
+      <c r="AQ35" s="76"/>
     </row>
-    <row r="36" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+    <row r="36" ht="16.5" spans="2:43">
+      <c r="B36" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="53" t="s">
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="53" t="s">
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="31"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="70"/>
+      <c r="AJ36" s="70"/>
+      <c r="AK36" s="70"/>
+      <c r="AL36" s="70"/>
+      <c r="AM36" s="70"/>
+      <c r="AN36" s="70"/>
+      <c r="AO36" s="70"/>
+      <c r="AP36" s="70"/>
+      <c r="AQ36" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="AF3:AQ3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="M35:W35"/>
+    <mergeCell ref="X35:AH35"/>
     <mergeCell ref="B36:L36"/>
     <mergeCell ref="M36:W36"/>
     <mergeCell ref="X36:AH36"/>
@@ -6828,11 +7445,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="M35:W35"/>
-    <mergeCell ref="X35:AH35"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
@@ -6844,37 +7456,27 @@
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC3:AC5"/>
     <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="AF3:AQ3"/>
+    <mergeCell ref="AR3:AR5"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" ht="45" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -7000,20 +7602,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.制冷循环水（日）" sheetId="1" r:id="rId1"/>
@@ -617,10 +617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -722,11 +722,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -741,11 +736,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,9 +751,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,6 +780,43 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -780,11 +831,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,74 +865,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,13 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,19 +933,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +963,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,37 +1029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,19 +1053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,37 +1077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,6 +1604,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1615,30 +1624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1660,9 +1645,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1678,11 +1665,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1701,16 +1686,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1719,136 +1719,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2655,9 +2655,9 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="36">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="I2" s="36" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>

--- a/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制冷循环水（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="2.制冷循环水（日）" sheetId="1" r:id="rId1"/>
@@ -617,10 +617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -729,18 +729,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,28 +751,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,20 +805,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -817,9 +815,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,31 +839,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,7 +903,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,103 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,55 +1005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,6 +1018,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,6 +1643,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1662,55 +1701,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1719,7 +1719,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,127 +1728,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
